--- a/Лист Microsoft Excel.xlsx
+++ b/Лист Microsoft Excel.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="46">
   <si>
     <t>Flight Direction</t>
   </si>
@@ -33,34 +33,129 @@
     <t>Subitem</t>
   </si>
   <si>
-    <t>Напитки</t>
-  </si>
-  <si>
-    <t>Кофе</t>
-  </si>
-  <si>
-    <t>С молоком</t>
-  </si>
-  <si>
-    <t>Без молока</t>
-  </si>
-  <si>
-    <t>Еда</t>
-  </si>
-  <si>
-    <t>Салат</t>
-  </si>
-  <si>
-    <t>Чай</t>
-  </si>
-  <si>
-    <t>Зеленый</t>
-  </si>
-  <si>
-    <t>Паста</t>
-  </si>
-  <si>
-    <t>Сочи-Стамбул-Сочи</t>
+    <t>туда/обратно</t>
+  </si>
+  <si>
+    <t>НМ 201.1</t>
+  </si>
+  <si>
+    <t>Напитки б/а</t>
+  </si>
+  <si>
+    <t>Вода б/г</t>
+  </si>
+  <si>
+    <t>лимон</t>
+  </si>
+  <si>
+    <t>лёд</t>
+  </si>
+  <si>
+    <t>Вода газ</t>
+  </si>
+  <si>
+    <t>Вода горячая</t>
+  </si>
+  <si>
+    <t>Сок томатный</t>
+  </si>
+  <si>
+    <t>Сок Апельсиновый</t>
+  </si>
+  <si>
+    <t>Сок Яблочный</t>
+  </si>
+  <si>
+    <t>Кола</t>
+  </si>
+  <si>
+    <t>Спрайт</t>
+  </si>
+  <si>
+    <t>Алкоголь</t>
+  </si>
+  <si>
+    <t>Игристое</t>
+  </si>
+  <si>
+    <t>Вино красное</t>
+  </si>
+  <si>
+    <t>Вино белое</t>
+  </si>
+  <si>
+    <t>Коньяк</t>
+  </si>
+  <si>
+    <t>Виски</t>
+  </si>
+  <si>
+    <t>Водка</t>
+  </si>
+  <si>
+    <t>Закуска</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> мясная</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> рыбная</t>
+  </si>
+  <si>
+    <t>Горячее блюдо</t>
+  </si>
+  <si>
+    <t>Щечки телячьи томленые с овощами</t>
+  </si>
+  <si>
+    <t>Палтус в базиликовом соусе</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Филе индейки сувид 100 
+</t>
+  </si>
+  <si>
+    <t>Вырезка ростбиф</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Шашлычок из лосося+шашлычок из палтуса
+</t>
+  </si>
+  <si>
+    <t>Куриное филе в тимьяне</t>
+  </si>
+  <si>
+    <t>Десерт</t>
+  </si>
+  <si>
+    <t>Лимонное бисквит</t>
+  </si>
+  <si>
+    <t>Пирожное суфле клубничное</t>
+  </si>
+  <si>
+    <t>десерт</t>
+  </si>
+  <si>
+    <t>чай зеленый</t>
+  </si>
+  <si>
+    <t>молоко</t>
+  </si>
+  <si>
+    <t>чай черный</t>
+  </si>
+  <si>
+    <t>кофе</t>
+  </si>
+  <si>
+    <t>будить или нет?</t>
+  </si>
+  <si>
+    <t>будить</t>
+  </si>
+  <si>
+    <t>не будить</t>
   </si>
 </sst>
 </file>
@@ -92,7 +187,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -100,17 +195,112 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -413,113 +603,435 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="F1" s="4"/>
+    </row>
+    <row r="2" spans="1:6" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+    </row>
+    <row r="4" spans="1:6" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+    </row>
+    <row r="5" spans="1:6" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+    </row>
+    <row r="6" spans="1:6" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="2">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+    </row>
+    <row r="9" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="2">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="2" t="s">
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="6"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="A23" s="6"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="6"/>
+      <c r="B24" s="6"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="6"/>
+      <c r="B25" s="6"/>
+      <c r="C25" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="2">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2" t="s">
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="6"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="6"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D27" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="6"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A29" s="6"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="6"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D30" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="6"/>
+      <c r="B31" s="6"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="6"/>
+      <c r="B32" s="6"/>
+      <c r="C32" t="s">
+        <v>35</v>
+      </c>
+      <c r="D32" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="6"/>
+      <c r="B33" s="6"/>
+      <c r="C33" t="s">
+        <v>35</v>
+      </c>
+      <c r="D33" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="6"/>
+      <c r="B34" s="6"/>
+      <c r="C34" t="s">
+        <v>38</v>
+      </c>
+      <c r="D34" t="s">
+        <v>39</v>
+      </c>
+      <c r="E34" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:5" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="2">
-        <v>2</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="2">
-        <v>2</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="2"/>
+      <c r="F34" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="6"/>
+      <c r="B35" s="6"/>
+      <c r="C35" t="s">
+        <v>38</v>
+      </c>
+      <c r="D35" t="s">
+        <v>41</v>
+      </c>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="6"/>
+      <c r="B36" s="6"/>
+      <c r="C36" t="s">
+        <v>38</v>
+      </c>
+      <c r="D36" t="s">
+        <v>42</v>
+      </c>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B37" s="6"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B38" s="6"/>
+      <c r="C38" t="s">
+        <v>43</v>
+      </c>
+      <c r="D38" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B39" s="6"/>
+      <c r="C39" t="s">
+        <v>43</v>
+      </c>
+      <c r="D39" t="s">
+        <v>45</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A2:A36"/>
+    <mergeCell ref="B2:B39"/>
+    <mergeCell ref="E2:E16"/>
+    <mergeCell ref="F2:F16"/>
+    <mergeCell ref="E34:E36"/>
+    <mergeCell ref="F34:F36"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Лист Microsoft Excel.xlsx
+++ b/Лист Microsoft Excel.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="45">
   <si>
     <t>Flight Direction</t>
   </si>
@@ -33,12 +33,6 @@
     <t>Subitem</t>
   </si>
   <si>
-    <t>туда/обратно</t>
-  </si>
-  <si>
-    <t>НМ 201.1</t>
-  </si>
-  <si>
     <t>Напитки б/а</t>
   </si>
   <si>
@@ -96,12 +90,6 @@
     <t>Закуска</t>
   </si>
   <si>
-    <t xml:space="preserve"> мясная</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> рыбная</t>
-  </si>
-  <si>
     <t>Горячее блюдо</t>
   </si>
   <si>
@@ -111,29 +99,12 @@
     <t>Палтус в базиликовом соусе</t>
   </si>
   <si>
-    <t xml:space="preserve"> Филе индейки сувид 100 
-</t>
-  </si>
-  <si>
-    <t>Вырезка ростбиф</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Шашлычок из лосося+шашлычок из палтуса
-</t>
-  </si>
-  <si>
-    <t>Куриное филе в тимьяне</t>
-  </si>
-  <si>
     <t>Десерт</t>
   </si>
   <si>
     <t>Лимонное бисквит</t>
   </si>
   <si>
-    <t>Пирожное суфле клубничное</t>
-  </si>
-  <si>
     <t>десерт</t>
   </si>
   <si>
@@ -156,6 +127,30 @@
   </si>
   <si>
     <t>не будить</t>
+  </si>
+  <si>
+    <t>Сочи/Стамбул</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> мясная(Рулетики гов с жульеном)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> рыбная(тунец с/с в кунжуте)</t>
+  </si>
+  <si>
+    <t>НМ 200.1</t>
+  </si>
+  <si>
+    <t>Уточнить</t>
+  </si>
+  <si>
+    <t>уточнить</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Филе индейки сувид </t>
+  </si>
+  <si>
+    <t>НМ 200.2</t>
   </si>
 </sst>
 </file>
@@ -273,7 +268,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -287,21 +282,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -603,14 +600,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F39"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.88671875" style="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="33.33203125" bestFit="1" customWidth="1"/>
   </cols>
@@ -619,7 +618,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -633,406 +632,509 @@
       </c>
       <c r="F1" s="4"/>
     </row>
-    <row r="2" spans="1:6" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="E3" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="E4" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-    </row>
-    <row r="4" spans="1:6" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="E5" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-    </row>
-    <row r="5" spans="1:6" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="E6" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-    </row>
-    <row r="6" spans="1:6" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="E7" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="7" t="s">
+      <c r="E8" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="8" t="s">
+      <c r="E9" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-    </row>
-    <row r="9" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="9" t="s">
+      <c r="D10" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
+      <c r="E10" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>40</v>
+      </c>
       <c r="C11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="E11" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="C12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="8" t="s">
+      <c r="E12" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="8" t="s">
+      <c r="E13" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
-      <c r="C14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" s="8" t="s">
+      <c r="E14" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="C15" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" s="8" t="s">
+      <c r="E15" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
-      <c r="C16" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16" s="8" t="s">
+      <c r="D17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
-      <c r="C18" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="7" t="s">
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="D19" t="s">
+    </row>
+    <row r="20" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="8" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" t="s">
+    <row r="21" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="8" t="s">
+      <c r="D23" t="s">
         <v>28</v>
       </c>
-      <c r="D21" t="s">
+    </row>
+    <row r="24" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D22" s="10" t="s">
+      <c r="D24" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" ht="72" x14ac:dyDescent="0.3">
-      <c r="A23" s="6"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D23" s="10" t="s">
+      <c r="E24" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F24" s="13" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="6"/>
-      <c r="B24" s="6"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="6"/>
-      <c r="B25" s="6"/>
+    <row r="25" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>40</v>
+      </c>
       <c r="C25" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="6"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="7" t="s">
-        <v>25</v>
+        <v>29</v>
+      </c>
+      <c r="D25" t="s">
+        <v>32</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F25" s="13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" t="s">
+        <v>29</v>
       </c>
       <c r="D26" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="6"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="7" t="s">
-        <v>25</v>
+        <v>33</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F26" s="13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" t="s">
+        <v>29</v>
       </c>
       <c r="D27" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="6"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="8" t="s">
-        <v>28</v>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28" t="s">
+        <v>34</v>
       </c>
       <c r="D28" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A29" s="6"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D29" s="10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="6"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D30" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="6"/>
-      <c r="B31" s="6"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="6"/>
-      <c r="B32" s="6"/>
-      <c r="C32" t="s">
-        <v>35</v>
-      </c>
-      <c r="D32" t="s">
+      <c r="D29" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="6"/>
-      <c r="B33" s="6"/>
-      <c r="C33" t="s">
-        <v>35</v>
-      </c>
-      <c r="D33" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="6"/>
-      <c r="B34" s="6"/>
-      <c r="C34" t="s">
-        <v>38</v>
-      </c>
-      <c r="D34" t="s">
-        <v>39</v>
-      </c>
-      <c r="E34" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F34" s="11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="6"/>
-      <c r="B35" s="6"/>
-      <c r="C35" t="s">
-        <v>38</v>
-      </c>
-      <c r="D35" t="s">
-        <v>41</v>
-      </c>
-      <c r="E35" s="11"/>
-      <c r="F35" s="11"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="6"/>
-      <c r="B36" s="6"/>
-      <c r="C36" t="s">
-        <v>38</v>
-      </c>
-      <c r="D36" t="s">
-        <v>42</v>
-      </c>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B37" s="6"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B38" s="6"/>
-      <c r="C38" t="s">
-        <v>43</v>
-      </c>
-      <c r="D38" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B39" s="6"/>
-      <c r="C39" t="s">
-        <v>43</v>
-      </c>
-      <c r="D39" t="s">
-        <v>45</v>
-      </c>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="1">
     <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A2:A36"/>
-    <mergeCell ref="B2:B39"/>
-    <mergeCell ref="E2:E16"/>
-    <mergeCell ref="F2:F16"/>
-    <mergeCell ref="E34:E36"/>
-    <mergeCell ref="F34:F36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Лист Microsoft Excel.xlsx
+++ b/Лист Microsoft Excel.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="45">
   <si>
     <t>Flight Direction</t>
   </si>
@@ -182,7 +182,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -235,19 +235,6 @@
     </border>
     <border>
       <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right/>
       <top style="medium">
         <color indexed="64"/>
@@ -268,7 +255,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -276,29 +263,26 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -603,13 +587,13 @@
   <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.88671875" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.88671875" style="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="33.33203125" bestFit="1" customWidth="1"/>
   </cols>
@@ -618,7 +602,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -627,16 +611,18 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4"/>
+      <c r="F1" s="12" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" s="12" t="s">
+      <c r="A2" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>40</v>
       </c>
       <c r="C2" t="s">
@@ -645,18 +631,18 @@
       <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="9" t="s">
+      <c r="E2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3" s="12" t="s">
+      <c r="A3" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="10" t="s">
         <v>40</v>
       </c>
       <c r="C3" t="s">
@@ -665,18 +651,18 @@
       <c r="D3" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="9" t="s">
+      <c r="E3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4" s="12" t="s">
+      <c r="A4" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="10" t="s">
         <v>40</v>
       </c>
       <c r="C4" t="s">
@@ -685,18 +671,18 @@
       <c r="D4" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="9" t="s">
+      <c r="E4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B5" s="12" t="s">
+      <c r="A5" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="10" t="s">
         <v>40</v>
       </c>
       <c r="C5" t="s">
@@ -705,18 +691,18 @@
       <c r="D5" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="9" t="s">
+      <c r="E5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6" s="12" t="s">
+      <c r="A6" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="10" t="s">
         <v>40</v>
       </c>
       <c r="C6" t="s">
@@ -725,215 +711,215 @@
       <c r="D6" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" s="9" t="s">
+      <c r="E6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B7" s="12" t="s">
+      <c r="A7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="10" t="s">
         <v>40</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" s="9" t="s">
+      <c r="E7" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B8" s="12" t="s">
+      <c r="A8" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="10" t="s">
         <v>40</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" s="9" t="s">
+      <c r="E8" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B9" s="12" t="s">
+      <c r="A9" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="10" t="s">
         <v>40</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" s="9" t="s">
+      <c r="E9" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10" s="12" t="s">
+      <c r="A10" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="10" t="s">
         <v>40</v>
       </c>
       <c r="C10" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F10" s="9" t="s">
+      <c r="E10" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B11" s="12" t="s">
+      <c r="A11" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="10" t="s">
         <v>40</v>
       </c>
       <c r="C11" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" s="9" t="s">
+      <c r="E11" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B12" s="12" t="s">
+      <c r="A12" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="10" t="s">
         <v>40</v>
       </c>
       <c r="C12" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E12" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F12" s="9" t="s">
+      <c r="E12" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B13" s="12" t="s">
+      <c r="A13" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="10" t="s">
         <v>40</v>
       </c>
       <c r="C13" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F13" s="9" t="s">
+      <c r="E13" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B14" s="12" t="s">
+      <c r="A14" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="10" t="s">
         <v>40</v>
       </c>
       <c r="C14" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F14" s="9" t="s">
+      <c r="E14" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B15" s="12" t="s">
+      <c r="A15" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="10" t="s">
         <v>40</v>
       </c>
       <c r="C15" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E15" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F15" s="9" t="s">
+      <c r="E15" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B16" s="12" t="s">
+      <c r="A16" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="10" t="s">
         <v>40</v>
       </c>
       <c r="C16" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="4" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C17" s="5" t="s">
+      <c r="A17" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D17" t="s">
@@ -941,13 +927,13 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C18" s="5" t="s">
+      <c r="A18" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D18" t="s">
@@ -955,13 +941,13 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" s="6" t="s">
+      <c r="A19" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>24</v>
       </c>
       <c r="D19" t="s">
@@ -969,41 +955,41 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C20" s="6" t="s">
+      <c r="A20" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D20" s="6" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C21" s="6" t="s">
+      <c r="A21" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="D21" s="6" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B22" s="12" t="s">
+      <c r="A22" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="4" t="s">
         <v>24</v>
       </c>
       <c r="D22" t="s">
@@ -1011,10 +997,10 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B23" s="12" t="s">
+      <c r="A23" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="10" t="s">
         <v>40</v>
       </c>
       <c r="C23" t="s">
@@ -1025,10 +1011,10 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B24" s="12" t="s">
+      <c r="A24" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" s="10" t="s">
         <v>40</v>
       </c>
       <c r="C24" t="s">
@@ -1037,18 +1023,18 @@
       <c r="D24" t="s">
         <v>30</v>
       </c>
-      <c r="E24" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="F24" s="13" t="s">
+      <c r="E24" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F24" s="11" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B25" s="12" t="s">
+      <c r="A25" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" s="10" t="s">
         <v>40</v>
       </c>
       <c r="C25" t="s">
@@ -1057,18 +1043,18 @@
       <c r="D25" t="s">
         <v>32</v>
       </c>
-      <c r="E25" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="F25" s="13" t="s">
+      <c r="E25" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F25" s="11" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B26" s="12" t="s">
+      <c r="A26" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26" s="10" t="s">
         <v>40</v>
       </c>
       <c r="C26" t="s">
@@ -1077,18 +1063,18 @@
       <c r="D26" t="s">
         <v>33</v>
       </c>
-      <c r="E26" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="F26" s="13" t="s">
+      <c r="E26" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F26" s="11" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B27" s="12" t="s">
+      <c r="A27" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27" s="10" t="s">
         <v>40</v>
       </c>
       <c r="C27" t="s">
@@ -1099,10 +1085,10 @@
       </c>
     </row>
     <row r="28" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B28" s="12" t="s">
+      <c r="A28" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" s="10" t="s">
         <v>40</v>
       </c>
       <c r="C28" t="s">
@@ -1113,10 +1099,10 @@
       </c>
     </row>
     <row r="29" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B29" s="12" t="s">
+      <c r="A29" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29" s="10" t="s">
         <v>40</v>
       </c>
       <c r="C29" t="s">
@@ -1127,12 +1113,9 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="9"/>
+      <c r="A30" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="E1:F1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Лист Microsoft Excel.xlsx
+++ b/Лист Microsoft Excel.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="43">
   <si>
     <t>Flight Direction</t>
   </si>
@@ -39,12 +39,6 @@
     <t>Вода б/г</t>
   </si>
   <si>
-    <t>лимон</t>
-  </si>
-  <si>
-    <t>лёд</t>
-  </si>
-  <si>
     <t>Вода газ</t>
   </si>
   <si>
@@ -111,9 +105,6 @@
     <t>чай зеленый</t>
   </si>
   <si>
-    <t>молоко</t>
-  </si>
-  <si>
     <t>чай черный</t>
   </si>
   <si>
@@ -150,7 +141,10 @@
     <t xml:space="preserve">Филе индейки сувид </t>
   </si>
   <si>
-    <t>НМ 200.2</t>
+    <t>лимон, лёд</t>
+  </si>
+  <si>
+    <t>лимон, молоко</t>
   </si>
 </sst>
 </file>
@@ -255,7 +249,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -279,7 +273,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -584,10 +577,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -596,9 +589,10 @@
     <col min="2" max="2" width="9.88671875" style="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="33.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -611,19 +605,16 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -631,488 +622,437 @@
       <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="7" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+      <c r="E7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>12</v>
+      </c>
+      <c r="E8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10" s="10" t="s">
+      <c r="E10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C15" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="4" t="s">
+    </row>
+    <row r="22" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" s="4" t="s">
+      <c r="D22" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>28</v>
+      </c>
+      <c r="E24" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D17" t="s">
+    <row r="25" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>29</v>
+      </c>
+      <c r="E25" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>30</v>
+      </c>
+      <c r="E26" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D18" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D22" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C23" t="s">
-        <v>27</v>
-      </c>
-      <c r="D23" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C24" t="s">
-        <v>29</v>
-      </c>
-      <c r="D24" t="s">
-        <v>30</v>
-      </c>
-      <c r="E24" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="F24" s="11" t="s">
+    <row r="28" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C25" t="s">
-        <v>29</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="D28" t="s">
         <v>32</v>
       </c>
-      <c r="E25" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="F25" s="11" t="s">
+    </row>
+    <row r="29" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C29" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C26" t="s">
-        <v>29</v>
-      </c>
-      <c r="D26" t="s">
+      <c r="D29" t="s">
         <v>33</v>
       </c>
-      <c r="E26" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="F26" s="11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C27" t="s">
-        <v>29</v>
-      </c>
-      <c r="D27" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C28" t="s">
-        <v>34</v>
-      </c>
-      <c r="D28" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B29" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C29" t="s">
-        <v>34</v>
-      </c>
-      <c r="D29" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="7"/>
     </row>
   </sheetData>

--- a/Лист Microsoft Excel.xlsx
+++ b/Лист Microsoft Excel.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="50">
   <si>
     <t>Flight Direction</t>
   </si>
@@ -39,6 +39,12 @@
     <t>Вода б/г</t>
   </si>
   <si>
+    <t>лимон</t>
+  </si>
+  <si>
+    <t>лёд</t>
+  </si>
+  <si>
     <t>Вода газ</t>
   </si>
   <si>
@@ -132,6 +138,9 @@
     <t>НМ 200.1</t>
   </si>
   <si>
+    <t>НМ 204.1</t>
+  </si>
+  <si>
     <t>Уточнить</t>
   </si>
   <si>
@@ -145,6 +154,18 @@
   </si>
   <si>
     <t>лимон, молоко</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> рыбная(Лосось с/с, Угорь х/к)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> мясная(Куриная грудка с/к со свеклой)</t>
+  </si>
+  <si>
+    <t>Лосось в кунжуте картофельные дольки</t>
+  </si>
+  <si>
+    <t>Куриные филе сувид</t>
   </si>
 </sst>
 </file>
@@ -577,10 +598,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -592,7 +613,7 @@
     <col min="5" max="5" width="14.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -608,13 +629,16 @@
       <c r="E1" s="11" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F1" s="11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -623,437 +647,880 @@
         <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
       </c>
       <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
         <v>7</v>
       </c>
-      <c r="E3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+      <c r="F5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" t="s">
         <v>16</v>
       </c>
-      <c r="E11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" t="s">
-        <v>14</v>
-      </c>
       <c r="D12" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C13" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E13" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C14" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E14" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C15" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E15" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C16" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B17" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" t="s">
         <v>37</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D17" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D18" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D19" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D22" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C24" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D24" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E24" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D25" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E25" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C26" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D26" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E26" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C27" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D27" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C28" t="s">
+        <v>33</v>
+      </c>
+      <c r="D28" t="s">
         <v>34</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C28" t="s">
-        <v>31</v>
-      </c>
-      <c r="D28" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C29" t="s">
+        <v>33</v>
+      </c>
+      <c r="D29" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" t="s">
+        <v>6</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" t="s">
+        <v>11</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C34" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" t="s">
+        <v>12</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C35" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C36" t="s">
+        <v>5</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C37" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C38" t="s">
+        <v>16</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C39" t="s">
+        <v>16</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40" t="s">
+        <v>16</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C41" t="s">
+        <v>16</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42" t="s">
+        <v>16</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C43" t="s">
+        <v>16</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C44" t="s">
+        <v>16</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D45" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D46" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D47" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D50" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B51" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C51" t="s">
+        <v>27</v>
+      </c>
+      <c r="D51" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B52" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C52" t="s">
+        <v>29</v>
+      </c>
+      <c r="D52" t="s">
+        <v>30</v>
+      </c>
+      <c r="E52" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B53" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C53" t="s">
+        <v>29</v>
+      </c>
+      <c r="D53" t="s">
+        <v>31</v>
+      </c>
+      <c r="E53" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C54" t="s">
+        <v>29</v>
+      </c>
+      <c r="D54" t="s">
+        <v>32</v>
+      </c>
+      <c r="E54" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B55" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C55" t="s">
+        <v>29</v>
+      </c>
+      <c r="D55" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B56" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C56" t="s">
+        <v>33</v>
+      </c>
+      <c r="D56" t="s">
         <v>34</v>
       </c>
-      <c r="B29" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C29" t="s">
-        <v>31</v>
-      </c>
-      <c r="D29" t="s">
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B57" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C57" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="7"/>
+      <c r="D57" t="s">
+        <v>35</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Лист Microsoft Excel.xlsx
+++ b/Лист Microsoft Excel.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="51">
   <si>
     <t>Flight Direction</t>
   </si>
@@ -166,6 +166,9 @@
   </si>
   <si>
     <t>Куриные филе сувид</t>
+  </si>
+  <si>
+    <t>Subitem.1</t>
   </si>
 </sst>
 </file>
@@ -601,7 +604,7 @@
   <dimension ref="A1:F57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -630,7 +633,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>4</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">

--- a/Лист Microsoft Excel.xlsx
+++ b/Лист Microsoft Excel.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="50">
   <si>
     <t>Flight Direction</t>
   </si>
@@ -150,12 +150,6 @@
     <t xml:space="preserve">Филе индейки сувид </t>
   </si>
   <si>
-    <t>лимон, лёд</t>
-  </si>
-  <si>
-    <t>лимон, молоко</t>
-  </si>
-  <si>
     <t xml:space="preserve"> рыбная(Лосось с/с, Угорь х/к)</t>
   </si>
   <si>
@@ -169,6 +163,9 @@
   </si>
   <si>
     <t>Subitem.1</t>
+  </si>
+  <si>
+    <t>молоко</t>
   </si>
 </sst>
 </file>
@@ -603,8 +600,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E52" sqref="E52:F54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -633,7 +630,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -650,7 +647,10 @@
         <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -669,6 +669,9 @@
       <c r="E3" t="s">
         <v>7</v>
       </c>
+      <c r="F3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="4" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
@@ -684,7 +687,10 @@
         <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>7</v>
+      </c>
+      <c r="F4" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -721,7 +727,10 @@
         <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>7</v>
+      </c>
+      <c r="F6" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -738,7 +747,10 @@
         <v>13</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>7</v>
+      </c>
+      <c r="F7" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -755,7 +767,10 @@
         <v>14</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>7</v>
+      </c>
+      <c r="F8" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -772,7 +787,10 @@
         <v>15</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>7</v>
+      </c>
+      <c r="F9" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -789,7 +807,10 @@
         <v>17</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>7</v>
+      </c>
+      <c r="F10" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -806,7 +827,10 @@
         <v>18</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>7</v>
+      </c>
+      <c r="F11" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -823,7 +847,10 @@
         <v>19</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>7</v>
+      </c>
+      <c r="F12" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -840,7 +867,10 @@
         <v>20</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>7</v>
+      </c>
+      <c r="F13" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -857,7 +887,10 @@
         <v>21</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>7</v>
+      </c>
+      <c r="F14" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -874,7 +907,10 @@
         <v>22</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>7</v>
+      </c>
+      <c r="F15" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -891,7 +927,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="7" t="s">
         <v>36</v>
       </c>
@@ -905,7 +941,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="7" t="s">
         <v>36</v>
       </c>
@@ -919,7 +955,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="7" t="s">
         <v>36</v>
       </c>
@@ -933,7 +969,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="7" t="s">
         <v>36</v>
       </c>
@@ -947,7 +983,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="7" t="s">
         <v>36</v>
       </c>
@@ -961,7 +997,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="7" t="s">
         <v>36</v>
       </c>
@@ -975,7 +1011,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="7" t="s">
         <v>36</v>
       </c>
@@ -989,7 +1025,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="7" t="s">
         <v>36</v>
       </c>
@@ -1003,10 +1039,13 @@
         <v>30</v>
       </c>
       <c r="E24" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+      <c r="F24" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="7" t="s">
         <v>36</v>
       </c>
@@ -1020,10 +1059,13 @@
         <v>31</v>
       </c>
       <c r="E25" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+      <c r="F25" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="7" t="s">
         <v>36</v>
       </c>
@@ -1037,10 +1079,13 @@
         <v>32</v>
       </c>
       <c r="E26" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+      <c r="F26" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="7" t="s">
         <v>36</v>
       </c>
@@ -1054,7 +1099,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="7" t="s">
         <v>36</v>
       </c>
@@ -1068,7 +1113,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="7" t="s">
         <v>36</v>
       </c>
@@ -1082,7 +1127,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="7" t="s">
         <v>36</v>
       </c>
@@ -1096,10 +1141,13 @@
         <v>6</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+      <c r="F30" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="7" t="s">
         <v>36</v>
       </c>
@@ -1113,10 +1161,13 @@
         <v>9</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+      <c r="F31" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="7" t="s">
         <v>36</v>
       </c>
@@ -1130,10 +1181,13 @@
         <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+      <c r="F32" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="7" t="s">
         <v>36</v>
       </c>
@@ -1147,10 +1201,13 @@
         <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+      <c r="F33" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="7" t="s">
         <v>36</v>
       </c>
@@ -1164,10 +1221,13 @@
         <v>12</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+      <c r="F34" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="7" t="s">
         <v>36</v>
       </c>
@@ -1181,10 +1241,13 @@
         <v>13</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+      <c r="F35" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="7" t="s">
         <v>36</v>
       </c>
@@ -1198,10 +1261,13 @@
         <v>14</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+      <c r="F36" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="7" t="s">
         <v>36</v>
       </c>
@@ -1215,10 +1281,13 @@
         <v>15</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+      <c r="F37" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="7" t="s">
         <v>36</v>
       </c>
@@ -1232,10 +1301,13 @@
         <v>17</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+      <c r="F38" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="7" t="s">
         <v>36</v>
       </c>
@@ -1249,10 +1321,13 @@
         <v>18</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+      <c r="F39" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="7" t="s">
         <v>36</v>
       </c>
@@ -1266,10 +1341,13 @@
         <v>19</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+      <c r="F40" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="7" t="s">
         <v>36</v>
       </c>
@@ -1283,10 +1361,13 @@
         <v>20</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+      <c r="F41" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="7" t="s">
         <v>36</v>
       </c>
@@ -1300,10 +1381,13 @@
         <v>21</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+      <c r="F42" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="7" t="s">
         <v>36</v>
       </c>
@@ -1317,10 +1401,13 @@
         <v>22</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+      <c r="F43" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="7" t="s">
         <v>36</v>
       </c>
@@ -1334,7 +1421,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="7" t="s">
         <v>36</v>
       </c>
@@ -1345,10 +1432,10 @@
         <v>23</v>
       </c>
       <c r="D45" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="7" t="s">
         <v>36</v>
       </c>
@@ -1359,10 +1446,10 @@
         <v>23</v>
       </c>
       <c r="D46" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="7" t="s">
         <v>36</v>
       </c>
@@ -1376,7 +1463,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="7" t="s">
         <v>36</v>
       </c>
@@ -1387,10 +1474,10 @@
         <v>24</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="7" t="s">
         <v>36</v>
       </c>
@@ -1401,10 +1488,10 @@
         <v>24</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="7" t="s">
         <v>36</v>
       </c>
@@ -1418,7 +1505,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="7" t="s">
         <v>36</v>
       </c>
@@ -1432,7 +1519,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="7" t="s">
         <v>36</v>
       </c>
@@ -1446,10 +1533,13 @@
         <v>30</v>
       </c>
       <c r="E52" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+      <c r="F52" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="7" t="s">
         <v>36</v>
       </c>
@@ -1463,10 +1553,13 @@
         <v>31</v>
       </c>
       <c r="E53" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+      <c r="F53" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="7" t="s">
         <v>36</v>
       </c>
@@ -1480,10 +1573,13 @@
         <v>32</v>
       </c>
       <c r="E54" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+      <c r="F54" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="7" t="s">
         <v>36</v>
       </c>
@@ -1497,7 +1593,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="7" t="s">
         <v>36</v>
       </c>
@@ -1511,7 +1607,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="7" t="s">
         <v>36</v>
       </c>

--- a/Лист Microsoft Excel.xlsx
+++ b/Лист Microsoft Excel.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="64">
   <si>
     <t>Flight Direction</t>
   </si>
@@ -105,9 +105,6 @@
     <t>Лимонное бисквит</t>
   </si>
   <si>
-    <t>десерт</t>
-  </si>
-  <si>
     <t>чай зеленый</t>
   </si>
   <si>
@@ -166,13 +163,58 @@
   </si>
   <si>
     <t>молоко</t>
+  </si>
+  <si>
+    <t>Сочи/Дубай</t>
+  </si>
+  <si>
+    <t>НB 200.1</t>
+  </si>
+  <si>
+    <t>Омлет-рулет</t>
+  </si>
+  <si>
+    <t>Сырники из творога</t>
+  </si>
+  <si>
+    <t>Каша овсяная на молоке</t>
+  </si>
+  <si>
+    <t>Йогурт с джемом</t>
+  </si>
+  <si>
+    <t>Сок Томатный</t>
+  </si>
+  <si>
+    <t>Рыбная(Тартар из лосося)</t>
+  </si>
+  <si>
+    <t>Сочи/Ереван</t>
+  </si>
+  <si>
+    <t>HSM 200.1</t>
+  </si>
+  <si>
+    <t>HSM 204.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> мясная(Рулет куриный с брокколи и омлетом)</t>
+  </si>
+  <si>
+    <t>Куриное филе су вид в паприке</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> мясная( Рулетики из вырезки сувид с жульеном)</t>
+  </si>
+  <si>
+    <t>Пирожное морковное</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -186,6 +228,15 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -270,7 +321,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -297,6 +348,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -598,10 +655,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F57"/>
+  <dimension ref="A1:F162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="E52" sqref="E52:F54"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -610,7 +667,7 @@
     <col min="2" max="2" width="9.88671875" style="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="33.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -630,17 +687,17 @@
         <v>4</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="13" t="s">
         <v>5</v>
       </c>
       <c r="D2" t="s">
@@ -655,12 +712,12 @@
     </row>
     <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="13" t="s">
         <v>5</v>
       </c>
       <c r="D3" t="s">
@@ -675,12 +732,12 @@
     </row>
     <row r="4" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="13" t="s">
         <v>5</v>
       </c>
       <c r="D4" t="s">
@@ -695,12 +752,12 @@
     </row>
     <row r="5" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="13" t="s">
         <v>5</v>
       </c>
       <c r="D5" t="s">
@@ -715,12 +772,12 @@
     </row>
     <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="13" t="s">
         <v>5</v>
       </c>
       <c r="D6" t="s">
@@ -735,12 +792,12 @@
     </row>
     <row r="7" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="13" t="s">
         <v>5</v>
       </c>
       <c r="D7" s="3" t="s">
@@ -755,12 +812,12 @@
     </row>
     <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="13" t="s">
         <v>5</v>
       </c>
       <c r="D8" s="4" t="s">
@@ -775,12 +832,12 @@
     </row>
     <row r="9" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="13" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="5" t="s">
@@ -795,12 +852,12 @@
     </row>
     <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="13" t="s">
         <v>16</v>
       </c>
       <c r="D10" s="4" t="s">
@@ -815,12 +872,12 @@
     </row>
     <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="13" t="s">
         <v>16</v>
       </c>
       <c r="D11" s="4" t="s">
@@ -835,12 +892,12 @@
     </row>
     <row r="12" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="13" t="s">
         <v>16</v>
       </c>
       <c r="D12" s="4" t="s">
@@ -855,12 +912,12 @@
     </row>
     <row r="13" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="13" t="s">
         <v>16</v>
       </c>
       <c r="D13" s="4" t="s">
@@ -875,12 +932,12 @@
     </row>
     <row r="14" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="13" t="s">
         <v>16</v>
       </c>
       <c r="D14" s="4" t="s">
@@ -895,12 +952,12 @@
     </row>
     <row r="15" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="13" t="s">
         <v>16</v>
       </c>
       <c r="D15" s="4" t="s">
@@ -915,54 +972,54 @@
     </row>
     <row r="16" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="13" t="s">
         <v>16</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" t="s">
         <v>36</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D17" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C18" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="14" t="s">
         <v>23</v>
       </c>
       <c r="D18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C19" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D19" t="s">
@@ -971,12 +1028,12 @@
     </row>
     <row r="20" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C20" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D20" s="6" t="s">
@@ -985,40 +1042,40 @@
     </row>
     <row r="21" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C21" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C23" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="13" t="s">
         <v>27</v>
       </c>
       <c r="D23" t="s">
@@ -1027,114 +1084,114 @@
     </row>
     <row r="24" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C24" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>29</v>
       </c>
-      <c r="D24" t="s">
-        <v>30</v>
-      </c>
       <c r="E24" t="s">
         <v>7</v>
       </c>
       <c r="F24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C25" t="s">
-        <v>29</v>
+        <v>38</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E25" t="s">
         <v>7</v>
       </c>
       <c r="F25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C26" t="s">
-        <v>29</v>
+        <v>38</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E26" t="s">
         <v>7</v>
       </c>
       <c r="F26" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C27" t="s">
-        <v>29</v>
+        <v>38</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>27</v>
       </c>
       <c r="D27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C28" t="s">
+        <v>38</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D28" t="s">
         <v>33</v>
-      </c>
-      <c r="D28" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C29" t="s">
-        <v>33</v>
+        <v>38</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>32</v>
       </c>
       <c r="D29" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C30" t="s">
+        <v>39</v>
+      </c>
+      <c r="C30" s="13" t="s">
         <v>5</v>
       </c>
       <c r="D30" t="s">
@@ -1149,12 +1206,12 @@
     </row>
     <row r="31" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C31" t="s">
+        <v>39</v>
+      </c>
+      <c r="C31" s="13" t="s">
         <v>5</v>
       </c>
       <c r="D31" t="s">
@@ -1169,12 +1226,12 @@
     </row>
     <row r="32" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C32" t="s">
+        <v>39</v>
+      </c>
+      <c r="C32" s="13" t="s">
         <v>5</v>
       </c>
       <c r="D32" t="s">
@@ -1189,12 +1246,12 @@
     </row>
     <row r="33" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C33" t="s">
+        <v>39</v>
+      </c>
+      <c r="C33" s="13" t="s">
         <v>5</v>
       </c>
       <c r="D33" t="s">
@@ -1209,12 +1266,12 @@
     </row>
     <row r="34" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C34" t="s">
+        <v>39</v>
+      </c>
+      <c r="C34" s="13" t="s">
         <v>5</v>
       </c>
       <c r="D34" t="s">
@@ -1229,12 +1286,12 @@
     </row>
     <row r="35" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C35" t="s">
+        <v>39</v>
+      </c>
+      <c r="C35" s="13" t="s">
         <v>5</v>
       </c>
       <c r="D35" s="3" t="s">
@@ -1249,12 +1306,12 @@
     </row>
     <row r="36" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C36" t="s">
+        <v>39</v>
+      </c>
+      <c r="C36" s="13" t="s">
         <v>5</v>
       </c>
       <c r="D36" s="4" t="s">
@@ -1269,12 +1326,12 @@
     </row>
     <row r="37" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C37" t="s">
+        <v>39</v>
+      </c>
+      <c r="C37" s="13" t="s">
         <v>5</v>
       </c>
       <c r="D37" s="5" t="s">
@@ -1289,12 +1346,12 @@
     </row>
     <row r="38" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C38" t="s">
+        <v>39</v>
+      </c>
+      <c r="C38" s="13" t="s">
         <v>16</v>
       </c>
       <c r="D38" s="4" t="s">
@@ -1309,12 +1366,12 @@
     </row>
     <row r="39" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C39" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39" s="13" t="s">
         <v>16</v>
       </c>
       <c r="D39" s="4" t="s">
@@ -1329,12 +1386,12 @@
     </row>
     <row r="40" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C40" t="s">
+        <v>39</v>
+      </c>
+      <c r="C40" s="13" t="s">
         <v>16</v>
       </c>
       <c r="D40" s="4" t="s">
@@ -1349,12 +1406,12 @@
     </row>
     <row r="41" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41" s="13" t="s">
         <v>16</v>
       </c>
       <c r="D41" s="4" t="s">
@@ -1369,12 +1426,12 @@
     </row>
     <row r="42" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C42" t="s">
+        <v>39</v>
+      </c>
+      <c r="C42" s="13" t="s">
         <v>16</v>
       </c>
       <c r="D42" s="4" t="s">
@@ -1389,12 +1446,12 @@
     </row>
     <row r="43" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C43" t="s">
+        <v>39</v>
+      </c>
+      <c r="C43" s="13" t="s">
         <v>16</v>
       </c>
       <c r="D43" s="4" t="s">
@@ -1409,54 +1466,54 @@
     </row>
     <row r="44" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C44" t="s">
+        <v>39</v>
+      </c>
+      <c r="C44" s="13" t="s">
         <v>16</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C45" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C45" s="14" t="s">
         <v>23</v>
       </c>
       <c r="D45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C46" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C46" s="14" t="s">
         <v>23</v>
       </c>
       <c r="D46" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C47" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C47" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D47" t="s">
@@ -1465,54 +1522,54 @@
     </row>
     <row r="48" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C48" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C48" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C49" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C49" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C50" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C50" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D50" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C51" t="s">
+        <v>39</v>
+      </c>
+      <c r="C51" s="13" t="s">
         <v>27</v>
       </c>
       <c r="D51" t="s">
@@ -1521,104 +1578,1982 @@
     </row>
     <row r="52" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C52" t="s">
+        <v>39</v>
+      </c>
+      <c r="C52" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D52" t="s">
         <v>29</v>
       </c>
-      <c r="D52" t="s">
-        <v>30</v>
-      </c>
       <c r="E52" t="s">
         <v>7</v>
       </c>
       <c r="F52" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C53" t="s">
-        <v>29</v>
+        <v>39</v>
+      </c>
+      <c r="C53" s="13" t="s">
+        <v>27</v>
       </c>
       <c r="D53" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E53" t="s">
         <v>7</v>
       </c>
       <c r="F53" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C54" t="s">
-        <v>29</v>
+        <v>39</v>
+      </c>
+      <c r="C54" s="13" t="s">
+        <v>27</v>
       </c>
       <c r="D54" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E54" t="s">
         <v>7</v>
       </c>
       <c r="F54" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B55" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C55" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D55" t="s">
         <v>40</v>
-      </c>
-      <c r="C55" t="s">
-        <v>29</v>
-      </c>
-      <c r="D55" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B56" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C56" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D56" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B57" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C57" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D57" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B58" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C58" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D58" t="s">
+        <v>6</v>
+      </c>
+      <c r="E58" t="s">
+        <v>7</v>
+      </c>
+      <c r="F58" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B59" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C59" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D59" t="s">
+        <v>9</v>
+      </c>
+      <c r="E59" t="s">
+        <v>7</v>
+      </c>
+      <c r="F59" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B60" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C60" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D60" t="s">
+        <v>10</v>
+      </c>
+      <c r="E60" t="s">
+        <v>7</v>
+      </c>
+      <c r="F60" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B61" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C61" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D61" t="s">
+        <v>55</v>
+      </c>
+      <c r="E61" t="s">
+        <v>7</v>
+      </c>
+      <c r="F61" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B62" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C62" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D62" t="s">
+        <v>12</v>
+      </c>
+      <c r="E62" t="s">
+        <v>7</v>
+      </c>
+      <c r="F62" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B63" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C63" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E63" t="s">
+        <v>7</v>
+      </c>
+      <c r="F63" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B64" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C64" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E64" t="s">
+        <v>7</v>
+      </c>
+      <c r="F64" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B65" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C65" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E65" t="s">
+        <v>7</v>
+      </c>
+      <c r="F65" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B66" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C66" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E66" t="s">
+        <v>7</v>
+      </c>
+      <c r="F66" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B67" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C67" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E67" t="s">
+        <v>7</v>
+      </c>
+      <c r="F67" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B68" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C68" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E68" t="s">
+        <v>7</v>
+      </c>
+      <c r="F68" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B69" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C69" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E69" t="s">
+        <v>7</v>
+      </c>
+      <c r="F69" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B70" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C70" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E70" t="s">
+        <v>7</v>
+      </c>
+      <c r="F70" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B71" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C71" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E71" t="s">
+        <v>7</v>
+      </c>
+      <c r="F71" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B72" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C72" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B73" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C73" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D73" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B74" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C74" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D74" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B75" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C75" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D75" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A76" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B76" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C76" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D76" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B77" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C77" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D77" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B78" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C78" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D78" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B79" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C79" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D79" t="s">
+        <v>29</v>
+      </c>
+      <c r="E79" t="s">
+        <v>7</v>
+      </c>
+      <c r="F79" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A80" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B80" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C80" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D80" t="s">
+        <v>30</v>
+      </c>
+      <c r="E80" t="s">
+        <v>7</v>
+      </c>
+      <c r="F80" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A81" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B81" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C81" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D81" t="s">
+        <v>31</v>
+      </c>
+      <c r="E81" t="s">
+        <v>7</v>
+      </c>
+      <c r="F81" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A82" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B82" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C82" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D82" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A83" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B83" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C83" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D83" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A84" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B84" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C84" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D84" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A85" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B85" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C85" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D85" t="s">
+        <v>6</v>
+      </c>
+      <c r="E85" t="s">
+        <v>7</v>
+      </c>
+      <c r="F85" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A86" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B86" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C86" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D86" t="s">
+        <v>9</v>
+      </c>
+      <c r="E86" t="s">
+        <v>7</v>
+      </c>
+      <c r="F86" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A87" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B87" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C87" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D87" t="s">
+        <v>10</v>
+      </c>
+      <c r="E87" t="s">
+        <v>7</v>
+      </c>
+      <c r="F87" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A88" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B88" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C88" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D88" t="s">
+        <v>11</v>
+      </c>
+      <c r="E88" t="s">
+        <v>7</v>
+      </c>
+      <c r="F88" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A89" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B89" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C89" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D89" t="s">
+        <v>12</v>
+      </c>
+      <c r="E89" t="s">
+        <v>7</v>
+      </c>
+      <c r="F89" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A90" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B90" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C90" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E90" t="s">
+        <v>7</v>
+      </c>
+      <c r="F90" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A91" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B91" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C91" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D91" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E91" t="s">
+        <v>7</v>
+      </c>
+      <c r="F91" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A92" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B92" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C92" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D92" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E92" t="s">
+        <v>7</v>
+      </c>
+      <c r="F92" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A93" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B93" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C93" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E93" t="s">
+        <v>7</v>
+      </c>
+      <c r="F93" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A94" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B94" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C94" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D94" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E94" t="s">
+        <v>7</v>
+      </c>
+      <c r="F94" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A95" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B95" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C95" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D95" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E95" t="s">
+        <v>7</v>
+      </c>
+      <c r="F95" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A96" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B96" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C96" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D96" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E96" t="s">
+        <v>7</v>
+      </c>
+      <c r="F96" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A97" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B97" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C97" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D97" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E97" t="s">
+        <v>7</v>
+      </c>
+      <c r="F97" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A98" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B98" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C98" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D98" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E98" t="s">
+        <v>7</v>
+      </c>
+      <c r="F98" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A99" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B99" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C99" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D99" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A100" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B100" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C100" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D100" t="s">
         <v>36</v>
       </c>
-      <c r="B56" s="10" t="s">
+    </row>
+    <row r="101" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A101" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B101" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C101" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D101" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A102" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B102" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C102" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D102" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A103" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B103" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C103" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D103" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A104" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B104" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C104" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D104" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A105" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B105" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C105" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D105" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A106" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B106" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C106" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D106" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A107" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B107" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C107" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D107" t="s">
+        <v>29</v>
+      </c>
+      <c r="E107" t="s">
+        <v>7</v>
+      </c>
+      <c r="F107" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A108" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B108" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C108" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D108" t="s">
+        <v>30</v>
+      </c>
+      <c r="E108" t="s">
+        <v>7</v>
+      </c>
+      <c r="F108" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A109" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B109" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C109" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D109" t="s">
+        <v>31</v>
+      </c>
+      <c r="E109" t="s">
+        <v>7</v>
+      </c>
+      <c r="F109" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A110" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B110" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C110" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D110" t="s">
         <v>40</v>
       </c>
-      <c r="C56" t="s">
+    </row>
+    <row r="111" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A111" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B111" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C111" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D111" t="s">
         <v>33</v>
       </c>
-      <c r="D56" t="s">
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A112" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B112" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C112" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D112" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A57" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B57" s="10" t="s">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A113" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B113" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C113" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D113" t="s">
+        <v>6</v>
+      </c>
+      <c r="E113" t="s">
+        <v>7</v>
+      </c>
+      <c r="F113" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A114" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B114" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C114" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D114" t="s">
+        <v>9</v>
+      </c>
+      <c r="E114" t="s">
+        <v>7</v>
+      </c>
+      <c r="F114" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A115" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B115" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C115" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D115" t="s">
+        <v>10</v>
+      </c>
+      <c r="E115" t="s">
+        <v>7</v>
+      </c>
+      <c r="F115" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A116" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B116" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C116" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D116" t="s">
+        <v>11</v>
+      </c>
+      <c r="E116" t="s">
+        <v>7</v>
+      </c>
+      <c r="F116" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A117" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B117" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C117" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D117" t="s">
+        <v>12</v>
+      </c>
+      <c r="E117" t="s">
+        <v>7</v>
+      </c>
+      <c r="F117" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A118" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B118" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C118" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D118" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E118" t="s">
+        <v>7</v>
+      </c>
+      <c r="F118" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A119" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B119" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C119" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D119" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E119" t="s">
+        <v>7</v>
+      </c>
+      <c r="F119" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A120" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B120" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C120" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D120" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E120" t="s">
+        <v>7</v>
+      </c>
+      <c r="F120" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A121" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B121" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C121" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D121" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E121" t="s">
+        <v>7</v>
+      </c>
+      <c r="F121" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A122" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B122" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C122" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D122" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E122" t="s">
+        <v>7</v>
+      </c>
+      <c r="F122" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A123" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B123" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C123" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D123" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E123" t="s">
+        <v>7</v>
+      </c>
+      <c r="F123" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A124" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B124" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C124" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D124" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E124" t="s">
+        <v>7</v>
+      </c>
+      <c r="F124" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A125" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B125" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C125" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D125" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E125" t="s">
+        <v>7</v>
+      </c>
+      <c r="F125" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A126" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B126" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C126" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D126" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E126" t="s">
+        <v>7</v>
+      </c>
+      <c r="F126" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A127" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B127" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C127" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D127" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A128" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B128" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C128" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D128" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A129" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B129" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C129" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D129" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A130" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B130" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C130" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D130" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A131" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B131" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C131" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D131" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A132" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B132" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C132" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D132" t="s">
+        <v>29</v>
+      </c>
+      <c r="E132" t="s">
+        <v>7</v>
+      </c>
+      <c r="F132" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A133" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B133" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C133" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D133" t="s">
+        <v>30</v>
+      </c>
+      <c r="E133" t="s">
+        <v>7</v>
+      </c>
+      <c r="F133" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A134" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B134" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C134" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D134" t="s">
+        <v>31</v>
+      </c>
+      <c r="E134" t="s">
+        <v>7</v>
+      </c>
+      <c r="F134" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A135" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B135" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C135" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D135" t="s">
         <v>40</v>
       </c>
-      <c r="C57" t="s">
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A136" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B136" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C136" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D136" t="s">
         <v>33</v>
       </c>
-      <c r="D57" t="s">
-        <v>35</v>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A137" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B137" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C137" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D137" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A138" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B138" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C138" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D138" t="s">
+        <v>6</v>
+      </c>
+      <c r="E138" t="s">
+        <v>7</v>
+      </c>
+      <c r="F138" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A139" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B139" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C139" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D139" t="s">
+        <v>9</v>
+      </c>
+      <c r="E139" t="s">
+        <v>7</v>
+      </c>
+      <c r="F139" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A140" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B140" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C140" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D140" t="s">
+        <v>10</v>
+      </c>
+      <c r="E140" t="s">
+        <v>7</v>
+      </c>
+      <c r="F140" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A141" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B141" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C141" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D141" t="s">
+        <v>11</v>
+      </c>
+      <c r="E141" t="s">
+        <v>7</v>
+      </c>
+      <c r="F141" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A142" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B142" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C142" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D142" t="s">
+        <v>12</v>
+      </c>
+      <c r="E142" t="s">
+        <v>7</v>
+      </c>
+      <c r="F142" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A143" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B143" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C143" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D143" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E143" t="s">
+        <v>7</v>
+      </c>
+      <c r="F143" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A144" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B144" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C144" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D144" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E144" t="s">
+        <v>7</v>
+      </c>
+      <c r="F144" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A145" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B145" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C145" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D145" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E145" t="s">
+        <v>7</v>
+      </c>
+      <c r="F145" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A146" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B146" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C146" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D146" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E146" t="s">
+        <v>7</v>
+      </c>
+      <c r="F146" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A147" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B147" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C147" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D147" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E147" t="s">
+        <v>7</v>
+      </c>
+      <c r="F147" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A148" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B148" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C148" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D148" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E148" t="s">
+        <v>7</v>
+      </c>
+      <c r="F148" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A149" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B149" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C149" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D149" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E149" t="s">
+        <v>7</v>
+      </c>
+      <c r="F149" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A150" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B150" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C150" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D150" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E150" t="s">
+        <v>7</v>
+      </c>
+      <c r="F150" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A151" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B151" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C151" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D151" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E151" t="s">
+        <v>7</v>
+      </c>
+      <c r="F151" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A152" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B152" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C152" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D152" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A153" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B153" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C153" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D153" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A154" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B154" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C154" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D154" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A155" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B155" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C155" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D155" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A156" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B156" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C156" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D156" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A157" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B157" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C157" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D157" t="s">
+        <v>29</v>
+      </c>
+      <c r="E157" t="s">
+        <v>7</v>
+      </c>
+      <c r="F157" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A158" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B158" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C158" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D158" t="s">
+        <v>30</v>
+      </c>
+      <c r="E158" t="s">
+        <v>7</v>
+      </c>
+      <c r="F158" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A159" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B159" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C159" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D159" t="s">
+        <v>31</v>
+      </c>
+      <c r="E159" t="s">
+        <v>7</v>
+      </c>
+      <c r="F159" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A160" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B160" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C160" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D160" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A161" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B161" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C161" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D161" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A162" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B162" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C162" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D162" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/Лист Microsoft Excel.xlsx
+++ b/Лист Microsoft Excel.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="996" uniqueCount="64">
   <si>
     <t>Flight Direction</t>
   </si>
@@ -655,10 +655,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F162"/>
+  <dimension ref="A1:F189"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -695,7 +695,7 @@
         <v>35</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="C2" s="13" t="s">
         <v>5</v>
@@ -715,7 +715,7 @@
         <v>35</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="C3" s="13" t="s">
         <v>5</v>
@@ -735,7 +735,7 @@
         <v>35</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>5</v>
@@ -755,7 +755,7 @@
         <v>35</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="C5" s="13" t="s">
         <v>5</v>
@@ -775,7 +775,7 @@
         <v>35</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="C6" s="13" t="s">
         <v>5</v>
@@ -795,7 +795,7 @@
         <v>35</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="C7" s="13" t="s">
         <v>5</v>
@@ -815,7 +815,7 @@
         <v>35</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="C8" s="13" t="s">
         <v>5</v>
@@ -835,7 +835,7 @@
         <v>35</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="C9" s="13" t="s">
         <v>5</v>
@@ -855,7 +855,7 @@
         <v>35</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="C10" s="13" t="s">
         <v>16</v>
@@ -875,7 +875,7 @@
         <v>35</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="C11" s="13" t="s">
         <v>16</v>
@@ -895,7 +895,7 @@
         <v>35</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>16</v>
@@ -915,7 +915,7 @@
         <v>35</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="C13" s="13" t="s">
         <v>16</v>
@@ -935,7 +935,7 @@
         <v>35</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="C14" s="13" t="s">
         <v>16</v>
@@ -955,7 +955,7 @@
         <v>35</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="C15" s="13" t="s">
         <v>16</v>
@@ -975,7 +975,7 @@
         <v>35</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="C16" s="13" t="s">
         <v>16</v>
@@ -989,13 +989,13 @@
         <v>35</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="C17" s="14" t="s">
         <v>23</v>
       </c>
       <c r="D17" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1003,13 +1003,13 @@
         <v>35</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>23</v>
+        <v>50</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>24</v>
       </c>
       <c r="D18" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1017,13 +1017,13 @@
         <v>35</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="C19" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D19" t="s">
-        <v>25</v>
+      <c r="D19" s="6" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1031,13 +1031,13 @@
         <v>35</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="C20" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1045,13 +1045,13 @@
         <v>35</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="C21" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D21" s="6" t="s">
-        <v>42</v>
+      <c r="D21" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1059,13 +1059,13 @@
         <v>35</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C22" s="15" t="s">
-        <v>24</v>
+        <v>50</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1073,13 +1073,19 @@
         <v>35</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="C23" s="13" t="s">
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>28</v>
+        <v>29</v>
+      </c>
+      <c r="E23" t="s">
+        <v>7</v>
+      </c>
+      <c r="F23" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1087,13 +1093,13 @@
         <v>35</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="C24" s="13" t="s">
         <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E24" t="s">
         <v>7</v>
@@ -1107,13 +1113,13 @@
         <v>35</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="C25" s="13" t="s">
         <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E25" t="s">
         <v>7</v>
@@ -1127,19 +1133,13 @@
         <v>35</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="C26" s="13" t="s">
         <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>31</v>
-      </c>
-      <c r="E26" t="s">
-        <v>7</v>
-      </c>
-      <c r="F26" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1147,13 +1147,13 @@
         <v>35</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D27" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1161,13 +1161,13 @@
         <v>35</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="C28" s="13" t="s">
         <v>32</v>
       </c>
       <c r="D28" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1178,10 +1178,16 @@
         <v>38</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="D29" t="s">
-        <v>34</v>
+        <v>6</v>
+      </c>
+      <c r="E29" t="s">
+        <v>7</v>
+      </c>
+      <c r="F29" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1189,13 +1195,13 @@
         <v>35</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C30" s="13" t="s">
         <v>5</v>
       </c>
       <c r="D30" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E30" t="s">
         <v>7</v>
@@ -1209,13 +1215,13 @@
         <v>35</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C31" s="13" t="s">
         <v>5</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
         <v>7</v>
@@ -1229,13 +1235,13 @@
         <v>35</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C32" s="13" t="s">
         <v>5</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
         <v>7</v>
@@ -1249,13 +1255,13 @@
         <v>35</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C33" s="13" t="s">
         <v>5</v>
       </c>
       <c r="D33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E33" t="s">
         <v>7</v>
@@ -1269,13 +1275,13 @@
         <v>35</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C34" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D34" t="s">
-        <v>12</v>
+      <c r="D34" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="E34" t="s">
         <v>7</v>
@@ -1289,13 +1295,13 @@
         <v>35</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C35" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>13</v>
+      <c r="D35" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="E35" t="s">
         <v>7</v>
@@ -1309,13 +1315,13 @@
         <v>35</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C36" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D36" s="4" t="s">
-        <v>14</v>
+      <c r="D36" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="E36" t="s">
         <v>7</v>
@@ -1329,13 +1335,13 @@
         <v>35</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="E37" t="s">
         <v>7</v>
@@ -1349,13 +1355,13 @@
         <v>35</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C38" s="13" t="s">
         <v>16</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E38" t="s">
         <v>7</v>
@@ -1369,13 +1375,13 @@
         <v>35</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C39" s="13" t="s">
         <v>16</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E39" t="s">
         <v>7</v>
@@ -1389,13 +1395,13 @@
         <v>35</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C40" s="13" t="s">
         <v>16</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E40" t="s">
         <v>7</v>
@@ -1409,13 +1415,13 @@
         <v>35</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C41" s="13" t="s">
         <v>16</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E41" t="s">
         <v>7</v>
@@ -1429,13 +1435,13 @@
         <v>35</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C42" s="13" t="s">
         <v>16</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E42" t="s">
         <v>7</v>
@@ -1449,19 +1455,13 @@
         <v>35</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C43" s="13" t="s">
         <v>16</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E43" t="s">
-        <v>7</v>
-      </c>
-      <c r="F43" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1469,13 +1469,13 @@
         <v>35</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C44" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
+      </c>
+      <c r="C44" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D44" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1483,13 +1483,13 @@
         <v>35</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C45" s="14" t="s">
         <v>23</v>
       </c>
       <c r="D45" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1497,13 +1497,13 @@
         <v>35</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C46" s="14" t="s">
-        <v>23</v>
+        <v>38</v>
+      </c>
+      <c r="C46" s="15" t="s">
+        <v>24</v>
       </c>
       <c r="D46" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1511,27 +1511,27 @@
         <v>35</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C47" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D47" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D47" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="7" t="s">
         <v>35</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C48" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1539,13 +1539,13 @@
         <v>35</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C49" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D49" s="6" t="s">
-        <v>46</v>
+      <c r="D49" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1553,13 +1553,13 @@
         <v>35</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C50" s="15" t="s">
-        <v>24</v>
+        <v>38</v>
+      </c>
+      <c r="C50" s="13" t="s">
+        <v>27</v>
       </c>
       <c r="D50" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1567,13 +1567,19 @@
         <v>35</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C51" s="13" t="s">
         <v>27</v>
       </c>
       <c r="D51" t="s">
-        <v>28</v>
+        <v>29</v>
+      </c>
+      <c r="E51" t="s">
+        <v>7</v>
+      </c>
+      <c r="F51" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1581,13 +1587,13 @@
         <v>35</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C52" s="13" t="s">
         <v>27</v>
       </c>
       <c r="D52" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E52" t="s">
         <v>7</v>
@@ -1601,13 +1607,13 @@
         <v>35</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C53" s="13" t="s">
         <v>27</v>
       </c>
       <c r="D53" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E53" t="s">
         <v>7</v>
@@ -1621,19 +1627,13 @@
         <v>35</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C54" s="13" t="s">
         <v>27</v>
       </c>
       <c r="D54" t="s">
-        <v>31</v>
-      </c>
-      <c r="E54" t="s">
-        <v>7</v>
-      </c>
-      <c r="F54" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1641,13 +1641,13 @@
         <v>35</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C55" s="13" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D55" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1655,13 +1655,13 @@
         <v>35</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C56" s="13" t="s">
         <v>32</v>
       </c>
       <c r="D56" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1672,24 +1672,30 @@
         <v>39</v>
       </c>
       <c r="C57" s="13" t="s">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="D57" t="s">
-        <v>34</v>
+        <v>6</v>
+      </c>
+      <c r="E57" t="s">
+        <v>7</v>
+      </c>
+      <c r="F57" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="7" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="C58" s="13" t="s">
         <v>5</v>
       </c>
       <c r="D58" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E58" t="s">
         <v>7</v>
@@ -1700,16 +1706,16 @@
     </row>
     <row r="59" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="7" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="C59" s="13" t="s">
         <v>5</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
         <v>7</v>
@@ -1720,16 +1726,16 @@
     </row>
     <row r="60" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="7" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="C60" s="13" t="s">
         <v>5</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
         <v>7</v>
@@ -1740,16 +1746,16 @@
     </row>
     <row r="61" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="7" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="C61" s="13" t="s">
         <v>5</v>
       </c>
       <c r="D61" t="s">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="E61" t="s">
         <v>7</v>
@@ -1760,16 +1766,16 @@
     </row>
     <row r="62" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="7" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="C62" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D62" t="s">
-        <v>12</v>
+      <c r="D62" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="E62" t="s">
         <v>7</v>
@@ -1780,16 +1786,16 @@
     </row>
     <row r="63" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="7" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="C63" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D63" s="3" t="s">
-        <v>13</v>
+      <c r="D63" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="E63" t="s">
         <v>7</v>
@@ -1800,16 +1806,16 @@
     </row>
     <row r="64" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="7" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="C64" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D64" s="4" t="s">
-        <v>14</v>
+      <c r="D64" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="E64" t="s">
         <v>7</v>
@@ -1820,16 +1826,16 @@
     </row>
     <row r="65" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="7" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="C65" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D65" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="E65" t="s">
         <v>7</v>
@@ -1840,16 +1846,16 @@
     </row>
     <row r="66" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="7" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="C66" s="13" t="s">
         <v>16</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E66" t="s">
         <v>7</v>
@@ -1860,16 +1866,16 @@
     </row>
     <row r="67" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="7" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="C67" s="13" t="s">
         <v>16</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E67" t="s">
         <v>7</v>
@@ -1880,16 +1886,16 @@
     </row>
     <row r="68" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="7" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="C68" s="13" t="s">
         <v>16</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E68" t="s">
         <v>7</v>
@@ -1900,16 +1906,16 @@
     </row>
     <row r="69" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="7" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="C69" s="13" t="s">
         <v>16</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E69" t="s">
         <v>7</v>
@@ -1920,16 +1926,16 @@
     </row>
     <row r="70" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="7" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="C70" s="13" t="s">
         <v>16</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E70" t="s">
         <v>7</v>
@@ -1940,100 +1946,94 @@
     </row>
     <row r="71" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="7" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="C71" s="13" t="s">
         <v>16</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E71" t="s">
-        <v>7</v>
-      </c>
-      <c r="F71" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="7" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="C72" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D72" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
+      </c>
+      <c r="C72" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D72" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="7" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="C73" s="14" t="s">
         <v>23</v>
       </c>
       <c r="D73" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="7" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="C74" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D74" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="7" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="C75" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="7" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="C76" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" s="7" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="C77" s="15" t="s">
         <v>24</v>
@@ -2044,24 +2044,24 @@
     </row>
     <row r="78" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" s="7" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="C78" s="13" t="s">
         <v>27</v>
       </c>
       <c r="D78" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="7" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="B79" s="10" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="C79" s="13" t="s">
         <v>27</v>
@@ -2078,10 +2078,10 @@
     </row>
     <row r="80" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" s="7" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="C80" s="13" t="s">
         <v>27</v>
@@ -2098,10 +2098,10 @@
     </row>
     <row r="81" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A81" s="7" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="C81" s="13" t="s">
         <v>27</v>
@@ -2118,10 +2118,10 @@
     </row>
     <row r="82" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" s="7" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="C82" s="13" t="s">
         <v>27</v>
@@ -2132,10 +2132,10 @@
     </row>
     <row r="83" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="7" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="C83" s="13" t="s">
         <v>32</v>
@@ -2146,10 +2146,10 @@
     </row>
     <row r="84" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="7" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="C84" s="13" t="s">
         <v>32</v>
@@ -2163,7 +2163,7 @@
         <v>49</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="C85" s="13" t="s">
         <v>5</v>
@@ -2183,7 +2183,7 @@
         <v>49</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="C86" s="13" t="s">
         <v>5</v>
@@ -2203,7 +2203,7 @@
         <v>49</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="C87" s="13" t="s">
         <v>5</v>
@@ -2223,13 +2223,13 @@
         <v>49</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="C88" s="13" t="s">
         <v>5</v>
       </c>
       <c r="D88" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="E88" t="s">
         <v>7</v>
@@ -2243,7 +2243,7 @@
         <v>49</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="C89" s="13" t="s">
         <v>5</v>
@@ -2263,7 +2263,7 @@
         <v>49</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="C90" s="13" t="s">
         <v>5</v>
@@ -2283,7 +2283,7 @@
         <v>49</v>
       </c>
       <c r="B91" s="10" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="C91" s="13" t="s">
         <v>5</v>
@@ -2303,7 +2303,7 @@
         <v>49</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="C92" s="13" t="s">
         <v>5</v>
@@ -2323,7 +2323,7 @@
         <v>49</v>
       </c>
       <c r="B93" s="10" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="C93" s="13" t="s">
         <v>16</v>
@@ -2343,7 +2343,7 @@
         <v>49</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="C94" s="13" t="s">
         <v>16</v>
@@ -2363,7 +2363,7 @@
         <v>49</v>
       </c>
       <c r="B95" s="10" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="C95" s="13" t="s">
         <v>16</v>
@@ -2383,7 +2383,7 @@
         <v>49</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="C96" s="13" t="s">
         <v>16</v>
@@ -2403,7 +2403,7 @@
         <v>49</v>
       </c>
       <c r="B97" s="10" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="C97" s="13" t="s">
         <v>16</v>
@@ -2423,7 +2423,7 @@
         <v>49</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="C98" s="13" t="s">
         <v>16</v>
@@ -2443,7 +2443,7 @@
         <v>49</v>
       </c>
       <c r="B99" s="10" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="C99" s="13" t="s">
         <v>16</v>
@@ -2457,13 +2457,13 @@
         <v>49</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="C100" s="14" t="s">
         <v>23</v>
       </c>
       <c r="D100" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
     </row>
     <row r="101" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2471,13 +2471,13 @@
         <v>49</v>
       </c>
       <c r="B101" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C101" s="14" t="s">
-        <v>23</v>
+        <v>50</v>
+      </c>
+      <c r="C101" s="15" t="s">
+        <v>24</v>
       </c>
       <c r="D101" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
     </row>
     <row r="102" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2485,13 +2485,13 @@
         <v>49</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="C102" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D102" t="s">
-        <v>25</v>
+      <c r="D102" s="6" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2499,13 +2499,13 @@
         <v>49</v>
       </c>
       <c r="B103" s="10" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="C103" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D103" s="6" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
     </row>
     <row r="104" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2513,13 +2513,13 @@
         <v>49</v>
       </c>
       <c r="B104" s="10" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="C104" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D104" s="6" t="s">
-        <v>42</v>
+      <c r="D104" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="105" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2527,13 +2527,13 @@
         <v>49</v>
       </c>
       <c r="B105" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C105" s="15" t="s">
-        <v>24</v>
+        <v>50</v>
+      </c>
+      <c r="C105" s="13" t="s">
+        <v>27</v>
       </c>
       <c r="D105" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
     </row>
     <row r="106" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2541,13 +2541,19 @@
         <v>49</v>
       </c>
       <c r="B106" s="10" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="C106" s="13" t="s">
         <v>27</v>
       </c>
       <c r="D106" t="s">
-        <v>28</v>
+        <v>29</v>
+      </c>
+      <c r="E106" t="s">
+        <v>7</v>
+      </c>
+      <c r="F106" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="107" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2555,13 +2561,13 @@
         <v>49</v>
       </c>
       <c r="B107" s="10" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="C107" s="13" t="s">
         <v>27</v>
       </c>
       <c r="D107" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E107" t="s">
         <v>7</v>
@@ -2575,13 +2581,13 @@
         <v>49</v>
       </c>
       <c r="B108" s="10" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="C108" s="13" t="s">
         <v>27</v>
       </c>
       <c r="D108" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E108" t="s">
         <v>7</v>
@@ -2595,19 +2601,13 @@
         <v>49</v>
       </c>
       <c r="B109" s="10" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="C109" s="13" t="s">
         <v>27</v>
       </c>
       <c r="D109" t="s">
-        <v>31</v>
-      </c>
-      <c r="E109" t="s">
-        <v>7</v>
-      </c>
-      <c r="F109" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="110" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2615,13 +2615,13 @@
         <v>49</v>
       </c>
       <c r="B110" s="10" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="C110" s="13" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D110" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="111" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2629,16 +2629,16 @@
         <v>49</v>
       </c>
       <c r="B111" s="10" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="C111" s="13" t="s">
         <v>32</v>
       </c>
       <c r="D111" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A112" s="7" t="s">
         <v>49</v>
       </c>
@@ -2646,24 +2646,30 @@
         <v>38</v>
       </c>
       <c r="C112" s="13" t="s">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="D112" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A113" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="B113" s="9" t="s">
-        <v>58</v>
+        <v>6</v>
+      </c>
+      <c r="E112" t="s">
+        <v>7</v>
+      </c>
+      <c r="F112" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A113" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B113" s="10" t="s">
+        <v>38</v>
       </c>
       <c r="C113" s="13" t="s">
         <v>5</v>
       </c>
       <c r="D113" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E113" t="s">
         <v>7</v>
@@ -2672,18 +2678,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A114" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="B114" s="9" t="s">
-        <v>58</v>
+    <row r="114" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A114" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B114" s="10" t="s">
+        <v>38</v>
       </c>
       <c r="C114" s="13" t="s">
         <v>5</v>
       </c>
       <c r="D114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E114" t="s">
         <v>7</v>
@@ -2692,18 +2698,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A115" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="B115" s="9" t="s">
-        <v>58</v>
+    <row r="115" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A115" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B115" s="10" t="s">
+        <v>38</v>
       </c>
       <c r="C115" s="13" t="s">
         <v>5</v>
       </c>
       <c r="D115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E115" t="s">
         <v>7</v>
@@ -2712,18 +2718,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A116" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="B116" s="9" t="s">
-        <v>58</v>
+    <row r="116" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A116" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B116" s="10" t="s">
+        <v>38</v>
       </c>
       <c r="C116" s="13" t="s">
         <v>5</v>
       </c>
       <c r="D116" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E116" t="s">
         <v>7</v>
@@ -2732,18 +2738,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A117" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="B117" s="9" t="s">
-        <v>58</v>
+    <row r="117" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A117" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B117" s="10" t="s">
+        <v>38</v>
       </c>
       <c r="C117" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D117" t="s">
-        <v>12</v>
+      <c r="D117" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="E117" t="s">
         <v>7</v>
@@ -2752,18 +2758,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A118" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="B118" s="9" t="s">
-        <v>58</v>
+    <row r="118" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A118" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B118" s="10" t="s">
+        <v>38</v>
       </c>
       <c r="C118" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D118" s="3" t="s">
-        <v>13</v>
+      <c r="D118" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="E118" t="s">
         <v>7</v>
@@ -2772,18 +2778,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A119" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="B119" s="9" t="s">
-        <v>58</v>
+    <row r="119" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A119" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B119" s="10" t="s">
+        <v>38</v>
       </c>
       <c r="C119" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D119" s="4" t="s">
-        <v>14</v>
+      <c r="D119" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="E119" t="s">
         <v>7</v>
@@ -2793,17 +2799,17 @@
       </c>
     </row>
     <row r="120" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A120" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="B120" s="9" t="s">
-        <v>58</v>
+      <c r="A120" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B120" s="10" t="s">
+        <v>38</v>
       </c>
       <c r="C120" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D120" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="D120" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="E120" t="s">
         <v>7</v>
@@ -2812,18 +2818,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A121" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="B121" s="9" t="s">
-        <v>58</v>
+    <row r="121" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A121" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B121" s="10" t="s">
+        <v>38</v>
       </c>
       <c r="C121" s="13" t="s">
         <v>16</v>
       </c>
       <c r="D121" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E121" t="s">
         <v>7</v>
@@ -2832,18 +2838,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A122" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="B122" s="9" t="s">
-        <v>58</v>
+    <row r="122" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A122" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B122" s="10" t="s">
+        <v>38</v>
       </c>
       <c r="C122" s="13" t="s">
         <v>16</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E122" t="s">
         <v>7</v>
@@ -2852,18 +2858,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A123" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="B123" s="9" t="s">
-        <v>58</v>
+    <row r="123" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A123" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B123" s="10" t="s">
+        <v>38</v>
       </c>
       <c r="C123" s="13" t="s">
         <v>16</v>
       </c>
       <c r="D123" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E123" t="s">
         <v>7</v>
@@ -2872,18 +2878,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A124" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="B124" s="9" t="s">
-        <v>58</v>
+    <row r="124" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A124" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B124" s="10" t="s">
+        <v>38</v>
       </c>
       <c r="C124" s="13" t="s">
         <v>16</v>
       </c>
       <c r="D124" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E124" t="s">
         <v>7</v>
@@ -2892,18 +2898,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A125" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="B125" s="9" t="s">
-        <v>58</v>
+    <row r="125" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A125" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B125" s="10" t="s">
+        <v>38</v>
       </c>
       <c r="C125" s="13" t="s">
         <v>16</v>
       </c>
       <c r="D125" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E125" t="s">
         <v>7</v>
@@ -2912,148 +2918,130 @@
         <v>8</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A126" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="B126" s="9" t="s">
-        <v>58</v>
+    <row r="126" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A126" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B126" s="10" t="s">
+        <v>38</v>
       </c>
       <c r="C126" s="13" t="s">
         <v>16</v>
       </c>
       <c r="D126" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E126" t="s">
-        <v>7</v>
-      </c>
-      <c r="F126" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A127" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="B127" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="C127" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D127" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A128" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="B128" s="9" t="s">
-        <v>58</v>
+    <row r="127" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A127" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B127" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C127" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D127" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A128" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B128" s="10" t="s">
+        <v>38</v>
       </c>
       <c r="C128" s="14" t="s">
         <v>23</v>
       </c>
       <c r="D128" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A129" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="B129" s="9" t="s">
-        <v>58</v>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A129" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B129" s="10" t="s">
+        <v>38</v>
       </c>
       <c r="C129" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D129" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A130" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="B130" s="9" t="s">
-        <v>58</v>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A130" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B130" s="10" t="s">
+        <v>38</v>
       </c>
       <c r="C130" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D130" t="s">
+      <c r="D130" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A131" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B131" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C131" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D131" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A132" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B132" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C132" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D132" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A131" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="B131" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="C131" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D131" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A132" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="B132" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="C132" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D132" t="s">
-        <v>29</v>
-      </c>
-      <c r="E132" t="s">
-        <v>7</v>
-      </c>
-      <c r="F132" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A133" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="B133" s="9" t="s">
-        <v>58</v>
+    <row r="133" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A133" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B133" s="10" t="s">
+        <v>38</v>
       </c>
       <c r="C133" s="13" t="s">
         <v>27</v>
       </c>
       <c r="D133" t="s">
-        <v>30</v>
-      </c>
-      <c r="E133" t="s">
-        <v>7</v>
-      </c>
-      <c r="F133" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A134" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="B134" s="9" t="s">
-        <v>58</v>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A134" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B134" s="10" t="s">
+        <v>38</v>
       </c>
       <c r="C134" s="13" t="s">
         <v>27</v>
       </c>
       <c r="D134" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E134" t="s">
         <v>7</v>
@@ -3062,86 +3050,86 @@
         <v>48</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A135" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="B135" s="9" t="s">
-        <v>58</v>
+    <row r="135" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A135" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B135" s="10" t="s">
+        <v>38</v>
       </c>
       <c r="C135" s="13" t="s">
         <v>27</v>
       </c>
       <c r="D135" t="s">
+        <v>30</v>
+      </c>
+      <c r="E135" t="s">
+        <v>7</v>
+      </c>
+      <c r="F135" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A136" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B136" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C136" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D136" t="s">
+        <v>31</v>
+      </c>
+      <c r="E136" t="s">
+        <v>7</v>
+      </c>
+      <c r="F136" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A137" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B137" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C137" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D137" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A136" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="B136" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="C136" s="13" t="s">
+    <row r="138" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A138" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B138" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C138" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D136" t="s">
+      <c r="D138" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A137" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="B137" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="C137" s="13" t="s">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A139" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B139" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C139" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D137" t="s">
+      <c r="D139" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A138" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="B138" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="C138" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D138" t="s">
-        <v>6</v>
-      </c>
-      <c r="E138" t="s">
-        <v>7</v>
-      </c>
-      <c r="F138" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A139" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="B139" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="C139" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D139" t="s">
-        <v>9</v>
-      </c>
-      <c r="E139" t="s">
-        <v>7</v>
-      </c>
-      <c r="F139" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.3">
@@ -3149,13 +3137,13 @@
         <v>57</v>
       </c>
       <c r="B140" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C140" s="13" t="s">
         <v>5</v>
       </c>
       <c r="D140" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E140" t="s">
         <v>7</v>
@@ -3169,13 +3157,13 @@
         <v>57</v>
       </c>
       <c r="B141" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C141" s="13" t="s">
         <v>5</v>
       </c>
       <c r="D141" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E141" t="s">
         <v>7</v>
@@ -3189,13 +3177,13 @@
         <v>57</v>
       </c>
       <c r="B142" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C142" s="13" t="s">
         <v>5</v>
       </c>
       <c r="D142" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E142" t="s">
         <v>7</v>
@@ -3209,13 +3197,13 @@
         <v>57</v>
       </c>
       <c r="B143" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C143" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D143" s="3" t="s">
-        <v>13</v>
+      <c r="D143" t="s">
+        <v>11</v>
       </c>
       <c r="E143" t="s">
         <v>7</v>
@@ -3229,13 +3217,13 @@
         <v>57</v>
       </c>
       <c r="B144" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C144" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D144" s="4" t="s">
-        <v>14</v>
+      <c r="D144" t="s">
+        <v>12</v>
       </c>
       <c r="E144" t="s">
         <v>7</v>
@@ -3244,18 +3232,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="145" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" s="12" t="s">
         <v>57</v>
       </c>
       <c r="B145" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C145" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D145" s="5" t="s">
-        <v>15</v>
+      <c r="D145" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="E145" t="s">
         <v>7</v>
@@ -3269,13 +3257,13 @@
         <v>57</v>
       </c>
       <c r="B146" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C146" s="13" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="D146" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E146" t="s">
         <v>7</v>
@@ -3284,18 +3272,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A147" s="12" t="s">
         <v>57</v>
       </c>
       <c r="B147" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C147" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D147" s="4" t="s">
-        <v>18</v>
+        <v>5</v>
+      </c>
+      <c r="D147" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="E147" t="s">
         <v>7</v>
@@ -3309,13 +3297,13 @@
         <v>57</v>
       </c>
       <c r="B148" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C148" s="13" t="s">
         <v>16</v>
       </c>
       <c r="D148" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E148" t="s">
         <v>7</v>
@@ -3329,13 +3317,13 @@
         <v>57</v>
       </c>
       <c r="B149" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C149" s="13" t="s">
         <v>16</v>
       </c>
       <c r="D149" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E149" t="s">
         <v>7</v>
@@ -3349,13 +3337,13 @@
         <v>57</v>
       </c>
       <c r="B150" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C150" s="13" t="s">
         <v>16</v>
       </c>
       <c r="D150" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E150" t="s">
         <v>7</v>
@@ -3369,13 +3357,13 @@
         <v>57</v>
       </c>
       <c r="B151" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C151" s="13" t="s">
         <v>16</v>
       </c>
       <c r="D151" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E151" t="s">
         <v>7</v>
@@ -3389,27 +3377,39 @@
         <v>57</v>
       </c>
       <c r="B152" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C152" s="13" t="s">
         <v>16</v>
       </c>
       <c r="D152" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+      <c r="E152" t="s">
+        <v>7</v>
+      </c>
+      <c r="F152" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" s="12" t="s">
         <v>57</v>
       </c>
       <c r="B153" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="C153" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="D153" s="6" t="s">
-        <v>62</v>
+        <v>58</v>
+      </c>
+      <c r="C153" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D153" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E153" t="s">
+        <v>7</v>
+      </c>
+      <c r="F153" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.3">
@@ -3417,13 +3417,13 @@
         <v>57</v>
       </c>
       <c r="B154" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="C154" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D154" t="s">
-        <v>25</v>
+        <v>58</v>
+      </c>
+      <c r="C154" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D154" s="4" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.3">
@@ -3431,13 +3431,13 @@
         <v>57</v>
       </c>
       <c r="B155" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="C155" s="15" t="s">
-        <v>24</v>
+        <v>58</v>
+      </c>
+      <c r="C155" s="14" t="s">
+        <v>23</v>
       </c>
       <c r="D155" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.3">
@@ -3445,13 +3445,13 @@
         <v>57</v>
       </c>
       <c r="B156" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="C156" s="13" t="s">
-        <v>27</v>
+        <v>58</v>
+      </c>
+      <c r="C156" s="15" t="s">
+        <v>24</v>
       </c>
       <c r="D156" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.3">
@@ -3459,19 +3459,13 @@
         <v>57</v>
       </c>
       <c r="B157" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="C157" s="13" t="s">
-        <v>27</v>
+        <v>58</v>
+      </c>
+      <c r="C157" s="15" t="s">
+        <v>24</v>
       </c>
       <c r="D157" t="s">
-        <v>29</v>
-      </c>
-      <c r="E157" t="s">
-        <v>7</v>
-      </c>
-      <c r="F157" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.3">
@@ -3479,19 +3473,13 @@
         <v>57</v>
       </c>
       <c r="B158" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C158" s="13" t="s">
         <v>27</v>
       </c>
       <c r="D158" t="s">
-        <v>30</v>
-      </c>
-      <c r="E158" t="s">
-        <v>7</v>
-      </c>
-      <c r="F158" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.3">
@@ -3499,13 +3487,13 @@
         <v>57</v>
       </c>
       <c r="B159" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C159" s="13" t="s">
         <v>27</v>
       </c>
       <c r="D159" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E159" t="s">
         <v>7</v>
@@ -3519,40 +3507,532 @@
         <v>57</v>
       </c>
       <c r="B160" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C160" s="13" t="s">
         <v>27</v>
       </c>
       <c r="D160" t="s">
+        <v>30</v>
+      </c>
+      <c r="E160" t="s">
+        <v>7</v>
+      </c>
+      <c r="F160" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A161" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B161" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C161" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D161" t="s">
+        <v>31</v>
+      </c>
+      <c r="E161" t="s">
+        <v>7</v>
+      </c>
+      <c r="F161" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A162" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B162" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C162" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D162" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A161" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="B161" s="9" t="s">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A163" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B163" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C163" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D163" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A164" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B164" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C164" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D164" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A165" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B165" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="C161" s="13" t="s">
+      <c r="C165" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D165" t="s">
+        <v>6</v>
+      </c>
+      <c r="E165" t="s">
+        <v>7</v>
+      </c>
+      <c r="F165" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A166" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B166" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C166" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D166" t="s">
+        <v>9</v>
+      </c>
+      <c r="E166" t="s">
+        <v>7</v>
+      </c>
+      <c r="F166" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A167" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B167" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C167" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D167" t="s">
+        <v>10</v>
+      </c>
+      <c r="E167" t="s">
+        <v>7</v>
+      </c>
+      <c r="F167" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A168" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B168" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C168" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D168" t="s">
+        <v>11</v>
+      </c>
+      <c r="E168" t="s">
+        <v>7</v>
+      </c>
+      <c r="F168" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A169" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B169" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C169" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D169" t="s">
+        <v>12</v>
+      </c>
+      <c r="E169" t="s">
+        <v>7</v>
+      </c>
+      <c r="F169" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A170" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B170" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C170" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D170" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E170" t="s">
+        <v>7</v>
+      </c>
+      <c r="F170" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A171" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B171" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C171" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D171" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E171" t="s">
+        <v>7</v>
+      </c>
+      <c r="F171" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A172" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B172" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C172" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D172" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E172" t="s">
+        <v>7</v>
+      </c>
+      <c r="F172" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A173" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B173" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C173" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D173" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E173" t="s">
+        <v>7</v>
+      </c>
+      <c r="F173" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A174" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B174" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C174" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D174" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E174" t="s">
+        <v>7</v>
+      </c>
+      <c r="F174" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A175" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B175" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C175" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D175" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E175" t="s">
+        <v>7</v>
+      </c>
+      <c r="F175" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A176" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B176" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C176" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D176" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E176" t="s">
+        <v>7</v>
+      </c>
+      <c r="F176" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A177" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B177" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C177" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D177" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E177" t="s">
+        <v>7</v>
+      </c>
+      <c r="F177" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A178" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B178" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C178" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D178" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E178" t="s">
+        <v>7</v>
+      </c>
+      <c r="F178" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A179" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B179" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C179" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D179" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A180" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B180" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C180" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D180" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A181" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B181" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C181" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D181" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A182" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B182" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C182" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D182" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A183" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B183" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C183" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D183" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A184" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B184" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C184" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D184" t="s">
+        <v>29</v>
+      </c>
+      <c r="E184" t="s">
+        <v>7</v>
+      </c>
+      <c r="F184" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A185" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B185" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C185" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D185" t="s">
+        <v>30</v>
+      </c>
+      <c r="E185" t="s">
+        <v>7</v>
+      </c>
+      <c r="F185" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A186" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B186" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C186" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D186" t="s">
+        <v>31</v>
+      </c>
+      <c r="E186" t="s">
+        <v>7</v>
+      </c>
+      <c r="F186" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A187" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B187" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C187" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D187" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A188" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B188" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C188" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D161" t="s">
+      <c r="D188" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A162" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="B162" s="9" t="s">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A189" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B189" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="C162" s="13" t="s">
+      <c r="C189" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D162" t="s">
+      <c r="D189" t="s">
         <v>34</v>
       </c>
     </row>

--- a/Лист Microsoft Excel.xlsx
+++ b/Лист Microsoft Excel.xlsx
@@ -156,9 +156,6 @@
     <t>Лосось в кунжуте картофельные дольки</t>
   </si>
   <si>
-    <t>Куриные филе сувид</t>
-  </si>
-  <si>
     <t>Subitem.1</t>
   </si>
   <si>
@@ -208,6 +205,9 @@
   </si>
   <si>
     <t>Пирожное морковное</t>
+  </si>
+  <si>
+    <t>Куриные филе с макар пене</t>
   </si>
 </sst>
 </file>
@@ -657,8 +657,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F189"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
+      <selection activeCell="D108" sqref="D108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -687,7 +687,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -695,7 +695,7 @@
         <v>35</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C2" s="13" t="s">
         <v>5</v>
@@ -715,7 +715,7 @@
         <v>35</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C3" s="13" t="s">
         <v>5</v>
@@ -735,7 +735,7 @@
         <v>35</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>5</v>
@@ -755,7 +755,7 @@
         <v>35</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C5" s="13" t="s">
         <v>5</v>
@@ -775,7 +775,7 @@
         <v>35</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C6" s="13" t="s">
         <v>5</v>
@@ -795,7 +795,7 @@
         <v>35</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C7" s="13" t="s">
         <v>5</v>
@@ -815,7 +815,7 @@
         <v>35</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C8" s="13" t="s">
         <v>5</v>
@@ -835,7 +835,7 @@
         <v>35</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C9" s="13" t="s">
         <v>5</v>
@@ -855,7 +855,7 @@
         <v>35</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C10" s="13" t="s">
         <v>16</v>
@@ -875,7 +875,7 @@
         <v>35</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C11" s="13" t="s">
         <v>16</v>
@@ -895,7 +895,7 @@
         <v>35</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>16</v>
@@ -915,7 +915,7 @@
         <v>35</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C13" s="13" t="s">
         <v>16</v>
@@ -935,7 +935,7 @@
         <v>35</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C14" s="13" t="s">
         <v>16</v>
@@ -955,7 +955,7 @@
         <v>35</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C15" s="13" t="s">
         <v>16</v>
@@ -975,7 +975,7 @@
         <v>35</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C16" s="13" t="s">
         <v>16</v>
@@ -989,13 +989,13 @@
         <v>35</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C17" s="14" t="s">
         <v>23</v>
       </c>
       <c r="D17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1003,13 +1003,13 @@
         <v>35</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C18" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1017,13 +1017,13 @@
         <v>35</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C19" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1031,13 +1031,13 @@
         <v>35</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C20" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1045,7 +1045,7 @@
         <v>35</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C21" s="15" t="s">
         <v>24</v>
@@ -1059,13 +1059,13 @@
         <v>35</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C22" s="13" t="s">
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1073,7 +1073,7 @@
         <v>35</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C23" s="13" t="s">
         <v>27</v>
@@ -1085,7 +1085,7 @@
         <v>7</v>
       </c>
       <c r="F23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1093,7 +1093,7 @@
         <v>35</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C24" s="13" t="s">
         <v>27</v>
@@ -1105,7 +1105,7 @@
         <v>7</v>
       </c>
       <c r="F24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1113,7 +1113,7 @@
         <v>35</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C25" s="13" t="s">
         <v>27</v>
@@ -1125,7 +1125,7 @@
         <v>7</v>
       </c>
       <c r="F25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1133,7 +1133,7 @@
         <v>35</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C26" s="13" t="s">
         <v>27</v>
@@ -1147,7 +1147,7 @@
         <v>35</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C27" s="13" t="s">
         <v>32</v>
@@ -1161,7 +1161,7 @@
         <v>35</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C28" s="13" t="s">
         <v>32</v>
@@ -1579,7 +1579,7 @@
         <v>7</v>
       </c>
       <c r="F51" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1599,7 +1599,7 @@
         <v>7</v>
       </c>
       <c r="F52" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1619,7 +1619,7 @@
         <v>7</v>
       </c>
       <c r="F53" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2025,7 +2025,7 @@
         <v>24</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2053,7 +2053,7 @@
         <v>27</v>
       </c>
       <c r="D78" t="s">
-        <v>28</v>
+        <v>62</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2073,7 +2073,7 @@
         <v>7</v>
       </c>
       <c r="F79" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2093,7 +2093,7 @@
         <v>7</v>
       </c>
       <c r="F80" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2113,7 +2113,7 @@
         <v>7</v>
       </c>
       <c r="F81" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2160,10 +2160,10 @@
     </row>
     <row r="85" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A85" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C85" s="13" t="s">
         <v>5</v>
@@ -2180,10 +2180,10 @@
     </row>
     <row r="86" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A86" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C86" s="13" t="s">
         <v>5</v>
@@ -2200,10 +2200,10 @@
     </row>
     <row r="87" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C87" s="13" t="s">
         <v>5</v>
@@ -2220,16 +2220,16 @@
     </row>
     <row r="88" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C88" s="13" t="s">
         <v>5</v>
       </c>
       <c r="D88" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E88" t="s">
         <v>7</v>
@@ -2240,10 +2240,10 @@
     </row>
     <row r="89" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A89" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C89" s="13" t="s">
         <v>5</v>
@@ -2260,10 +2260,10 @@
     </row>
     <row r="90" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C90" s="13" t="s">
         <v>5</v>
@@ -2280,10 +2280,10 @@
     </row>
     <row r="91" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A91" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B91" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C91" s="13" t="s">
         <v>5</v>
@@ -2300,10 +2300,10 @@
     </row>
     <row r="92" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A92" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C92" s="13" t="s">
         <v>5</v>
@@ -2320,10 +2320,10 @@
     </row>
     <row r="93" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A93" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B93" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C93" s="13" t="s">
         <v>16</v>
@@ -2340,10 +2340,10 @@
     </row>
     <row r="94" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C94" s="13" t="s">
         <v>16</v>
@@ -2360,10 +2360,10 @@
     </row>
     <row r="95" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A95" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B95" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C95" s="13" t="s">
         <v>16</v>
@@ -2380,10 +2380,10 @@
     </row>
     <row r="96" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C96" s="13" t="s">
         <v>16</v>
@@ -2400,10 +2400,10 @@
     </row>
     <row r="97" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A97" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B97" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C97" s="13" t="s">
         <v>16</v>
@@ -2420,10 +2420,10 @@
     </row>
     <row r="98" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A98" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C98" s="13" t="s">
         <v>16</v>
@@ -2440,10 +2440,10 @@
     </row>
     <row r="99" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A99" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B99" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C99" s="13" t="s">
         <v>16</v>
@@ -2454,66 +2454,66 @@
     </row>
     <row r="100" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A100" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C100" s="14" t="s">
         <v>23</v>
       </c>
       <c r="D100" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="101" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A101" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B101" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C101" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D101" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="102" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A102" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C102" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A103" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B103" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C103" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D103" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="104" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A104" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B104" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C104" s="15" t="s">
         <v>24</v>
@@ -2524,24 +2524,24 @@
     </row>
     <row r="105" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A105" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B105" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C105" s="13" t="s">
         <v>27</v>
       </c>
       <c r="D105" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="106" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A106" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B106" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C106" s="13" t="s">
         <v>27</v>
@@ -2553,15 +2553,15 @@
         <v>7</v>
       </c>
       <c r="F106" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="107" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A107" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B107" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C107" s="13" t="s">
         <v>27</v>
@@ -2573,15 +2573,15 @@
         <v>7</v>
       </c>
       <c r="F107" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="108" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A108" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B108" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C108" s="13" t="s">
         <v>27</v>
@@ -2593,15 +2593,15 @@
         <v>7</v>
       </c>
       <c r="F108" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="109" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A109" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B109" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C109" s="13" t="s">
         <v>27</v>
@@ -2612,10 +2612,10 @@
     </row>
     <row r="110" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A110" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B110" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C110" s="13" t="s">
         <v>32</v>
@@ -2626,10 +2626,10 @@
     </row>
     <row r="111" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A111" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B111" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C111" s="13" t="s">
         <v>32</v>
@@ -2640,7 +2640,7 @@
     </row>
     <row r="112" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A112" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B112" s="10" t="s">
         <v>38</v>
@@ -2660,7 +2660,7 @@
     </row>
     <row r="113" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A113" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B113" s="10" t="s">
         <v>38</v>
@@ -2680,7 +2680,7 @@
     </row>
     <row r="114" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A114" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B114" s="10" t="s">
         <v>38</v>
@@ -2700,7 +2700,7 @@
     </row>
     <row r="115" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A115" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B115" s="10" t="s">
         <v>38</v>
@@ -2720,7 +2720,7 @@
     </row>
     <row r="116" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A116" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B116" s="10" t="s">
         <v>38</v>
@@ -2740,7 +2740,7 @@
     </row>
     <row r="117" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A117" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B117" s="10" t="s">
         <v>38</v>
@@ -2760,7 +2760,7 @@
     </row>
     <row r="118" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A118" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B118" s="10" t="s">
         <v>38</v>
@@ -2780,7 +2780,7 @@
     </row>
     <row r="119" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A119" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B119" s="10" t="s">
         <v>38</v>
@@ -2800,7 +2800,7 @@
     </row>
     <row r="120" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A120" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B120" s="10" t="s">
         <v>38</v>
@@ -2820,7 +2820,7 @@
     </row>
     <row r="121" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A121" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B121" s="10" t="s">
         <v>38</v>
@@ -2840,7 +2840,7 @@
     </row>
     <row r="122" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A122" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B122" s="10" t="s">
         <v>38</v>
@@ -2860,7 +2860,7 @@
     </row>
     <row r="123" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A123" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B123" s="10" t="s">
         <v>38</v>
@@ -2880,7 +2880,7 @@
     </row>
     <row r="124" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A124" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B124" s="10" t="s">
         <v>38</v>
@@ -2900,7 +2900,7 @@
     </row>
     <row r="125" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A125" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B125" s="10" t="s">
         <v>38</v>
@@ -2920,7 +2920,7 @@
     </row>
     <row r="126" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A126" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B126" s="10" t="s">
         <v>38</v>
@@ -2934,7 +2934,7 @@
     </row>
     <row r="127" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A127" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B127" s="10" t="s">
         <v>38</v>
@@ -2948,7 +2948,7 @@
     </row>
     <row r="128" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A128" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B128" s="10" t="s">
         <v>38</v>
@@ -2962,7 +2962,7 @@
     </row>
     <row r="129" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A129" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B129" s="10" t="s">
         <v>38</v>
@@ -2976,7 +2976,7 @@
     </row>
     <row r="130" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A130" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B130" s="10" t="s">
         <v>38</v>
@@ -2990,7 +2990,7 @@
     </row>
     <row r="131" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A131" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B131" s="10" t="s">
         <v>38</v>
@@ -3004,7 +3004,7 @@
     </row>
     <row r="132" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A132" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B132" s="10" t="s">
         <v>38</v>
@@ -3018,7 +3018,7 @@
     </row>
     <row r="133" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A133" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B133" s="10" t="s">
         <v>38</v>
@@ -3032,7 +3032,7 @@
     </row>
     <row r="134" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A134" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B134" s="10" t="s">
         <v>38</v>
@@ -3047,12 +3047,12 @@
         <v>7</v>
       </c>
       <c r="F134" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="135" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A135" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B135" s="10" t="s">
         <v>38</v>
@@ -3067,12 +3067,12 @@
         <v>7</v>
       </c>
       <c r="F135" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="136" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A136" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B136" s="10" t="s">
         <v>38</v>
@@ -3087,12 +3087,12 @@
         <v>7</v>
       </c>
       <c r="F136" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="137" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A137" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B137" s="10" t="s">
         <v>38</v>
@@ -3106,7 +3106,7 @@
     </row>
     <row r="138" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A138" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B138" s="10" t="s">
         <v>38</v>
@@ -3120,7 +3120,7 @@
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B139" s="10" t="s">
         <v>38</v>
@@ -3134,10 +3134,10 @@
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B140" s="9" t="s">
         <v>57</v>
-      </c>
-      <c r="B140" s="9" t="s">
-        <v>58</v>
       </c>
       <c r="C140" s="13" t="s">
         <v>5</v>
@@ -3154,10 +3154,10 @@
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B141" s="9" t="s">
         <v>57</v>
-      </c>
-      <c r="B141" s="9" t="s">
-        <v>58</v>
       </c>
       <c r="C141" s="13" t="s">
         <v>5</v>
@@ -3174,10 +3174,10 @@
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B142" s="9" t="s">
         <v>57</v>
-      </c>
-      <c r="B142" s="9" t="s">
-        <v>58</v>
       </c>
       <c r="C142" s="13" t="s">
         <v>5</v>
@@ -3194,10 +3194,10 @@
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B143" s="9" t="s">
         <v>57</v>
-      </c>
-      <c r="B143" s="9" t="s">
-        <v>58</v>
       </c>
       <c r="C143" s="13" t="s">
         <v>5</v>
@@ -3214,10 +3214,10 @@
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B144" s="9" t="s">
         <v>57</v>
-      </c>
-      <c r="B144" s="9" t="s">
-        <v>58</v>
       </c>
       <c r="C144" s="13" t="s">
         <v>5</v>
@@ -3234,10 +3234,10 @@
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B145" s="9" t="s">
         <v>57</v>
-      </c>
-      <c r="B145" s="9" t="s">
-        <v>58</v>
       </c>
       <c r="C145" s="13" t="s">
         <v>5</v>
@@ -3254,10 +3254,10 @@
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B146" s="9" t="s">
         <v>57</v>
-      </c>
-      <c r="B146" s="9" t="s">
-        <v>58</v>
       </c>
       <c r="C146" s="13" t="s">
         <v>5</v>
@@ -3274,10 +3274,10 @@
     </row>
     <row r="147" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A147" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B147" s="9" t="s">
         <v>57</v>
-      </c>
-      <c r="B147" s="9" t="s">
-        <v>58</v>
       </c>
       <c r="C147" s="13" t="s">
         <v>5</v>
@@ -3294,10 +3294,10 @@
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B148" s="9" t="s">
         <v>57</v>
-      </c>
-      <c r="B148" s="9" t="s">
-        <v>58</v>
       </c>
       <c r="C148" s="13" t="s">
         <v>16</v>
@@ -3314,10 +3314,10 @@
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B149" s="9" t="s">
         <v>57</v>
-      </c>
-      <c r="B149" s="9" t="s">
-        <v>58</v>
       </c>
       <c r="C149" s="13" t="s">
         <v>16</v>
@@ -3334,10 +3334,10 @@
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B150" s="9" t="s">
         <v>57</v>
-      </c>
-      <c r="B150" s="9" t="s">
-        <v>58</v>
       </c>
       <c r="C150" s="13" t="s">
         <v>16</v>
@@ -3354,10 +3354,10 @@
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B151" s="9" t="s">
         <v>57</v>
-      </c>
-      <c r="B151" s="9" t="s">
-        <v>58</v>
       </c>
       <c r="C151" s="13" t="s">
         <v>16</v>
@@ -3374,10 +3374,10 @@
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B152" s="9" t="s">
         <v>57</v>
-      </c>
-      <c r="B152" s="9" t="s">
-        <v>58</v>
       </c>
       <c r="C152" s="13" t="s">
         <v>16</v>
@@ -3394,10 +3394,10 @@
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B153" s="9" t="s">
         <v>57</v>
-      </c>
-      <c r="B153" s="9" t="s">
-        <v>58</v>
       </c>
       <c r="C153" s="13" t="s">
         <v>16</v>
@@ -3414,10 +3414,10 @@
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B154" s="9" t="s">
         <v>57</v>
-      </c>
-      <c r="B154" s="9" t="s">
-        <v>58</v>
       </c>
       <c r="C154" s="13" t="s">
         <v>16</v>
@@ -3428,38 +3428,38 @@
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B155" s="9" t="s">
         <v>57</v>
-      </c>
-      <c r="B155" s="9" t="s">
-        <v>58</v>
       </c>
       <c r="C155" s="14" t="s">
         <v>23</v>
       </c>
       <c r="D155" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B156" s="9" t="s">
         <v>57</v>
-      </c>
-      <c r="B156" s="9" t="s">
-        <v>58</v>
       </c>
       <c r="C156" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D156" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B157" s="9" t="s">
         <v>57</v>
-      </c>
-      <c r="B157" s="9" t="s">
-        <v>58</v>
       </c>
       <c r="C157" s="15" t="s">
         <v>24</v>
@@ -3470,10 +3470,10 @@
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B158" s="9" t="s">
         <v>57</v>
-      </c>
-      <c r="B158" s="9" t="s">
-        <v>58</v>
       </c>
       <c r="C158" s="13" t="s">
         <v>27</v>
@@ -3484,10 +3484,10 @@
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B159" s="9" t="s">
         <v>57</v>
-      </c>
-      <c r="B159" s="9" t="s">
-        <v>58</v>
       </c>
       <c r="C159" s="13" t="s">
         <v>27</v>
@@ -3499,15 +3499,15 @@
         <v>7</v>
       </c>
       <c r="F159" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B160" s="9" t="s">
         <v>57</v>
-      </c>
-      <c r="B160" s="9" t="s">
-        <v>58</v>
       </c>
       <c r="C160" s="13" t="s">
         <v>27</v>
@@ -3519,15 +3519,15 @@
         <v>7</v>
       </c>
       <c r="F160" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B161" s="9" t="s">
         <v>57</v>
-      </c>
-      <c r="B161" s="9" t="s">
-        <v>58</v>
       </c>
       <c r="C161" s="13" t="s">
         <v>27</v>
@@ -3539,15 +3539,15 @@
         <v>7</v>
       </c>
       <c r="F161" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B162" s="9" t="s">
         <v>57</v>
-      </c>
-      <c r="B162" s="9" t="s">
-        <v>58</v>
       </c>
       <c r="C162" s="13" t="s">
         <v>27</v>
@@ -3558,10 +3558,10 @@
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B163" s="9" t="s">
         <v>57</v>
-      </c>
-      <c r="B163" s="9" t="s">
-        <v>58</v>
       </c>
       <c r="C163" s="13" t="s">
         <v>32</v>
@@ -3572,10 +3572,10 @@
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B164" s="9" t="s">
         <v>57</v>
-      </c>
-      <c r="B164" s="9" t="s">
-        <v>58</v>
       </c>
       <c r="C164" s="13" t="s">
         <v>32</v>
@@ -3586,10 +3586,10 @@
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B165" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C165" s="13" t="s">
         <v>5</v>
@@ -3606,10 +3606,10 @@
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B166" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C166" s="13" t="s">
         <v>5</v>
@@ -3626,10 +3626,10 @@
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B167" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C167" s="13" t="s">
         <v>5</v>
@@ -3646,10 +3646,10 @@
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B168" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C168" s="13" t="s">
         <v>5</v>
@@ -3666,10 +3666,10 @@
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B169" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C169" s="13" t="s">
         <v>5</v>
@@ -3686,10 +3686,10 @@
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B170" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C170" s="13" t="s">
         <v>5</v>
@@ -3706,10 +3706,10 @@
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B171" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C171" s="13" t="s">
         <v>5</v>
@@ -3726,10 +3726,10 @@
     </row>
     <row r="172" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A172" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B172" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C172" s="13" t="s">
         <v>5</v>
@@ -3746,10 +3746,10 @@
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B173" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C173" s="13" t="s">
         <v>16</v>
@@ -3766,10 +3766,10 @@
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B174" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C174" s="13" t="s">
         <v>16</v>
@@ -3786,10 +3786,10 @@
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B175" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C175" s="13" t="s">
         <v>16</v>
@@ -3806,10 +3806,10 @@
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B176" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C176" s="13" t="s">
         <v>16</v>
@@ -3826,10 +3826,10 @@
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B177" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C177" s="13" t="s">
         <v>16</v>
@@ -3846,10 +3846,10 @@
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B178" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C178" s="13" t="s">
         <v>16</v>
@@ -3866,10 +3866,10 @@
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B179" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C179" s="13" t="s">
         <v>16</v>
@@ -3880,24 +3880,24 @@
     </row>
     <row r="180" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A180" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B180" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C180" s="14" t="s">
         <v>23</v>
       </c>
       <c r="D180" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B181" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C181" s="15" t="s">
         <v>24</v>
@@ -3908,10 +3908,10 @@
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B182" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C182" s="15" t="s">
         <v>24</v>
@@ -3922,24 +3922,24 @@
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B183" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C183" s="13" t="s">
         <v>27</v>
       </c>
       <c r="D183" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B184" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C184" s="13" t="s">
         <v>27</v>
@@ -3951,15 +3951,15 @@
         <v>7</v>
       </c>
       <c r="F184" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B185" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C185" s="13" t="s">
         <v>27</v>
@@ -3971,15 +3971,15 @@
         <v>7</v>
       </c>
       <c r="F185" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B186" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C186" s="13" t="s">
         <v>27</v>
@@ -3991,15 +3991,15 @@
         <v>7</v>
       </c>
       <c r="F186" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B187" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C187" s="13" t="s">
         <v>27</v>
@@ -4010,10 +4010,10 @@
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B188" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C188" s="13" t="s">
         <v>32</v>
@@ -4024,10 +4024,10 @@
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B189" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C189" s="13" t="s">
         <v>32</v>

--- a/Лист Microsoft Excel.xlsx
+++ b/Лист Microsoft Excel.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="996" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="996" uniqueCount="72">
   <si>
     <t>Flight Direction</t>
   </si>
@@ -208,6 +208,30 @@
   </si>
   <si>
     <t>Куриные филе с макар пене</t>
+  </si>
+  <si>
+    <t>мясная(рулетики из говяжей вырезки с болг перц)</t>
+  </si>
+  <si>
+    <t>Рыбная(Тунец с кунжутом)</t>
+  </si>
+  <si>
+    <t>телячьи щечки с овощами</t>
+  </si>
+  <si>
+    <t>Филе индейки сувид  с булгуром</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> рыбная(лосось с/с)</t>
+  </si>
+  <si>
+    <t>скрэмбл</t>
+  </si>
+  <si>
+    <t>каша рисовая на молоке</t>
+  </si>
+  <si>
+    <t>запеканка творожная</t>
   </si>
 </sst>
 </file>
@@ -657,8 +681,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F189"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
-      <selection activeCell="D108" sqref="D108"/>
+    <sheetView tabSelected="1" topLeftCell="A116" workbookViewId="0">
+      <selection activeCell="D129" sqref="D129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2463,7 +2487,7 @@
         <v>23</v>
       </c>
       <c r="D100" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
     </row>
     <row r="101" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2473,11 +2497,11 @@
       <c r="B101" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C101" s="15" t="s">
-        <v>24</v>
+      <c r="C101" s="14" t="s">
+        <v>23</v>
       </c>
       <c r="D101" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
     </row>
     <row r="102" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2490,8 +2514,8 @@
       <c r="C102" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D102" s="6" t="s">
-        <v>51</v>
+      <c r="D102" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2505,7 +2529,7 @@
         <v>24</v>
       </c>
       <c r="D103" s="6" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
     </row>
     <row r="104" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2518,8 +2542,8 @@
       <c r="C104" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D104" t="s">
-        <v>41</v>
+      <c r="D104" s="6" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="105" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2529,11 +2553,11 @@
       <c r="B105" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C105" s="13" t="s">
-        <v>27</v>
+      <c r="C105" s="15" t="s">
+        <v>24</v>
       </c>
       <c r="D105" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
     </row>
     <row r="106" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2547,13 +2571,7 @@
         <v>27</v>
       </c>
       <c r="D106" t="s">
-        <v>29</v>
-      </c>
-      <c r="E106" t="s">
-        <v>7</v>
-      </c>
-      <c r="F106" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
     </row>
     <row r="107" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2567,7 +2585,7 @@
         <v>27</v>
       </c>
       <c r="D107" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E107" t="s">
         <v>7</v>
@@ -2587,7 +2605,7 @@
         <v>27</v>
       </c>
       <c r="D108" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E108" t="s">
         <v>7</v>
@@ -2607,7 +2625,13 @@
         <v>27</v>
       </c>
       <c r="D109" t="s">
-        <v>40</v>
+        <v>31</v>
+      </c>
+      <c r="E109" t="s">
+        <v>7</v>
+      </c>
+      <c r="F109" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="110" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2618,10 +2642,10 @@
         <v>49</v>
       </c>
       <c r="C110" s="13" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D110" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
     </row>
     <row r="111" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2635,7 +2659,7 @@
         <v>32</v>
       </c>
       <c r="D111" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="112" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2643,19 +2667,13 @@
         <v>48</v>
       </c>
       <c r="B112" s="10" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="C112" s="13" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="D112" t="s">
-        <v>6</v>
-      </c>
-      <c r="E112" t="s">
-        <v>7</v>
-      </c>
-      <c r="F112" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
     </row>
     <row r="113" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2669,7 +2687,7 @@
         <v>5</v>
       </c>
       <c r="D113" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E113" t="s">
         <v>7</v>
@@ -2689,7 +2707,7 @@
         <v>5</v>
       </c>
       <c r="D114" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E114" t="s">
         <v>7</v>
@@ -2709,7 +2727,7 @@
         <v>5</v>
       </c>
       <c r="D115" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E115" t="s">
         <v>7</v>
@@ -2729,7 +2747,7 @@
         <v>5</v>
       </c>
       <c r="D116" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E116" t="s">
         <v>7</v>
@@ -2748,8 +2766,8 @@
       <c r="C117" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D117" s="3" t="s">
-        <v>13</v>
+      <c r="D117" t="s">
+        <v>12</v>
       </c>
       <c r="E117" t="s">
         <v>7</v>
@@ -2768,8 +2786,8 @@
       <c r="C118" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D118" s="4" t="s">
-        <v>14</v>
+      <c r="D118" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="E118" t="s">
         <v>7</v>
@@ -2788,8 +2806,8 @@
       <c r="C119" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D119" s="5" t="s">
-        <v>15</v>
+      <c r="D119" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="E119" t="s">
         <v>7</v>
@@ -2806,10 +2824,10 @@
         <v>38</v>
       </c>
       <c r="C120" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D120" s="4" t="s">
-        <v>17</v>
+        <v>5</v>
+      </c>
+      <c r="D120" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="E120" t="s">
         <v>7</v>
@@ -2829,7 +2847,7 @@
         <v>16</v>
       </c>
       <c r="D121" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E121" t="s">
         <v>7</v>
@@ -2849,7 +2867,7 @@
         <v>16</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E122" t="s">
         <v>7</v>
@@ -2869,7 +2887,7 @@
         <v>16</v>
       </c>
       <c r="D123" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E123" t="s">
         <v>7</v>
@@ -2889,7 +2907,7 @@
         <v>16</v>
       </c>
       <c r="D124" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E124" t="s">
         <v>7</v>
@@ -2909,7 +2927,7 @@
         <v>16</v>
       </c>
       <c r="D125" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E125" t="s">
         <v>7</v>
@@ -2929,7 +2947,13 @@
         <v>16</v>
       </c>
       <c r="D126" s="4" t="s">
-        <v>41</v>
+        <v>22</v>
+      </c>
+      <c r="E126" t="s">
+        <v>7</v>
+      </c>
+      <c r="F126" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="127" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2939,11 +2963,11 @@
       <c r="B127" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C127" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="D127" t="s">
-        <v>36</v>
+      <c r="C127" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D127" s="4" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="128" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2957,7 +2981,7 @@
         <v>23</v>
       </c>
       <c r="D128" t="s">
-        <v>37</v>
+        <v>68</v>
       </c>
     </row>
     <row r="129" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2971,7 +2995,7 @@
         <v>24</v>
       </c>
       <c r="D129" t="s">
-        <v>25</v>
+        <v>69</v>
       </c>
     </row>
     <row r="130" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2985,7 +3009,7 @@
         <v>24</v>
       </c>
       <c r="D130" s="6" t="s">
-        <v>26</v>
+        <v>70</v>
       </c>
     </row>
     <row r="131" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2999,7 +3023,7 @@
         <v>24</v>
       </c>
       <c r="D131" s="6" t="s">
-        <v>42</v>
+        <v>71</v>
       </c>
     </row>
     <row r="132" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">

--- a/Лист Microsoft Excel.xlsx
+++ b/Лист Microsoft Excel.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3622" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3622" uniqueCount="132">
   <si>
     <t>Flight Direction</t>
   </si>
@@ -129,18 +129,6 @@
     <t>НB 200.1</t>
   </si>
   <si>
-    <t>Омлет-рулет</t>
-  </si>
-  <si>
-    <t>Сырники из творога</t>
-  </si>
-  <si>
-    <t>Каша овсяная на молоке</t>
-  </si>
-  <si>
-    <t>Йогурт с джемом</t>
-  </si>
-  <si>
     <t>Сок Томатный</t>
   </si>
   <si>
@@ -153,52 +141,13 @@
     <t>Сочи-Анталья</t>
   </si>
   <si>
-    <t>Тар-тар из лосося с/с</t>
-  </si>
-  <si>
     <t>НB 200.2</t>
-  </si>
-  <si>
-    <t>Рулетик из филе куриного сувид со сливочным сыром</t>
-  </si>
-  <si>
-    <t>Фритата с болгарским перцем</t>
-  </si>
-  <si>
-    <t>Блины шпинатные с курицей</t>
-  </si>
-  <si>
-    <t>Каша пшенная на молоке</t>
   </si>
   <si>
     <t>НВ 204.1</t>
   </si>
   <si>
-    <t>Лосось с/с ломтик</t>
-  </si>
-  <si>
-    <t>Скрэмбл сливочный</t>
-  </si>
-  <si>
-    <t>Запеканка творожная</t>
-  </si>
-  <si>
-    <t>Каша рисовая на молоке</t>
-  </si>
-  <si>
     <t>НВ 204.2</t>
-  </si>
-  <si>
-    <t>Куриная грудка в/к нарезанная брусочком</t>
-  </si>
-  <si>
-    <t>Фритата с сыром</t>
-  </si>
-  <si>
-    <t>Блины свекольные с яблоками</t>
-  </si>
-  <si>
-    <t>Каша из полбы на молоке</t>
   </si>
   <si>
     <t>Сочи-Ереван</t>
@@ -213,16 +162,7 @@
     <t>HSB 204.1</t>
   </si>
   <si>
-    <t>Фритата с болг перцем</t>
-  </si>
-  <si>
     <t>HSB 204.2</t>
-  </si>
-  <si>
-    <t>рулеты из лосося с мягким сыром</t>
-  </si>
-  <si>
-    <t>фритата с четыремя сырами</t>
   </si>
   <si>
     <t>HSBS 200.1</t>
@@ -231,118 +171,28 @@
     <t>закуска</t>
   </si>
   <si>
-    <t>лимонный бисквит</t>
-  </si>
-  <si>
     <t>HSBS 200.2</t>
-  </si>
-  <si>
-    <t>штрудель с яблоком</t>
   </si>
   <si>
     <t>HSBS 204.1</t>
   </si>
   <si>
-    <t>пирожное морковное</t>
-  </si>
-  <si>
     <t>HSBS 204.2</t>
-  </si>
-  <si>
-    <t>лосось с/с ломтик</t>
-  </si>
-  <si>
-    <t>профитроли</t>
   </si>
   <si>
     <t>HM 200.1</t>
   </si>
   <si>
-    <t>рулетики из вырезки сувид с жул.</t>
-  </si>
-  <si>
-    <t>тунец с/с в кунжуте</t>
-  </si>
-  <si>
-    <t>телячьи щечки  томленые с овощами</t>
-  </si>
-  <si>
-    <t>палтус припущенный в баз масле</t>
-  </si>
-  <si>
-    <t>филе индейки сувид</t>
-  </si>
-  <si>
     <t>HM 200.2</t>
-  </si>
-  <si>
-    <t>куриное филе сувид в паприке</t>
-  </si>
-  <si>
-    <t>угорь х/к и креветки жареные</t>
-  </si>
-  <si>
-    <t>вырезка ростбиф с картофелем</t>
-  </si>
-  <si>
-    <t>шашлык из лосося и палтуса</t>
-  </si>
-  <si>
-    <t>куриное филе в тимьяне</t>
-  </si>
-  <si>
-    <t>пирожное суфле клубничное</t>
   </si>
   <si>
     <t>HM 204.1</t>
   </si>
   <si>
-    <t>Куриная грудка с/к</t>
-  </si>
-  <si>
-    <t>щечки телячьи томленые</t>
-  </si>
-  <si>
-    <t>лосось в кунжуте</t>
-  </si>
-  <si>
-    <t>куриное филе сувид в паприке с макаронами пене</t>
-  </si>
-  <si>
-    <t xml:space="preserve">пирожное морковное </t>
-  </si>
-  <si>
     <t>HM 204.2</t>
   </si>
   <si>
-    <t>куриная грудка в/к</t>
-  </si>
-  <si>
-    <t>вырезка стейк с булгуром</t>
-  </si>
-  <si>
-    <t>тунец стейк на гриле с картофелем</t>
-  </si>
-  <si>
-    <t>утиная грудка с кускусом</t>
-  </si>
-  <si>
-    <t>рулет куриный с броколи</t>
-  </si>
-  <si>
     <t>HSM 200.2</t>
-  </si>
-  <si>
-    <t>рулетики из вырезки сув с жульеном</t>
-  </si>
-  <si>
-    <t>телячьи щечки томл с овощами</t>
-  </si>
-  <si>
-    <t>лосось запеч. В кунжуте</t>
-  </si>
-  <si>
-    <t>пирожное черный бархат</t>
   </si>
   <si>
     <t>HSM 204.2</t>
@@ -353,12 +203,222 @@
   <si>
     <t>Сочи-Стамбул</t>
   </si>
+  <si>
+    <t> Куриное филе сувид 35г, Сыр Камембер 20г, Сыр Сулугуни копченый 10г, Голубика обработанная 5г, Орехи Кешью 8г, Чернослив 8г, Чипсы из апельсина 3г, Микрозелень 1г</t>
+  </si>
+  <si>
+    <t>Фритата с грибами и зеленым луком 150г, Индейка в карри нарезка 20г</t>
+  </si>
+  <si>
+    <t>Блин шпинатный с курицей и пармезаном 150г, Соус грибной 20г</t>
+  </si>
+  <si>
+    <t> Каша овсяная на безлактозном молоке 170г, Чатни из яблок 15г</t>
+  </si>
+  <si>
+    <t>Джем порц. стекло 28гр, Йогурт натуральный 130 гр</t>
+  </si>
+  <si>
+    <t>Утиная грудка запеченная в апельсиновом соусе 35, Сыр моцарелла шарики 3шт 30г, Голубика обработанная 5г, Орехи Кешью 8г, Салат руккола 2г, Соус клюквенный 10г</t>
+  </si>
+  <si>
+    <t>Фритата с болгарским перцем и сыром фета 150г</t>
+  </si>
+  <si>
+    <t>Блины с творогом и вишней 150г, Топпинг из вишни 30г</t>
+  </si>
+  <si>
+    <t>Каша пшенная на безлактозном молоке 170г, Чатни из груши 15г</t>
+  </si>
+  <si>
+    <t>Куриная грудка в/к 20г, Сырный шарик в кокосовой стружке с миндалем 15г, Сыр ДорБлю 15г, Орехи Миндаль 3г, Орехи Кешью 3г, Голубика обработанная 5г, Финики сушеные 12г, Микрозелень 2г</t>
+  </si>
+  <si>
+    <t>Фритата с тремя сырами 150г, Купаты из индейки жареные нарезка 20г</t>
+  </si>
+  <si>
+    <t>Блин томатный с говядиной и пармезаном 150г, Соус Песто 20г</t>
+  </si>
+  <si>
+    <t>Каша рисовая на безлактозном молоке 160г, Тыква запеченная 20г</t>
+  </si>
+  <si>
+    <t>Куриная грудка с/к 25 Сыр ДорБлю 15 Сыр Песто 15 Сыр Чечел нитки 10 основной ингредиент 65 Голубика обработанная 5 Орехи Миндаль/Орехи Кешью 14 Чипсы кружевные декоративные красные 5 Микрозелень</t>
+  </si>
+  <si>
+    <t>Фритата с помидором и зеленым луком 150 Куриное филе сувид нарезка 20</t>
+  </si>
+  <si>
+    <t>Сырники 3*45 135 Чатни из яблок 40</t>
+  </si>
+  <si>
+    <t>Каша кукурузная на безлактозном молоке 170 Курага 15</t>
+  </si>
+  <si>
+    <t>Фритата с помидором и зеленым луком 120 г</t>
+  </si>
+  <si>
+    <t>Утиная грудка запеченная в апельсиновом соусе 20 г Сыр Камамбер 10 г Сыр Сулугуни копченый колбаски 20  Голубика обработанная 3 г Чернослив 5 г</t>
+  </si>
+  <si>
+    <t>Куриное филе сувид 25 Сыр Моцарелла мини (шариком) 10 Сырный шарик в кунжуте с кешью 15 гр 15 основной ингредиент 50 Апельсин долька без кожуры 6 Голубика обработанная 3 Микрозелень 1 г</t>
+  </si>
+  <si>
+    <t>Фритата с тремя сырами 120 г</t>
+  </si>
+  <si>
+    <t>Бастурма с/к 20 Сырный шарик в миндальной крошке 15 гр ТТК 15 Сыр Маасдам 15 основной ингредиент 50 Каперсы цветки марин.зачищенные 6 Орехи Кедровые 3 микрозелень 1 г</t>
+  </si>
+  <si>
+    <t>Блин простой с творогом и вишней 120 г</t>
+  </si>
+  <si>
+    <t>Джем порц. стекло, 28гр 1шт Йогурт натуральный 75 гр 1шт</t>
+  </si>
+  <si>
+    <t>Куриная грудка с/к 20 Говядина в/к 15 Сыр ДорБлю 15 основной ингредиент 50 Виноград свежий обработанный 6 Орехи Миндаль, 3 Микрозелень 1</t>
+  </si>
+  <si>
+    <t>Блин томатный с говядиной и пармезаном 120 г</t>
+  </si>
+  <si>
+    <t>Куриное филе сувид 35 Сыр Камембер 20 Сыр Сулугуни копченый колбаски 10 основной ингредиент 65 Голубика обработанная 5 Орехи Кешью 8 Чернослив 8 Чипсы из апельсина 3 Микрозелень 1</t>
+  </si>
+  <si>
+    <t>Фритата с помидором и зеленым луком 120</t>
+  </si>
+  <si>
+    <t>Пирожное муссовое абрикосовое 50 Джем порц. стекло, 28гр 1 шт Йогурт натуральный 130 гр 1 шт</t>
+  </si>
+  <si>
+    <t>Куриная грудка в/к 20 Сырный шарик в кокосовой стружке с миндалем 15 гр 30 Сыр ДорБлю 15 основной ингредиент 65 Орехи Миндаль 3 Орехи Кешью 3 Голубика обработанная 5 Финики сушеные 12 микрозелень 2</t>
+  </si>
+  <si>
+    <t>Фритата с тремя сырами 120</t>
+  </si>
+  <si>
+    <t>Пирожное Черный лес 50 Джем порц. стекло, 28гр 1 шт Йогурт натуральный 130 гр 1 шт</t>
+  </si>
+  <si>
+    <t>Куриная грудка в/к 20 Сырный шарик в кокосовой стружке с миндалем 15 гр 30 Сыр ДорБлю 15 основной ингредиент 65 Орехи Миндаль 3 Орехи Кешью 3 Голубика обработанная 5 Финики сушеные 13 Микрозелень 1</t>
+  </si>
+  <si>
+    <t>Блин простой с творогом и вишней 120</t>
+  </si>
+  <si>
+    <t>Пирожное Медовое 50 Джем порц. стекло, 28гр 1 шт Йогурт натуральный 130 гр 1 ш</t>
+  </si>
+  <si>
+    <t>Куриная грудка с/к 30 Сыр ДорБлю 15 Сыр Песто 15 Сыр Чечел нитки 5 основной ингредиент 65 Голубика обработанная 5 Орехи Миндаль,/Орехи Кешью 14 Чипсы кружевные декоративные красные 5 Микрозелень</t>
+  </si>
+  <si>
+    <t>Штрудель с яблоком 50 Джем порц. стекло, 28гр 1 шт Йогурт натуральный 130 гр</t>
+  </si>
+  <si>
+    <t>Утиная грудка запеченная в апельсиновом соусе 40 Говядина в/к 40 основной ингредиент 80 Виноград свежий обработанный 7 Перец черный/красный горошком 1 Чатни из свеклы 20 Салат Руккола обработанный 2</t>
+  </si>
+  <si>
+    <t>Тар тар из тунца с битыми огурцами 80 г,  80 Листья бамбука 3 сухарики 6 Соус кунжутный 20 Микрозелень 1</t>
+  </si>
+  <si>
+    <t>Баранина тушеная 100 Картофель запеченный 70 Перец болгарский гриль 10 Соус клюквенный с яблоком 20</t>
+  </si>
+  <si>
+    <t>Креветки жареные 100 Ньоки картофельные в томатном соусе 100</t>
+  </si>
+  <si>
+    <t>Куриное бедро Бурбон 100 Паста птитим отварная с грибами и трюфельным маслом 60 Кабачки гриль 20</t>
+  </si>
+  <si>
+    <t>Пирожное муссовое абрикосовое 50 г</t>
+  </si>
+  <si>
+    <t>Бастурма с/к 20 Куриная грудка с/к 60 г, 80 Помидор вяленый очищенный 5 Чипсы из апельсина 4 Соус клюквенный 20 Тимьян свежий 1</t>
+  </si>
+  <si>
+    <t>Тунец с/с в кунжуте 50, Креветки обжаренные 30, 80 Лайм обработанный нарезанный п/ф (Сочи) 14 Соус чили сладкий покуп. 15 Микрозелень 1</t>
+  </si>
+  <si>
+    <t>Щечки говяжьи тушеные 100 Булгур сливочный 60 Перец болгарский гриль из свежего 10 Кабачки гриль кружочками 10 Соус Деми Глас 20</t>
+  </si>
+  <si>
+    <t>Лосось с перцем в соусе терияки 120 картофель отварной 80</t>
+  </si>
+  <si>
+    <t>Утиная грудка запеченная 100 Ризотто сливочное с грибами 60 Перец болгарский гриль 20 Соус клюквенный 20</t>
+  </si>
+  <si>
+    <t>Пирожное Черный лес 50</t>
+  </si>
+  <si>
+    <t>Говядина вителло тонато 80, 80 Каперсы цветки марин.зачищенные 3 Помидор вяленый очищенный 5 Соус Вителло Тонато ТТК 20 Салат Руккола обработанный 2</t>
+  </si>
+  <si>
+    <t>Кета х/к 50 Угорь х/к 30, Лайм обработанный нарезанный 18 Каперсы цветки марин.зачищенные/маслины б/к 10 Микрозелень 1 Кунжут черный 1</t>
+  </si>
+  <si>
+    <t>Щечки говяжьи тушеные 100 Картофельное пюре 50 Грибы шамп.гриль/Кабачки гриль 30 Соус ДемиГляс 20</t>
+  </si>
+  <si>
+    <t>Лосось в кунжуте 100 Рис припущенный красный 65 Перец болгарский гриль из свежего 15 Соус сливочный 20</t>
+  </si>
+  <si>
+    <t>Куриное филе гриль 100 Картофельные ньоки в грибном соусе 80 Помидоры черри гриль 20</t>
+  </si>
+  <si>
+    <t>Пирожное Медовое 50</t>
+  </si>
+  <si>
+    <t>Бастурма с/к 30 Куриная грудка в/к 50, Помидор черри обработанный 9, Соус Кунжутный покуп. 20, Розмарин 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Тар тар из лосося с битыми огурцами 80, Листья бамбука 3, сухарики 6, Соус кунжутный 20, Микрозелень 1 </t>
+  </si>
+  <si>
+    <t>Баранина тушеная 100 Полба с вялеными помидорами 60 Кабачки гриль 20 Соус клюквенный 20</t>
+  </si>
+  <si>
+    <t>Лосось запеченный 100 Ризотто из риса с грибами 80 Соус сливочный 20</t>
+  </si>
+  <si>
+    <t>Куриное филе сувид 100 Паста птитим с шпинатом 65 Помидор черри гриль 15 Соус перечный 20</t>
+  </si>
+  <si>
+    <t>Штрудель с яблоком 50г</t>
+  </si>
+  <si>
+    <t> Говядина вителло тонато 80г, Каперсы цветки маринованные 3г, Помидор вяленый очищенный, Соус Вителло Тонато 20г, Салат Руккола обработанный 2г</t>
+  </si>
+  <si>
+    <t>Утиная грудка запеченная 60 Ризотто сливочное с грибами 35 Соус клюквенный 10</t>
+  </si>
+  <si>
+    <t>Пирожное муссовое абрикосовое 50</t>
+  </si>
+  <si>
+    <t>Утиная грудка запеченная в апельсиновом соусе 30 Говядина в/к 35,  Виноград свежий  обработанный 8, Перец черный/красный горошком 2, Чатни из свеклы 13, Салат Руккола обработанный 2</t>
+  </si>
+  <si>
+    <t>Куриное филе сувид 60 Картофельные ньоки в сливочном соусе c шампиньонами 40</t>
+  </si>
+  <si>
+    <t>Тар-тар из тунца с битыми огурцами 65г, Листья бамбука 3г, Сухарики 6г, Соус кунжутный 15г, Микрозелень 1г</t>
+  </si>
+  <si>
+    <t>Куриное бедро Бурбон 60г, Булгур с грибами 35г, Кабачки гриль 10г</t>
+  </si>
+  <si>
+    <t>Говядина в/к 25г, Куриная грудка в/к 40г, Помидор черри обработанный 10г, Соус кунжутный покупной 15г, Микрозелень 1г</t>
+  </si>
+  <si>
+    <t>Баранина тушеная 60г, Полба с вялеными томатами 35г, Кабачки гриль 5г, Соус вишневый</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -382,6 +442,12 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -465,7 +531,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -496,6 +562,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -800,8 +869,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F716"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" topLeftCell="A707" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D716" sqref="D716"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -835,7 +904,7 @@
     </row>
     <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>36</v>
@@ -855,7 +924,7 @@
     </row>
     <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>36</v>
@@ -875,7 +944,7 @@
     </row>
     <row r="4" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>36</v>
@@ -895,7 +964,7 @@
     </row>
     <row r="5" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>36</v>
@@ -915,7 +984,7 @@
     </row>
     <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>36</v>
@@ -935,7 +1004,7 @@
     </row>
     <row r="7" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>36</v>
@@ -955,7 +1024,7 @@
     </row>
     <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>36</v>
@@ -975,7 +1044,7 @@
     </row>
     <row r="9" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>36</v>
@@ -995,7 +1064,7 @@
     </row>
     <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>36</v>
@@ -1015,7 +1084,7 @@
     </row>
     <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B11" s="9" t="s">
         <v>36</v>
@@ -1035,7 +1104,7 @@
     </row>
     <row r="12" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B12" s="9" t="s">
         <v>36</v>
@@ -1055,7 +1124,7 @@
     </row>
     <row r="13" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="6" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>36</v>
@@ -1075,7 +1144,7 @@
     </row>
     <row r="14" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="6" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>36</v>
@@ -1095,7 +1164,7 @@
     </row>
     <row r="15" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="6" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>36</v>
@@ -1115,7 +1184,7 @@
     </row>
     <row r="16" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="6" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>36</v>
@@ -1127,9 +1196,9 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" ht="84" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="6" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>36</v>
@@ -1137,13 +1206,13 @@
       <c r="C17" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="14" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D17" s="15" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="42.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="6" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>36</v>
@@ -1151,13 +1220,13 @@
       <c r="C18" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="14" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D18" s="15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="42.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="6" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B19" s="9" t="s">
         <v>36</v>
@@ -1165,13 +1234,13 @@
       <c r="C19" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D19" s="14" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D19" s="15" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="6" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B20" s="9" t="s">
         <v>36</v>
@@ -1179,13 +1248,13 @@
       <c r="C20" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D20" s="14" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D20" s="15" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="6" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B21" s="9" t="s">
         <v>36</v>
@@ -1193,13 +1262,13 @@
       <c r="C21" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="D21" s="14" t="s">
-        <v>40</v>
+      <c r="D21" s="15" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="6" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B22" s="9" t="s">
         <v>36</v>
@@ -1219,7 +1288,7 @@
     </row>
     <row r="23" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="6" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B23" s="9" t="s">
         <v>36</v>
@@ -1239,7 +1308,7 @@
     </row>
     <row r="24" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="6" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B24" s="9" t="s">
         <v>36</v>
@@ -1259,7 +1328,7 @@
     </row>
     <row r="25" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="6" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B25" s="9" t="s">
         <v>36</v>
@@ -1273,7 +1342,7 @@
     </row>
     <row r="26" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="6" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B26" s="9" t="s">
         <v>36</v>
@@ -1287,7 +1356,7 @@
     </row>
     <row r="27" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="6" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B27" s="9" t="s">
         <v>36</v>
@@ -1301,10 +1370,10 @@
     </row>
     <row r="28" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="6" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C28" s="12" t="s">
         <v>5</v>
@@ -1321,10 +1390,10 @@
     </row>
     <row r="29" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="6" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C29" s="12" t="s">
         <v>5</v>
@@ -1341,10 +1410,10 @@
     </row>
     <row r="30" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="6" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C30" s="12" t="s">
         <v>5</v>
@@ -1361,10 +1430,10 @@
     </row>
     <row r="31" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="6" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C31" s="12" t="s">
         <v>5</v>
@@ -1381,10 +1450,10 @@
     </row>
     <row r="32" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="6" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C32" s="12" t="s">
         <v>5</v>
@@ -1401,10 +1470,10 @@
     </row>
     <row r="33" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="6" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C33" s="12" t="s">
         <v>5</v>
@@ -1421,10 +1490,10 @@
     </row>
     <row r="34" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="6" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C34" s="12" t="s">
         <v>5</v>
@@ -1441,10 +1510,10 @@
     </row>
     <row r="35" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="6" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C35" s="12" t="s">
         <v>5</v>
@@ -1461,10 +1530,10 @@
     </row>
     <row r="36" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="6" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C36" s="12" t="s">
         <v>16</v>
@@ -1481,10 +1550,10 @@
     </row>
     <row r="37" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="6" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C37" s="12" t="s">
         <v>16</v>
@@ -1501,10 +1570,10 @@
     </row>
     <row r="38" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="6" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C38" s="12" t="s">
         <v>16</v>
@@ -1521,10 +1590,10 @@
     </row>
     <row r="39" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="6" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C39" s="12" t="s">
         <v>16</v>
@@ -1541,10 +1610,10 @@
     </row>
     <row r="40" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="6" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C40" s="12" t="s">
         <v>16</v>
@@ -1561,10 +1630,10 @@
     </row>
     <row r="41" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="6" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C41" s="12" t="s">
         <v>16</v>
@@ -1581,10 +1650,10 @@
     </row>
     <row r="42" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="6" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C42" s="12" t="s">
         <v>16</v>
@@ -1593,82 +1662,82 @@
         <v>33</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" ht="84" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="6" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C43" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="D43" s="14" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D43" s="15" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="6" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C44" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D44" s="14" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D44" s="15" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="6" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C45" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D45" s="14" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D45" s="15" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="6" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C46" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D46" s="14" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D46" s="15" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="6" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C47" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="D47" s="14" t="s">
-        <v>40</v>
+      <c r="D47" s="15" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="6" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C48" s="12" t="s">
         <v>25</v>
@@ -1685,10 +1754,10 @@
     </row>
     <row r="49" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="6" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C49" s="12" t="s">
         <v>25</v>
@@ -1705,10 +1774,10 @@
     </row>
     <row r="50" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="6" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C50" s="12" t="s">
         <v>25</v>
@@ -1725,10 +1794,10 @@
     </row>
     <row r="51" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="6" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C51" s="12" t="s">
         <v>25</v>
@@ -1739,10 +1808,10 @@
     </row>
     <row r="52" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="6" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C52" s="12" t="s">
         <v>29</v>
@@ -1753,10 +1822,10 @@
     </row>
     <row r="53" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="6" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C53" s="12" t="s">
         <v>29</v>
@@ -1768,7 +1837,7 @@
     <row r="54" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="6"/>
       <c r="B54" s="14" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="C54" s="12" t="s">
         <v>5</v>
@@ -1786,7 +1855,7 @@
     <row r="55" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="6"/>
       <c r="B55" s="14" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="C55" s="12" t="s">
         <v>5</v>
@@ -1804,7 +1873,7 @@
     <row r="56" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="6"/>
       <c r="B56" s="14" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="C56" s="12" t="s">
         <v>5</v>
@@ -1822,7 +1891,7 @@
     <row r="57" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="6"/>
       <c r="B57" s="14" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="C57" s="12" t="s">
         <v>5</v>
@@ -1840,7 +1909,7 @@
     <row r="58" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="6"/>
       <c r="B58" s="14" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="C58" s="12" t="s">
         <v>5</v>
@@ -1858,7 +1927,7 @@
     <row r="59" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="6"/>
       <c r="B59" s="14" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="C59" s="12" t="s">
         <v>5</v>
@@ -1876,7 +1945,7 @@
     <row r="60" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="6"/>
       <c r="B60" s="14" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="C60" s="12" t="s">
         <v>5</v>
@@ -1894,7 +1963,7 @@
     <row r="61" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="6"/>
       <c r="B61" s="14" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="C61" s="12" t="s">
         <v>5</v>
@@ -1912,7 +1981,7 @@
     <row r="62" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="6"/>
       <c r="B62" s="14" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="C62" s="12" t="s">
         <v>16</v>
@@ -1930,7 +1999,7 @@
     <row r="63" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="6"/>
       <c r="B63" s="14" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="C63" s="12" t="s">
         <v>16</v>
@@ -1948,7 +2017,7 @@
     <row r="64" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="6"/>
       <c r="B64" s="14" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="C64" s="12" t="s">
         <v>16</v>
@@ -1966,7 +2035,7 @@
     <row r="65" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="6"/>
       <c r="B65" s="14" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="C65" s="12" t="s">
         <v>16</v>
@@ -1984,7 +2053,7 @@
     <row r="66" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="6"/>
       <c r="B66" s="14" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="C66" s="12" t="s">
         <v>16</v>
@@ -2002,7 +2071,7 @@
     <row r="67" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="6"/>
       <c r="B67" s="14" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="C67" s="12" t="s">
         <v>16</v>
@@ -2020,7 +2089,7 @@
     <row r="68" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="6"/>
       <c r="B68" s="14" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="C68" s="12" t="s">
         <v>16</v>
@@ -2029,70 +2098,70 @@
         <v>33</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:6" ht="97.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="6"/>
       <c r="B69" s="14" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="C69" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="D69" s="14" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D69" s="15" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="42.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="6"/>
       <c r="B70" s="14" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="C70" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D70" s="14" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D70" s="15" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="6"/>
       <c r="B71" s="14" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="C71" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D71" s="14" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D71" s="15" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="42.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="6"/>
       <c r="B72" s="14" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="C72" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D72" s="14" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D72" s="15" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="6"/>
       <c r="B73" s="14" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="C73" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="D73" s="14" t="s">
-        <v>40</v>
+      <c r="D73" s="15" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="6"/>
       <c r="B74" s="14" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="C74" s="12" t="s">
         <v>25</v>
@@ -2110,7 +2179,7 @@
     <row r="75" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="6"/>
       <c r="B75" s="14" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="C75" s="12" t="s">
         <v>25</v>
@@ -2128,7 +2197,7 @@
     <row r="76" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="6"/>
       <c r="B76" s="14" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="C76" s="12" t="s">
         <v>25</v>
@@ -2146,7 +2215,7 @@
     <row r="77" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" s="6"/>
       <c r="B77" s="14" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="C77" s="12" t="s">
         <v>25</v>
@@ -2158,7 +2227,7 @@
     <row r="78" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" s="6"/>
       <c r="B78" s="14" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="C78" s="12" t="s">
         <v>29</v>
@@ -2170,7 +2239,7 @@
     <row r="79" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="6"/>
       <c r="B79" s="14" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="C79" s="12" t="s">
         <v>29</v>
@@ -2182,7 +2251,7 @@
     <row r="80" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" s="6"/>
       <c r="B80" s="14" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C80" s="12" t="s">
         <v>5</v>
@@ -2200,7 +2269,7 @@
     <row r="81" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A81" s="6"/>
       <c r="B81" s="14" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C81" s="12" t="s">
         <v>5</v>
@@ -2218,7 +2287,7 @@
     <row r="82" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" s="6"/>
       <c r="B82" s="14" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C82" s="12" t="s">
         <v>5</v>
@@ -2236,13 +2305,13 @@
     <row r="83" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="6"/>
       <c r="B83" s="14" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C83" s="12" t="s">
         <v>5</v>
       </c>
       <c r="D83" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E83" t="s">
         <v>7</v>
@@ -2254,7 +2323,7 @@
     <row r="84" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="6"/>
       <c r="B84" s="14" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C84" s="12" t="s">
         <v>5</v>
@@ -2272,7 +2341,7 @@
     <row r="85" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A85" s="6"/>
       <c r="B85" s="14" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C85" s="12" t="s">
         <v>5</v>
@@ -2290,7 +2359,7 @@
     <row r="86" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A86" s="6"/>
       <c r="B86" s="14" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C86" s="12" t="s">
         <v>5</v>
@@ -2308,7 +2377,7 @@
     <row r="87" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="6"/>
       <c r="B87" s="14" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C87" s="12" t="s">
         <v>5</v>
@@ -2326,7 +2395,7 @@
     <row r="88" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="6"/>
       <c r="B88" s="14" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C88" s="12" t="s">
         <v>16</v>
@@ -2344,7 +2413,7 @@
     <row r="89" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A89" s="6"/>
       <c r="B89" s="14" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C89" s="12" t="s">
         <v>16</v>
@@ -2362,7 +2431,7 @@
     <row r="90" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" s="6"/>
       <c r="B90" s="14" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C90" s="12" t="s">
         <v>16</v>
@@ -2380,7 +2449,7 @@
     <row r="91" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A91" s="6"/>
       <c r="B91" s="14" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C91" s="12" t="s">
         <v>16</v>
@@ -2398,7 +2467,7 @@
     <row r="92" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A92" s="6"/>
       <c r="B92" s="14" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C92" s="12" t="s">
         <v>16</v>
@@ -2416,7 +2485,7 @@
     <row r="93" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A93" s="6"/>
       <c r="B93" s="14" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C93" s="12" t="s">
         <v>16</v>
@@ -2434,7 +2503,7 @@
     <row r="94" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="6"/>
       <c r="B94" s="14" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C94" s="12" t="s">
         <v>16</v>
@@ -2443,70 +2512,70 @@
         <v>33</v>
       </c>
     </row>
-    <row r="95" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:6" ht="111.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A95" s="6"/>
       <c r="B95" s="14" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C95" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="D95" s="14" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D95" s="15" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="42.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" s="6"/>
       <c r="B96" s="14" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C96" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D96" s="14" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D96" s="15" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A97" s="6"/>
       <c r="B97" s="14" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C97" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D97" s="14" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D97" s="15" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" ht="42.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A98" s="6"/>
       <c r="B98" s="14" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C98" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D98" s="14" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D98" s="15" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A99" s="6"/>
       <c r="B99" s="14" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C99" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="D99" s="14" t="s">
-        <v>40</v>
+      <c r="D99" s="15" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A100" s="6"/>
       <c r="B100" s="14" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C100" s="12" t="s">
         <v>25</v>
@@ -2524,7 +2593,7 @@
     <row r="101" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A101" s="6"/>
       <c r="B101" s="14" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C101" s="12" t="s">
         <v>25</v>
@@ -2542,7 +2611,7 @@
     <row r="102" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A102" s="6"/>
       <c r="B102" s="14" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C102" s="12" t="s">
         <v>25</v>
@@ -2560,7 +2629,7 @@
     <row r="103" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A103" s="6"/>
       <c r="B103" s="14" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C103" s="12" t="s">
         <v>25</v>
@@ -2572,7 +2641,7 @@
     <row r="104" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A104" s="6"/>
       <c r="B104" s="14" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C104" s="12" t="s">
         <v>29</v>
@@ -2584,7 +2653,7 @@
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" s="6"/>
       <c r="B105" s="14" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C105" s="12" t="s">
         <v>29</v>
@@ -2595,10 +2664,10 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" s="11" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="B106" s="14" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="C106" s="12" t="s">
         <v>5</v>
@@ -2615,10 +2684,10 @@
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" s="11" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="B107" s="14" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="C107" s="12" t="s">
         <v>5</v>
@@ -2635,10 +2704,10 @@
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" s="11" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="B108" s="14" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="C108" s="12" t="s">
         <v>5</v>
@@ -2655,10 +2724,10 @@
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" s="11" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="B109" s="14" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="C109" s="12" t="s">
         <v>5</v>
@@ -2675,10 +2744,10 @@
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" s="11" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="B110" s="14" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="C110" s="12" t="s">
         <v>5</v>
@@ -2695,10 +2764,10 @@
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" s="11" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="B111" s="14" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="C111" s="12" t="s">
         <v>5</v>
@@ -2715,10 +2784,10 @@
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" s="11" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="B112" s="14" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="C112" s="12" t="s">
         <v>5</v>
@@ -2735,10 +2804,10 @@
     </row>
     <row r="113" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A113" s="11" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="B113" s="14" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="C113" s="12" t="s">
         <v>5</v>
@@ -2755,10 +2824,10 @@
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" s="11" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="B114" s="14" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="C114" s="12" t="s">
         <v>16</v>
@@ -2775,10 +2844,10 @@
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" s="11" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="B115" s="14" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="C115" s="12" t="s">
         <v>16</v>
@@ -2795,10 +2864,10 @@
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" s="11" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="B116" s="14" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="C116" s="12" t="s">
         <v>16</v>
@@ -2815,10 +2884,10 @@
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" s="11" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="B117" s="14" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="C117" s="12" t="s">
         <v>16</v>
@@ -2835,10 +2904,10 @@
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" s="11" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="B118" s="14" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="C118" s="12" t="s">
         <v>16</v>
@@ -2855,10 +2924,10 @@
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" s="11" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="B119" s="14" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="C119" s="12" t="s">
         <v>16</v>
@@ -2875,10 +2944,10 @@
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" s="11" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="B120" s="14" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="C120" s="12" t="s">
         <v>16</v>
@@ -2887,54 +2956,54 @@
         <v>33</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:6" ht="69.599999999999994" x14ac:dyDescent="0.3">
       <c r="A121" s="11" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="B121" s="14" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="C121" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="D121" s="14" t="s">
+      <c r="D121" s="15" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A122" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B122" s="14" t="s">
         <v>45</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A122" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="B122" s="14" t="s">
-        <v>62</v>
       </c>
       <c r="C122" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D122" s="14" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D122" s="15" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A123" s="11" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="B123" s="14" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="C123" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="D123" s="14" t="s">
-        <v>40</v>
+      <c r="D123" s="15" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" s="11" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="B124" s="14" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="C124" s="13" t="s">
         <v>24</v>
@@ -2945,10 +3014,10 @@
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" s="11" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="B125" s="14" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="C125" s="12" t="s">
         <v>25</v>
@@ -2965,10 +3034,10 @@
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" s="11" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="B126" s="14" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="C126" s="12" t="s">
         <v>25</v>
@@ -2985,10 +3054,10 @@
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" s="11" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="B127" s="14" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="C127" s="12" t="s">
         <v>25</v>
@@ -3005,10 +3074,10 @@
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" s="11" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="B128" s="14" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="C128" s="12" t="s">
         <v>25</v>
@@ -3019,10 +3088,10 @@
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" s="11" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="B129" s="14" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="C129" s="12" t="s">
         <v>29</v>
@@ -3033,10 +3102,10 @@
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" s="11" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="B130" s="14" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="C130" s="12" t="s">
         <v>29</v>
@@ -3047,10 +3116,10 @@
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" s="11" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="B131" s="14" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="C131" s="12" t="s">
         <v>5</v>
@@ -3067,10 +3136,10 @@
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" s="11" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="B132" s="14" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="C132" s="12" t="s">
         <v>5</v>
@@ -3087,10 +3156,10 @@
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" s="11" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="B133" s="14" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="C133" s="12" t="s">
         <v>5</v>
@@ -3107,10 +3176,10 @@
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" s="11" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="B134" s="14" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="C134" s="12" t="s">
         <v>5</v>
@@ -3127,10 +3196,10 @@
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" s="11" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="B135" s="14" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="C135" s="12" t="s">
         <v>5</v>
@@ -3147,10 +3216,10 @@
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" s="11" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="B136" s="14" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="C136" s="12" t="s">
         <v>5</v>
@@ -3167,10 +3236,10 @@
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" s="11" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="B137" s="14" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="C137" s="12" t="s">
         <v>5</v>
@@ -3187,10 +3256,10 @@
     </row>
     <row r="138" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A138" s="11" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="B138" s="14" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="C138" s="12" t="s">
         <v>5</v>
@@ -3207,10 +3276,10 @@
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" s="11" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="B139" s="14" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="C139" s="12" t="s">
         <v>16</v>
@@ -3227,10 +3296,10 @@
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" s="11" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="B140" s="14" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="C140" s="12" t="s">
         <v>16</v>
@@ -3247,10 +3316,10 @@
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" s="11" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="B141" s="14" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="C141" s="12" t="s">
         <v>16</v>
@@ -3267,10 +3336,10 @@
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" s="11" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="B142" s="14" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="C142" s="12" t="s">
         <v>16</v>
@@ -3287,10 +3356,10 @@
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" s="11" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="B143" s="14" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="C143" s="12" t="s">
         <v>16</v>
@@ -3307,10 +3376,10 @@
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" s="11" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="B144" s="14" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="C144" s="12" t="s">
         <v>16</v>
@@ -3327,10 +3396,10 @@
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" s="11" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="B145" s="14" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="C145" s="12" t="s">
         <v>16</v>
@@ -3339,54 +3408,54 @@
         <v>33</v>
       </c>
     </row>
-    <row r="146" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:6" ht="97.2" x14ac:dyDescent="0.3">
       <c r="A146" s="11" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="B146" s="14" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="C146" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="D146" s="14" t="s">
-        <v>47</v>
+      <c r="D146" s="15" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" s="11" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="B147" s="14" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="C147" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D147" s="14" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D147" s="15" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A148" s="11" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="B148" s="14" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="C148" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="D148" s="14" t="s">
-        <v>40</v>
+      <c r="D148" s="15" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" s="11" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="B149" s="14" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="C149" s="12" t="s">
         <v>25</v>
@@ -3397,10 +3466,10 @@
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" s="11" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="B150" s="14" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="C150" s="12" t="s">
         <v>25</v>
@@ -3411,10 +3480,10 @@
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" s="11" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="B151" s="14" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="C151" s="12" t="s">
         <v>25</v>
@@ -3431,10 +3500,10 @@
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" s="11" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="B152" s="14" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="C152" s="12" t="s">
         <v>25</v>
@@ -3451,10 +3520,10 @@
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" s="11" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="B153" s="14" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="C153" s="12" t="s">
         <v>29</v>
@@ -3471,10 +3540,10 @@
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" s="11" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="B154" s="14" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="C154" s="12" t="s">
         <v>29</v>
@@ -3486,7 +3555,7 @@
     <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" s="11"/>
       <c r="B155" s="8" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C155" s="12" t="s">
         <v>5</v>
@@ -3504,7 +3573,7 @@
     <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" s="11"/>
       <c r="B156" s="8" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C156" s="12" t="s">
         <v>5</v>
@@ -3522,7 +3591,7 @@
     <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" s="11"/>
       <c r="B157" s="8" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C157" s="12" t="s">
         <v>5</v>
@@ -3540,7 +3609,7 @@
     <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" s="11"/>
       <c r="B158" s="8" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C158" s="12" t="s">
         <v>5</v>
@@ -3558,7 +3627,7 @@
     <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" s="11"/>
       <c r="B159" s="8" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C159" s="12" t="s">
         <v>5</v>
@@ -3576,7 +3645,7 @@
     <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" s="11"/>
       <c r="B160" s="8" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C160" s="12" t="s">
         <v>5</v>
@@ -3594,7 +3663,7 @@
     <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" s="11"/>
       <c r="B161" s="8" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C161" s="12" t="s">
         <v>5</v>
@@ -3612,7 +3681,7 @@
     <row r="162" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A162" s="11"/>
       <c r="B162" s="8" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C162" s="12" t="s">
         <v>5</v>
@@ -3630,7 +3699,7 @@
     <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" s="11"/>
       <c r="B163" s="8" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C163" s="12" t="s">
         <v>16</v>
@@ -3648,7 +3717,7 @@
     <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" s="11"/>
       <c r="B164" s="8" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C164" s="12" t="s">
         <v>16</v>
@@ -3666,7 +3735,7 @@
     <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165" s="11"/>
       <c r="B165" s="8" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C165" s="12" t="s">
         <v>16</v>
@@ -3684,7 +3753,7 @@
     <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" s="11"/>
       <c r="B166" s="8" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C166" s="12" t="s">
         <v>16</v>
@@ -3702,7 +3771,7 @@
     <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" s="11"/>
       <c r="B167" s="8" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C167" s="12" t="s">
         <v>16</v>
@@ -3720,7 +3789,7 @@
     <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" s="11"/>
       <c r="B168" s="8" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C168" s="12" t="s">
         <v>16</v>
@@ -3738,7 +3807,7 @@
     <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169" s="11"/>
       <c r="B169" s="8" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C169" s="12" t="s">
         <v>16</v>
@@ -3747,46 +3816,46 @@
         <v>33</v>
       </c>
     </row>
-    <row r="170" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:6" ht="83.4" x14ac:dyDescent="0.3">
       <c r="A170" s="11"/>
       <c r="B170" s="14" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="C170" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="D170" s="14" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D170" s="15" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A171" s="11"/>
       <c r="B171" s="14" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="C171" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D171" s="14" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D171" s="15" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A172" s="11"/>
       <c r="B172" s="14" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="C172" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="D172" s="14" t="s">
-        <v>40</v>
+      <c r="D172" s="15" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173" s="11"/>
       <c r="B173" s="8" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C173" s="12" t="s">
         <v>25</v>
@@ -3804,7 +3873,7 @@
     <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174" s="11"/>
       <c r="B174" s="8" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C174" s="12" t="s">
         <v>25</v>
@@ -3822,7 +3891,7 @@
     <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175" s="11"/>
       <c r="B175" s="8" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C175" s="12" t="s">
         <v>25</v>
@@ -3840,7 +3909,7 @@
     <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176" s="11"/>
       <c r="B176" s="8" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C176" s="12" t="s">
         <v>25</v>
@@ -3852,7 +3921,7 @@
     <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177" s="11"/>
       <c r="B177" s="8" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C177" s="12" t="s">
         <v>29</v>
@@ -3864,7 +3933,7 @@
     <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178" s="11"/>
       <c r="B178" s="8" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C178" s="12" t="s">
         <v>29</v>
@@ -3876,7 +3945,7 @@
     <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179" s="11"/>
       <c r="B179" s="14" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="C179" s="12" t="s">
         <v>5</v>
@@ -3894,7 +3963,7 @@
     <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180" s="11"/>
       <c r="B180" s="14" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="C180" s="12" t="s">
         <v>5</v>
@@ -3912,7 +3981,7 @@
     <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181" s="11"/>
       <c r="B181" s="14" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="C181" s="12" t="s">
         <v>5</v>
@@ -3930,7 +3999,7 @@
     <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182" s="11"/>
       <c r="B182" s="14" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="C182" s="12" t="s">
         <v>5</v>
@@ -3948,7 +4017,7 @@
     <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183" s="11"/>
       <c r="B183" s="14" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="C183" s="12" t="s">
         <v>5</v>
@@ -3966,7 +4035,7 @@
     <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184" s="11"/>
       <c r="B184" s="14" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="C184" s="12" t="s">
         <v>5</v>
@@ -3984,7 +4053,7 @@
     <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185" s="11"/>
       <c r="B185" s="14" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="C185" s="12" t="s">
         <v>5</v>
@@ -4002,7 +4071,7 @@
     <row r="186" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A186" s="11"/>
       <c r="B186" s="14" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="C186" s="12" t="s">
         <v>5</v>
@@ -4020,7 +4089,7 @@
     <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187" s="11"/>
       <c r="B187" s="14" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="C187" s="12" t="s">
         <v>16</v>
@@ -4038,7 +4107,7 @@
     <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188" s="11"/>
       <c r="B188" s="14" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="C188" s="12" t="s">
         <v>16</v>
@@ -4056,7 +4125,7 @@
     <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189" s="11"/>
       <c r="B189" s="14" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="C189" s="12" t="s">
         <v>16</v>
@@ -4074,7 +4143,7 @@
     <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190" s="11"/>
       <c r="B190" s="14" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="C190" s="12" t="s">
         <v>16</v>
@@ -4092,7 +4161,7 @@
     <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191" s="11"/>
       <c r="B191" s="14" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="C191" s="12" t="s">
         <v>16</v>
@@ -4110,7 +4179,7 @@
     <row r="192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A192" s="11"/>
       <c r="B192" s="14" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="C192" s="12" t="s">
         <v>16</v>
@@ -4128,7 +4197,7 @@
     <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193" s="11"/>
       <c r="B193" s="14" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="C193" s="12" t="s">
         <v>16</v>
@@ -4137,46 +4206,46 @@
         <v>33</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:6" ht="69.599999999999994" x14ac:dyDescent="0.3">
       <c r="A194" s="11"/>
       <c r="B194" s="14" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="C194" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="D194" s="14" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D194" s="15" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A195" s="11"/>
       <c r="B195" s="14" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="C195" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D195" s="14" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D195" s="15" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A196" s="11"/>
       <c r="B196" s="14" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="C196" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="D196" s="14" t="s">
-        <v>40</v>
+      <c r="D196" s="15" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197" s="11"/>
       <c r="B197" s="14" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="C197" s="12" t="s">
         <v>25</v>
@@ -4194,7 +4263,7 @@
     <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198" s="11"/>
       <c r="B198" s="14" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="C198" s="12" t="s">
         <v>25</v>
@@ -4212,7 +4281,7 @@
     <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199" s="11"/>
       <c r="B199" s="14" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="C199" s="12" t="s">
         <v>25</v>
@@ -4230,7 +4299,7 @@
     <row r="200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A200" s="11"/>
       <c r="B200" s="14" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="C200" s="12" t="s">
         <v>25</v>
@@ -4242,7 +4311,7 @@
     <row r="201" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A201" s="11"/>
       <c r="B201" s="14" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="C201" s="12" t="s">
         <v>29</v>
@@ -4254,7 +4323,7 @@
     <row r="202" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A202" s="11"/>
       <c r="B202" s="14" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="C202" s="12" t="s">
         <v>29</v>
@@ -4266,7 +4335,7 @@
     <row r="203" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A203" s="11"/>
       <c r="B203" s="8" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="C203" s="12" t="s">
         <v>5</v>
@@ -4284,7 +4353,7 @@
     <row r="204" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A204" s="11"/>
       <c r="B204" s="8" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="C204" s="12" t="s">
         <v>5</v>
@@ -4302,7 +4371,7 @@
     <row r="205" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A205" s="11"/>
       <c r="B205" s="8" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="C205" s="12" t="s">
         <v>5</v>
@@ -4320,7 +4389,7 @@
     <row r="206" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A206" s="11"/>
       <c r="B206" s="8" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="C206" s="12" t="s">
         <v>5</v>
@@ -4338,7 +4407,7 @@
     <row r="207" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A207" s="11"/>
       <c r="B207" s="8" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="C207" s="12" t="s">
         <v>5</v>
@@ -4356,7 +4425,7 @@
     <row r="208" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A208" s="11"/>
       <c r="B208" s="8" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="C208" s="12" t="s">
         <v>5</v>
@@ -4374,7 +4443,7 @@
     <row r="209" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A209" s="11"/>
       <c r="B209" s="8" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="C209" s="12" t="s">
         <v>5</v>
@@ -4392,7 +4461,7 @@
     <row r="210" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A210" s="11"/>
       <c r="B210" s="8" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="C210" s="12" t="s">
         <v>5</v>
@@ -4410,7 +4479,7 @@
     <row r="211" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A211" s="11"/>
       <c r="B211" s="8" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="C211" s="12" t="s">
         <v>16</v>
@@ -4428,7 +4497,7 @@
     <row r="212" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A212" s="11"/>
       <c r="B212" s="8" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="C212" s="12" t="s">
         <v>16</v>
@@ -4446,7 +4515,7 @@
     <row r="213" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A213" s="11"/>
       <c r="B213" s="8" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="C213" s="12" t="s">
         <v>16</v>
@@ -4464,7 +4533,7 @@
     <row r="214" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A214" s="11"/>
       <c r="B214" s="8" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="C214" s="12" t="s">
         <v>16</v>
@@ -4482,7 +4551,7 @@
     <row r="215" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A215" s="11"/>
       <c r="B215" s="8" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="C215" s="12" t="s">
         <v>16</v>
@@ -4500,7 +4569,7 @@
     <row r="216" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A216" s="11"/>
       <c r="B216" s="8" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="C216" s="12" t="s">
         <v>16</v>
@@ -4518,7 +4587,7 @@
     <row r="217" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A217" s="11"/>
       <c r="B217" s="8" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="C217" s="12" t="s">
         <v>16</v>
@@ -4527,46 +4596,46 @@
         <v>33</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:6" ht="97.2" x14ac:dyDescent="0.3">
       <c r="A218" s="11"/>
       <c r="B218" s="8" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="C218" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="D218" s="14" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+      <c r="D218" s="15" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A219" s="11"/>
       <c r="B219" s="8" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="C219" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D219" s="14" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D219" s="15" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" ht="42" x14ac:dyDescent="0.3">
       <c r="A220" s="11"/>
       <c r="B220" s="8" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="C220" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="D220" s="14" t="s">
-        <v>71</v>
+      <c r="D220" s="15" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A221" s="11"/>
       <c r="B221" s="8" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="C221" s="12" t="s">
         <v>25</v>
@@ -4584,7 +4653,7 @@
     <row r="222" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A222" s="11"/>
       <c r="B222" s="8" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="C222" s="12" t="s">
         <v>25</v>
@@ -4602,7 +4671,7 @@
     <row r="223" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A223" s="11"/>
       <c r="B223" s="8" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="C223" s="12" t="s">
         <v>25</v>
@@ -4620,7 +4689,7 @@
     <row r="224" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A224" s="11"/>
       <c r="B224" s="8" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="C224" s="12" t="s">
         <v>25</v>
@@ -4632,7 +4701,7 @@
     <row r="225" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A225" s="11"/>
       <c r="B225" s="8" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="C225" s="12" t="s">
         <v>29</v>
@@ -4644,7 +4713,7 @@
     <row r="226" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A226" s="11"/>
       <c r="B226" s="8" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="C226" s="12" t="s">
         <v>29</v>
@@ -4656,7 +4725,7 @@
     <row r="227" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A227" s="11"/>
       <c r="B227" s="8" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="C227" s="12" t="s">
         <v>5</v>
@@ -4674,7 +4743,7 @@
     <row r="228" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A228" s="11"/>
       <c r="B228" s="8" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="C228" s="12" t="s">
         <v>5</v>
@@ -4692,7 +4761,7 @@
     <row r="229" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A229" s="11"/>
       <c r="B229" s="8" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="C229" s="12" t="s">
         <v>5</v>
@@ -4710,7 +4779,7 @@
     <row r="230" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A230" s="11"/>
       <c r="B230" s="8" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="C230" s="12" t="s">
         <v>5</v>
@@ -4728,7 +4797,7 @@
     <row r="231" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A231" s="11"/>
       <c r="B231" s="8" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="C231" s="12" t="s">
         <v>5</v>
@@ -4746,7 +4815,7 @@
     <row r="232" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A232" s="11"/>
       <c r="B232" s="8" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="C232" s="12" t="s">
         <v>5</v>
@@ -4764,7 +4833,7 @@
     <row r="233" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A233" s="11"/>
       <c r="B233" s="8" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="C233" s="12" t="s">
         <v>5</v>
@@ -4782,7 +4851,7 @@
     <row r="234" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A234" s="11"/>
       <c r="B234" s="8" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="C234" s="12" t="s">
         <v>5</v>
@@ -4800,7 +4869,7 @@
     <row r="235" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A235" s="11"/>
       <c r="B235" s="8" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="C235" s="12" t="s">
         <v>16</v>
@@ -4818,7 +4887,7 @@
     <row r="236" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A236" s="11"/>
       <c r="B236" s="8" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="C236" s="12" t="s">
         <v>16</v>
@@ -4836,7 +4905,7 @@
     <row r="237" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A237" s="11"/>
       <c r="B237" s="8" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="C237" s="12" t="s">
         <v>16</v>
@@ -4854,7 +4923,7 @@
     <row r="238" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A238" s="11"/>
       <c r="B238" s="8" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="C238" s="12" t="s">
         <v>16</v>
@@ -4872,7 +4941,7 @@
     <row r="239" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A239" s="11"/>
       <c r="B239" s="8" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="C239" s="12" t="s">
         <v>16</v>
@@ -4890,7 +4959,7 @@
     <row r="240" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A240" s="11"/>
       <c r="B240" s="8" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="C240" s="12" t="s">
         <v>16</v>
@@ -4908,7 +4977,7 @@
     <row r="241" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A241" s="11"/>
       <c r="B241" s="8" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="C241" s="12" t="s">
         <v>16</v>
@@ -4917,46 +4986,46 @@
         <v>33</v>
       </c>
     </row>
-    <row r="242" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:6" ht="111" x14ac:dyDescent="0.3">
       <c r="A242" s="11"/>
       <c r="B242" s="8" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="C242" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="D242" s="14" t="s">
-        <v>47</v>
+        <v>50</v>
+      </c>
+      <c r="D242" s="15" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A243" s="11"/>
       <c r="B243" s="8" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="C243" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D243" s="14" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D243" s="15" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" ht="42" x14ac:dyDescent="0.3">
       <c r="A244" s="11"/>
       <c r="B244" s="8" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="C244" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="D244" s="14" t="s">
-        <v>73</v>
+      <c r="D244" s="15" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A245" s="11"/>
       <c r="B245" s="8" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="C245" s="12" t="s">
         <v>25</v>
@@ -4974,7 +5043,7 @@
     <row r="246" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A246" s="11"/>
       <c r="B246" s="8" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="C246" s="12" t="s">
         <v>25</v>
@@ -4992,7 +5061,7 @@
     <row r="247" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A247" s="11"/>
       <c r="B247" s="8" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="C247" s="12" t="s">
         <v>25</v>
@@ -5010,7 +5079,7 @@
     <row r="248" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A248" s="11"/>
       <c r="B248" s="8" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="C248" s="12" t="s">
         <v>25</v>
@@ -5022,7 +5091,7 @@
     <row r="249" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A249" s="11"/>
       <c r="B249" s="8" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="C249" s="12" t="s">
         <v>29</v>
@@ -5034,7 +5103,7 @@
     <row r="250" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A250" s="11"/>
       <c r="B250" s="8" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="C250" s="12" t="s">
         <v>29</v>
@@ -5046,7 +5115,7 @@
     <row r="251" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A251" s="11"/>
       <c r="B251" s="8" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="C251" s="12" t="s">
         <v>5</v>
@@ -5064,7 +5133,7 @@
     <row r="252" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A252" s="11"/>
       <c r="B252" s="8" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="C252" s="12" t="s">
         <v>5</v>
@@ -5082,7 +5151,7 @@
     <row r="253" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A253" s="11"/>
       <c r="B253" s="8" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="C253" s="12" t="s">
         <v>5</v>
@@ -5100,7 +5169,7 @@
     <row r="254" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A254" s="11"/>
       <c r="B254" s="8" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="C254" s="12" t="s">
         <v>5</v>
@@ -5118,7 +5187,7 @@
     <row r="255" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A255" s="11"/>
       <c r="B255" s="8" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="C255" s="12" t="s">
         <v>5</v>
@@ -5136,7 +5205,7 @@
     <row r="256" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A256" s="11"/>
       <c r="B256" s="8" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="C256" s="12" t="s">
         <v>5</v>
@@ -5154,7 +5223,7 @@
     <row r="257" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A257" s="11"/>
       <c r="B257" s="8" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="C257" s="12" t="s">
         <v>5</v>
@@ -5172,7 +5241,7 @@
     <row r="258" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A258" s="11"/>
       <c r="B258" s="8" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="C258" s="12" t="s">
         <v>5</v>
@@ -5190,7 +5259,7 @@
     <row r="259" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A259" s="11"/>
       <c r="B259" s="8" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="C259" s="12" t="s">
         <v>16</v>
@@ -5208,7 +5277,7 @@
     <row r="260" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A260" s="11"/>
       <c r="B260" s="8" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="C260" s="12" t="s">
         <v>16</v>
@@ -5226,7 +5295,7 @@
     <row r="261" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A261" s="11"/>
       <c r="B261" s="8" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="C261" s="12" t="s">
         <v>16</v>
@@ -5244,7 +5313,7 @@
     <row r="262" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A262" s="11"/>
       <c r="B262" s="8" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="C262" s="12" t="s">
         <v>16</v>
@@ -5262,7 +5331,7 @@
     <row r="263" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A263" s="11"/>
       <c r="B263" s="8" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="C263" s="12" t="s">
         <v>16</v>
@@ -5280,7 +5349,7 @@
     <row r="264" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A264" s="11"/>
       <c r="B264" s="8" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="C264" s="12" t="s">
         <v>16</v>
@@ -5298,7 +5367,7 @@
     <row r="265" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A265" s="11"/>
       <c r="B265" s="8" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="C265" s="12" t="s">
         <v>16</v>
@@ -5307,46 +5376,46 @@
         <v>33</v>
       </c>
     </row>
-    <row r="266" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:6" ht="111" x14ac:dyDescent="0.3">
       <c r="A266" s="11"/>
       <c r="B266" s="8" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="C266" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="D266" s="14" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+      <c r="D266" s="15" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A267" s="11"/>
       <c r="B267" s="8" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="C267" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D267" s="14" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D267" s="15" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" ht="42" x14ac:dyDescent="0.3">
       <c r="A268" s="11"/>
       <c r="B268" s="8" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="C268" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="D268" s="14" t="s">
-        <v>75</v>
+      <c r="D268" s="15" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A269" s="11"/>
       <c r="B269" s="8" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="C269" s="12" t="s">
         <v>25</v>
@@ -5364,7 +5433,7 @@
     <row r="270" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A270" s="11"/>
       <c r="B270" s="8" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="C270" s="12" t="s">
         <v>25</v>
@@ -5382,7 +5451,7 @@
     <row r="271" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A271" s="11"/>
       <c r="B271" s="8" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="C271" s="12" t="s">
         <v>25</v>
@@ -5400,7 +5469,7 @@
     <row r="272" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A272" s="11"/>
       <c r="B272" s="8" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="C272" s="12" t="s">
         <v>25</v>
@@ -5412,7 +5481,7 @@
     <row r="273" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A273" s="11"/>
       <c r="B273" s="8" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="C273" s="12" t="s">
         <v>29</v>
@@ -5424,7 +5493,7 @@
     <row r="274" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A274" s="11"/>
       <c r="B274" s="8" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="C274" s="12" t="s">
         <v>29</v>
@@ -5436,7 +5505,7 @@
     <row r="275" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A275" s="11"/>
       <c r="B275" s="8" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="C275" s="12" t="s">
         <v>5</v>
@@ -5454,7 +5523,7 @@
     <row r="276" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A276" s="11"/>
       <c r="B276" s="8" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="C276" s="12" t="s">
         <v>5</v>
@@ -5472,7 +5541,7 @@
     <row r="277" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A277" s="11"/>
       <c r="B277" s="8" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="C277" s="12" t="s">
         <v>5</v>
@@ -5490,7 +5559,7 @@
     <row r="278" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A278" s="11"/>
       <c r="B278" s="8" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="C278" s="12" t="s">
         <v>5</v>
@@ -5508,7 +5577,7 @@
     <row r="279" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A279" s="11"/>
       <c r="B279" s="8" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="C279" s="12" t="s">
         <v>5</v>
@@ -5526,7 +5595,7 @@
     <row r="280" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A280" s="11"/>
       <c r="B280" s="8" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="C280" s="12" t="s">
         <v>5</v>
@@ -5544,7 +5613,7 @@
     <row r="281" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A281" s="11"/>
       <c r="B281" s="8" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="C281" s="12" t="s">
         <v>5</v>
@@ -5562,7 +5631,7 @@
     <row r="282" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A282" s="11"/>
       <c r="B282" s="8" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="C282" s="12" t="s">
         <v>5</v>
@@ -5580,7 +5649,7 @@
     <row r="283" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A283" s="11"/>
       <c r="B283" s="8" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="C283" s="12" t="s">
         <v>16</v>
@@ -5598,7 +5667,7 @@
     <row r="284" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A284" s="11"/>
       <c r="B284" s="8" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="C284" s="12" t="s">
         <v>16</v>
@@ -5616,7 +5685,7 @@
     <row r="285" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A285" s="11"/>
       <c r="B285" s="8" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="C285" s="12" t="s">
         <v>16</v>
@@ -5634,7 +5703,7 @@
     <row r="286" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A286" s="11"/>
       <c r="B286" s="8" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="C286" s="12" t="s">
         <v>16</v>
@@ -5652,7 +5721,7 @@
     <row r="287" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A287" s="11"/>
       <c r="B287" s="8" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="C287" s="12" t="s">
         <v>16</v>
@@ -5670,7 +5739,7 @@
     <row r="288" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A288" s="11"/>
       <c r="B288" s="8" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="C288" s="12" t="s">
         <v>16</v>
@@ -5688,7 +5757,7 @@
     <row r="289" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A289" s="11"/>
       <c r="B289" s="8" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="C289" s="12" t="s">
         <v>16</v>
@@ -5697,46 +5766,46 @@
         <v>33</v>
       </c>
     </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:6" ht="111" x14ac:dyDescent="0.3">
       <c r="A290" s="11"/>
       <c r="B290" s="8" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="C290" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="D290" s="14" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+      <c r="D290" s="15" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A291" s="11"/>
       <c r="B291" s="8" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="C291" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D291" s="14" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D291" s="15" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6" ht="42" x14ac:dyDescent="0.3">
       <c r="A292" s="11"/>
       <c r="B292" s="8" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="C292" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="D292" s="14" t="s">
-        <v>78</v>
+      <c r="D292" s="15" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A293" s="11"/>
       <c r="B293" s="8" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="C293" s="12" t="s">
         <v>25</v>
@@ -5754,7 +5823,7 @@
     <row r="294" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A294" s="11"/>
       <c r="B294" s="8" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="C294" s="12" t="s">
         <v>25</v>
@@ -5772,7 +5841,7 @@
     <row r="295" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A295" s="11"/>
       <c r="B295" s="8" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="C295" s="12" t="s">
         <v>25</v>
@@ -5790,7 +5859,7 @@
     <row r="296" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A296" s="11"/>
       <c r="B296" s="8" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="C296" s="12" t="s">
         <v>25</v>
@@ -5802,7 +5871,7 @@
     <row r="297" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A297" s="11"/>
       <c r="B297" s="8" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="C297" s="12" t="s">
         <v>29</v>
@@ -5814,7 +5883,7 @@
     <row r="298" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A298" s="11"/>
       <c r="B298" s="8" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="C298" s="12" t="s">
         <v>29</v>
@@ -5825,10 +5894,10 @@
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A299" s="11" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B299" s="8" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="C299" s="12" t="s">
         <v>5</v>
@@ -5845,10 +5914,10 @@
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A300" s="11" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B300" s="8" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="C300" s="12" t="s">
         <v>5</v>
@@ -5865,10 +5934,10 @@
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A301" s="11" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B301" s="8" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="C301" s="12" t="s">
         <v>5</v>
@@ -5885,10 +5954,10 @@
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A302" s="11" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B302" s="8" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="C302" s="12" t="s">
         <v>5</v>
@@ -5905,10 +5974,10 @@
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A303" s="11" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B303" s="8" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="C303" s="12" t="s">
         <v>5</v>
@@ -5925,10 +5994,10 @@
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A304" s="11" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B304" s="8" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="C304" s="12" t="s">
         <v>5</v>
@@ -5945,10 +6014,10 @@
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A305" s="11" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B305" s="8" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="C305" s="12" t="s">
         <v>5</v>
@@ -5965,10 +6034,10 @@
     </row>
     <row r="306" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A306" s="11" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B306" s="8" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="C306" s="12" t="s">
         <v>5</v>
@@ -5985,10 +6054,10 @@
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A307" s="11" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B307" s="8" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="C307" s="12" t="s">
         <v>16</v>
@@ -6005,10 +6074,10 @@
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A308" s="11" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B308" s="8" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="C308" s="12" t="s">
         <v>16</v>
@@ -6025,10 +6094,10 @@
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A309" s="11" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B309" s="8" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="C309" s="12" t="s">
         <v>16</v>
@@ -6045,10 +6114,10 @@
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A310" s="11" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B310" s="8" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="C310" s="12" t="s">
         <v>16</v>
@@ -6065,10 +6134,10 @@
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A311" s="11" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B311" s="8" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="C311" s="12" t="s">
         <v>16</v>
@@ -6085,10 +6154,10 @@
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A312" s="11" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B312" s="8" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="C312" s="12" t="s">
         <v>16</v>
@@ -6105,10 +6174,10 @@
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A313" s="11" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B313" s="8" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="C313" s="12" t="s">
         <v>16</v>
@@ -6117,96 +6186,96 @@
         <v>33</v>
       </c>
     </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:6" ht="97.2" x14ac:dyDescent="0.3">
       <c r="A314" s="11" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B314" s="8" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="C314" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="D314" s="14" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+      <c r="D314" s="15" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="315" spans="1:6" ht="55.8" x14ac:dyDescent="0.3">
       <c r="A315" s="11" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B315" s="8" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="C315" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="D315" s="14" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+      <c r="D315" s="15" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="316" spans="1:6" ht="55.8" x14ac:dyDescent="0.3">
       <c r="A316" s="11" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B316" s="8" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="C316" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D316" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D316" s="15" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="317" spans="1:6" ht="42" x14ac:dyDescent="0.3">
       <c r="A317" s="11" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B317" s="8" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="C317" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D317" s="4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D317" s="15" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="318" spans="1:6" ht="55.8" x14ac:dyDescent="0.3">
       <c r="A318" s="11" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B318" s="8" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="C318" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D318" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D318" s="15" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="319" spans="1:6" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A319" s="11" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B319" s="8" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="C319" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="D319" s="14" t="s">
-        <v>71</v>
+      <c r="D319" s="15" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A320" s="11" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B320" s="8" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="C320" s="12" t="s">
         <v>25</v>
@@ -6223,10 +6292,10 @@
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A321" s="11" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B321" s="8" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="C321" s="12" t="s">
         <v>25</v>
@@ -6243,10 +6312,10 @@
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A322" s="11" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B322" s="8" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="C322" s="12" t="s">
         <v>25</v>
@@ -6263,10 +6332,10 @@
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A323" s="11" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B323" s="8" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="C323" s="12" t="s">
         <v>25</v>
@@ -6277,10 +6346,10 @@
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A324" s="11" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B324" s="8" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="C324" s="12" t="s">
         <v>29</v>
@@ -6291,10 +6360,10 @@
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A325" s="11" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B325" s="8" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="C325" s="12" t="s">
         <v>29</v>
@@ -6305,10 +6374,10 @@
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A326" s="11" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B326" s="8" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="C326" s="12" t="s">
         <v>5</v>
@@ -6325,10 +6394,10 @@
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A327" s="11" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B327" s="8" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="C327" s="12" t="s">
         <v>5</v>
@@ -6345,10 +6414,10 @@
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A328" s="11" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B328" s="8" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="C328" s="12" t="s">
         <v>5</v>
@@ -6365,10 +6434,10 @@
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A329" s="11" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B329" s="8" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="C329" s="12" t="s">
         <v>5</v>
@@ -6385,10 +6454,10 @@
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A330" s="11" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B330" s="8" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="C330" s="12" t="s">
         <v>5</v>
@@ -6405,10 +6474,10 @@
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A331" s="11" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B331" s="8" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="C331" s="12" t="s">
         <v>5</v>
@@ -6425,10 +6494,10 @@
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A332" s="11" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B332" s="8" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="C332" s="12" t="s">
         <v>5</v>
@@ -6445,10 +6514,10 @@
     </row>
     <row r="333" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A333" s="11" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B333" s="8" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="C333" s="12" t="s">
         <v>5</v>
@@ -6465,10 +6534,10 @@
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A334" s="11" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B334" s="8" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="C334" s="12" t="s">
         <v>16</v>
@@ -6485,10 +6554,10 @@
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A335" s="11" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B335" s="8" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="C335" s="12" t="s">
         <v>16</v>
@@ -6505,10 +6574,10 @@
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A336" s="11" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B336" s="8" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="C336" s="12" t="s">
         <v>16</v>
@@ -6525,10 +6594,10 @@
     </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A337" s="11" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B337" s="8" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="C337" s="12" t="s">
         <v>16</v>
@@ -6545,10 +6614,10 @@
     </row>
     <row r="338" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A338" s="11" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B338" s="8" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="C338" s="12" t="s">
         <v>16</v>
@@ -6565,10 +6634,10 @@
     </row>
     <row r="339" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A339" s="11" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B339" s="8" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="C339" s="12" t="s">
         <v>16</v>
@@ -6585,10 +6654,10 @@
     </row>
     <row r="340" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A340" s="11" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B340" s="8" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="C340" s="12" t="s">
         <v>16</v>
@@ -6597,96 +6666,96 @@
         <v>33</v>
       </c>
     </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:6" ht="69.599999999999994" x14ac:dyDescent="0.3">
       <c r="A341" s="11" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B341" s="8" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="C341" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="D341" s="14" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D341" s="15" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="342" spans="1:6" ht="69.599999999999994" x14ac:dyDescent="0.3">
       <c r="A342" s="11" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B342" s="8" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="C342" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="D342" s="14" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D342" s="15" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="343" spans="1:6" ht="69.599999999999994" x14ac:dyDescent="0.3">
       <c r="A343" s="11" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B343" s="8" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="C343" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D343" s="14" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D343" s="15" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="344" spans="1:6" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A344" s="11" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B344" s="8" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="C344" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D344" s="14" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D344" s="15" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="345" spans="1:6" ht="55.8" x14ac:dyDescent="0.3">
       <c r="A345" s="11" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B345" s="8" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="C345" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D345" s="14" t="s">
-        <v>90</v>
+      <c r="D345" s="15" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="346" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A346" s="11" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B346" s="8" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="C346" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="D346" s="14" t="s">
-        <v>91</v>
+      <c r="D346" s="15" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="347" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A347" s="11" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B347" s="8" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="C347" s="12" t="s">
         <v>25</v>
@@ -6703,10 +6772,10 @@
     </row>
     <row r="348" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A348" s="11" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B348" s="8" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="C348" s="12" t="s">
         <v>25</v>
@@ -6723,10 +6792,10 @@
     </row>
     <row r="349" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A349" s="11" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B349" s="8" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="C349" s="12" t="s">
         <v>25</v>
@@ -6743,10 +6812,10 @@
     </row>
     <row r="350" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A350" s="11" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B350" s="8" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="C350" s="12" t="s">
         <v>25</v>
@@ -6757,10 +6826,10 @@
     </row>
     <row r="351" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A351" s="11" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B351" s="8" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="C351" s="12" t="s">
         <v>29</v>
@@ -6771,10 +6840,10 @@
     </row>
     <row r="352" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A352" s="11" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B352" s="8" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="C352" s="12" t="s">
         <v>29</v>
@@ -6785,10 +6854,10 @@
     </row>
     <row r="353" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A353" s="11" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B353" s="8" t="s">
-        <v>92</v>
+        <v>56</v>
       </c>
       <c r="C353" s="12" t="s">
         <v>5</v>
@@ -6805,10 +6874,10 @@
     </row>
     <row r="354" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A354" s="11" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B354" s="8" t="s">
-        <v>92</v>
+        <v>56</v>
       </c>
       <c r="C354" s="12" t="s">
         <v>5</v>
@@ -6825,10 +6894,10 @@
     </row>
     <row r="355" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A355" s="11" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B355" s="8" t="s">
-        <v>92</v>
+        <v>56</v>
       </c>
       <c r="C355" s="12" t="s">
         <v>5</v>
@@ -6845,10 +6914,10 @@
     </row>
     <row r="356" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A356" s="11" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B356" s="8" t="s">
-        <v>92</v>
+        <v>56</v>
       </c>
       <c r="C356" s="12" t="s">
         <v>5</v>
@@ -6865,10 +6934,10 @@
     </row>
     <row r="357" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A357" s="11" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B357" s="8" t="s">
-        <v>92</v>
+        <v>56</v>
       </c>
       <c r="C357" s="12" t="s">
         <v>5</v>
@@ -6885,10 +6954,10 @@
     </row>
     <row r="358" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A358" s="11" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B358" s="8" t="s">
-        <v>92</v>
+        <v>56</v>
       </c>
       <c r="C358" s="12" t="s">
         <v>5</v>
@@ -6905,10 +6974,10 @@
     </row>
     <row r="359" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A359" s="11" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B359" s="8" t="s">
-        <v>92</v>
+        <v>56</v>
       </c>
       <c r="C359" s="12" t="s">
         <v>5</v>
@@ -6925,10 +6994,10 @@
     </row>
     <row r="360" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A360" s="11" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B360" s="8" t="s">
-        <v>92</v>
+        <v>56</v>
       </c>
       <c r="C360" s="12" t="s">
         <v>5</v>
@@ -6945,10 +7014,10 @@
     </row>
     <row r="361" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A361" s="11" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B361" s="8" t="s">
-        <v>92</v>
+        <v>56</v>
       </c>
       <c r="C361" s="12" t="s">
         <v>16</v>
@@ -6965,10 +7034,10 @@
     </row>
     <row r="362" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A362" s="11" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B362" s="8" t="s">
-        <v>92</v>
+        <v>56</v>
       </c>
       <c r="C362" s="12" t="s">
         <v>16</v>
@@ -6985,10 +7054,10 @@
     </row>
     <row r="363" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A363" s="11" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B363" s="8" t="s">
-        <v>92</v>
+        <v>56</v>
       </c>
       <c r="C363" s="12" t="s">
         <v>16</v>
@@ -7005,10 +7074,10 @@
     </row>
     <row r="364" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A364" s="11" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B364" s="8" t="s">
-        <v>92</v>
+        <v>56</v>
       </c>
       <c r="C364" s="12" t="s">
         <v>16</v>
@@ -7025,10 +7094,10 @@
     </row>
     <row r="365" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A365" s="11" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B365" s="8" t="s">
-        <v>92</v>
+        <v>56</v>
       </c>
       <c r="C365" s="12" t="s">
         <v>16</v>
@@ -7045,10 +7114,10 @@
     </row>
     <row r="366" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A366" s="11" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B366" s="8" t="s">
-        <v>92</v>
+        <v>56</v>
       </c>
       <c r="C366" s="12" t="s">
         <v>16</v>
@@ -7065,10 +7134,10 @@
     </row>
     <row r="367" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A367" s="11" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B367" s="8" t="s">
-        <v>92</v>
+        <v>56</v>
       </c>
       <c r="C367" s="12" t="s">
         <v>16</v>
@@ -7077,96 +7146,96 @@
         <v>33</v>
       </c>
     </row>
-    <row r="368" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:6" ht="83.4" x14ac:dyDescent="0.3">
       <c r="A368" s="11" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B368" s="8" t="s">
-        <v>92</v>
+        <v>56</v>
       </c>
       <c r="C368" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="D368" s="14" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="369" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D368" s="15" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="369" spans="1:6" ht="83.4" x14ac:dyDescent="0.3">
       <c r="A369" s="11" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B369" s="8" t="s">
-        <v>92</v>
+        <v>56</v>
       </c>
       <c r="C369" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="D369" s="14" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="370" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D369" s="15" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="370" spans="1:6" ht="55.8" x14ac:dyDescent="0.3">
       <c r="A370" s="11" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B370" s="8" t="s">
-        <v>92</v>
+        <v>56</v>
       </c>
       <c r="C370" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D370" s="14" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="371" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D370" s="15" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="371" spans="1:6" ht="55.8" x14ac:dyDescent="0.3">
       <c r="A371" s="11" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B371" s="8" t="s">
-        <v>92</v>
+        <v>56</v>
       </c>
       <c r="C371" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D371" s="14" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="372" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D371" s="15" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="372" spans="1:6" ht="55.8" x14ac:dyDescent="0.3">
       <c r="A372" s="11" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B372" s="8" t="s">
-        <v>92</v>
+        <v>56</v>
       </c>
       <c r="C372" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D372" s="14" t="s">
-        <v>96</v>
+      <c r="D372" s="15" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="373" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A373" s="11" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B373" s="8" t="s">
-        <v>92</v>
+        <v>56</v>
       </c>
       <c r="C373" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="D373" s="14" t="s">
-        <v>97</v>
+      <c r="D373" s="15" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="374" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A374" s="11" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B374" s="8" t="s">
-        <v>92</v>
+        <v>56</v>
       </c>
       <c r="C374" s="12" t="s">
         <v>25</v>
@@ -7183,10 +7252,10 @@
     </row>
     <row r="375" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A375" s="11" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B375" s="8" t="s">
-        <v>92</v>
+        <v>56</v>
       </c>
       <c r="C375" s="12" t="s">
         <v>25</v>
@@ -7203,10 +7272,10 @@
     </row>
     <row r="376" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A376" s="11" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B376" s="8" t="s">
-        <v>92</v>
+        <v>56</v>
       </c>
       <c r="C376" s="12" t="s">
         <v>25</v>
@@ -7223,10 +7292,10 @@
     </row>
     <row r="377" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A377" s="11" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B377" s="8" t="s">
-        <v>92</v>
+        <v>56</v>
       </c>
       <c r="C377" s="12" t="s">
         <v>25</v>
@@ -7237,10 +7306,10 @@
     </row>
     <row r="378" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A378" s="11" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B378" s="8" t="s">
-        <v>92</v>
+        <v>56</v>
       </c>
       <c r="C378" s="12" t="s">
         <v>29</v>
@@ -7251,10 +7320,10 @@
     </row>
     <row r="379" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A379" s="11" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B379" s="8" t="s">
-        <v>92</v>
+        <v>56</v>
       </c>
       <c r="C379" s="12" t="s">
         <v>29</v>
@@ -7265,10 +7334,10 @@
     </row>
     <row r="380" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A380" s="11" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B380" s="8" t="s">
-        <v>98</v>
+        <v>57</v>
       </c>
       <c r="C380" s="12" t="s">
         <v>5</v>
@@ -7285,10 +7354,10 @@
     </row>
     <row r="381" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A381" s="11" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B381" s="8" t="s">
-        <v>98</v>
+        <v>57</v>
       </c>
       <c r="C381" s="12" t="s">
         <v>5</v>
@@ -7305,10 +7374,10 @@
     </row>
     <row r="382" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A382" s="11" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B382" s="8" t="s">
-        <v>98</v>
+        <v>57</v>
       </c>
       <c r="C382" s="12" t="s">
         <v>5</v>
@@ -7325,10 +7394,10 @@
     </row>
     <row r="383" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A383" s="11" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B383" s="8" t="s">
-        <v>98</v>
+        <v>57</v>
       </c>
       <c r="C383" s="12" t="s">
         <v>5</v>
@@ -7345,10 +7414,10 @@
     </row>
     <row r="384" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A384" s="11" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B384" s="8" t="s">
-        <v>98</v>
+        <v>57</v>
       </c>
       <c r="C384" s="12" t="s">
         <v>5</v>
@@ -7365,10 +7434,10 @@
     </row>
     <row r="385" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A385" s="11" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B385" s="8" t="s">
-        <v>98</v>
+        <v>57</v>
       </c>
       <c r="C385" s="12" t="s">
         <v>5</v>
@@ -7385,10 +7454,10 @@
     </row>
     <row r="386" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A386" s="11" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B386" s="8" t="s">
-        <v>98</v>
+        <v>57</v>
       </c>
       <c r="C386" s="12" t="s">
         <v>5</v>
@@ -7405,10 +7474,10 @@
     </row>
     <row r="387" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A387" s="11" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B387" s="8" t="s">
-        <v>98</v>
+        <v>57</v>
       </c>
       <c r="C387" s="12" t="s">
         <v>5</v>
@@ -7425,10 +7494,10 @@
     </row>
     <row r="388" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A388" s="11" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B388" s="8" t="s">
-        <v>98</v>
+        <v>57</v>
       </c>
       <c r="C388" s="12" t="s">
         <v>16</v>
@@ -7445,10 +7514,10 @@
     </row>
     <row r="389" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A389" s="11" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B389" s="8" t="s">
-        <v>98</v>
+        <v>57</v>
       </c>
       <c r="C389" s="12" t="s">
         <v>16</v>
@@ -7465,10 +7534,10 @@
     </row>
     <row r="390" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A390" s="11" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B390" s="8" t="s">
-        <v>98</v>
+        <v>57</v>
       </c>
       <c r="C390" s="12" t="s">
         <v>16</v>
@@ -7485,10 +7554,10 @@
     </row>
     <row r="391" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A391" s="11" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B391" s="8" t="s">
-        <v>98</v>
+        <v>57</v>
       </c>
       <c r="C391" s="12" t="s">
         <v>16</v>
@@ -7505,10 +7574,10 @@
     </row>
     <row r="392" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A392" s="11" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B392" s="8" t="s">
-        <v>98</v>
+        <v>57</v>
       </c>
       <c r="C392" s="12" t="s">
         <v>16</v>
@@ -7525,10 +7594,10 @@
     </row>
     <row r="393" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A393" s="11" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B393" s="8" t="s">
-        <v>98</v>
+        <v>57</v>
       </c>
       <c r="C393" s="12" t="s">
         <v>16</v>
@@ -7545,10 +7614,10 @@
     </row>
     <row r="394" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A394" s="11" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B394" s="8" t="s">
-        <v>98</v>
+        <v>57</v>
       </c>
       <c r="C394" s="12" t="s">
         <v>16</v>
@@ -7557,96 +7626,96 @@
         <v>33</v>
       </c>
     </row>
-    <row r="395" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:6" ht="55.8" x14ac:dyDescent="0.3">
       <c r="A395" s="11" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B395" s="8" t="s">
-        <v>98</v>
+        <v>57</v>
       </c>
       <c r="C395" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="D395" s="14" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="396" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D395" s="15" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="396" spans="1:6" ht="55.8" x14ac:dyDescent="0.3">
       <c r="A396" s="11" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B396" s="8" t="s">
-        <v>98</v>
+        <v>57</v>
       </c>
       <c r="C396" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="D396" s="14" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="397" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D396" s="15" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="397" spans="1:6" ht="55.8" x14ac:dyDescent="0.3">
       <c r="A397" s="11" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B397" s="8" t="s">
-        <v>98</v>
+        <v>57</v>
       </c>
       <c r="C397" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D397" s="14" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="398" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D397" s="15" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="398" spans="1:6" ht="42" x14ac:dyDescent="0.3">
       <c r="A398" s="11" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B398" s="8" t="s">
-        <v>98</v>
+        <v>57</v>
       </c>
       <c r="C398" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D398" s="14" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="399" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D398" s="15" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="399" spans="1:6" ht="42" x14ac:dyDescent="0.3">
       <c r="A399" s="11" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B399" s="8" t="s">
-        <v>98</v>
+        <v>57</v>
       </c>
       <c r="C399" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D399" s="14" t="s">
-        <v>102</v>
+      <c r="D399" s="15" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="400" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A400" s="11" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B400" s="8" t="s">
-        <v>98</v>
+        <v>57</v>
       </c>
       <c r="C400" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="D400" s="14" t="s">
-        <v>73</v>
+      <c r="D400" s="15" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="401" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A401" s="11" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B401" s="8" t="s">
-        <v>98</v>
+        <v>57</v>
       </c>
       <c r="C401" s="12" t="s">
         <v>25</v>
@@ -7663,10 +7732,10 @@
     </row>
     <row r="402" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A402" s="11" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B402" s="8" t="s">
-        <v>98</v>
+        <v>57</v>
       </c>
       <c r="C402" s="12" t="s">
         <v>25</v>
@@ -7683,10 +7752,10 @@
     </row>
     <row r="403" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A403" s="11" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B403" s="8" t="s">
-        <v>98</v>
+        <v>57</v>
       </c>
       <c r="C403" s="12" t="s">
         <v>25</v>
@@ -7703,10 +7772,10 @@
     </row>
     <row r="404" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A404" s="11" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B404" s="8" t="s">
-        <v>98</v>
+        <v>57</v>
       </c>
       <c r="C404" s="12" t="s">
         <v>25</v>
@@ -7717,10 +7786,10 @@
     </row>
     <row r="405" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A405" s="11" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B405" s="8" t="s">
-        <v>98</v>
+        <v>57</v>
       </c>
       <c r="C405" s="12" t="s">
         <v>29</v>
@@ -7731,10 +7800,10 @@
     </row>
     <row r="406" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A406" s="11" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B406" s="8" t="s">
-        <v>98</v>
+        <v>57</v>
       </c>
       <c r="C406" s="12" t="s">
         <v>29</v>
@@ -7745,10 +7814,10 @@
     </row>
     <row r="407" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A407" s="11" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="B407" s="14" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C407" s="12" t="s">
         <v>5</v>
@@ -7765,10 +7834,10 @@
     </row>
     <row r="408" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A408" s="11" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="B408" s="14" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C408" s="12" t="s">
         <v>5</v>
@@ -7785,10 +7854,10 @@
     </row>
     <row r="409" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A409" s="11" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="B409" s="14" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C409" s="12" t="s">
         <v>5</v>
@@ -7805,10 +7874,10 @@
     </row>
     <row r="410" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A410" s="11" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="B410" s="14" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C410" s="12" t="s">
         <v>5</v>
@@ -7825,10 +7894,10 @@
     </row>
     <row r="411" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A411" s="11" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="B411" s="14" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C411" s="12" t="s">
         <v>5</v>
@@ -7845,10 +7914,10 @@
     </row>
     <row r="412" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A412" s="11" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="B412" s="14" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C412" s="12" t="s">
         <v>5</v>
@@ -7865,10 +7934,10 @@
     </row>
     <row r="413" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A413" s="11" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="B413" s="14" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C413" s="12" t="s">
         <v>5</v>
@@ -7885,10 +7954,10 @@
     </row>
     <row r="414" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A414" s="11" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="B414" s="14" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C414" s="12" t="s">
         <v>5</v>
@@ -7905,10 +7974,10 @@
     </row>
     <row r="415" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A415" s="11" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="B415" s="14" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C415" s="12" t="s">
         <v>16</v>
@@ -7925,10 +7994,10 @@
     </row>
     <row r="416" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A416" s="11" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="B416" s="14" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C416" s="12" t="s">
         <v>16</v>
@@ -7945,10 +8014,10 @@
     </row>
     <row r="417" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A417" s="11" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="B417" s="14" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C417" s="12" t="s">
         <v>16</v>
@@ -7965,10 +8034,10 @@
     </row>
     <row r="418" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A418" s="11" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="B418" s="14" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C418" s="12" t="s">
         <v>16</v>
@@ -7985,10 +8054,10 @@
     </row>
     <row r="419" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A419" s="11" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="B419" s="14" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C419" s="12" t="s">
         <v>16</v>
@@ -8005,10 +8074,10 @@
     </row>
     <row r="420" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A420" s="11" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="B420" s="14" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C420" s="12" t="s">
         <v>16</v>
@@ -8025,10 +8094,10 @@
     </row>
     <row r="421" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A421" s="11" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="B421" s="14" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C421" s="12" t="s">
         <v>16</v>
@@ -8037,54 +8106,54 @@
         <v>33</v>
       </c>
     </row>
-    <row r="422" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:6" ht="69.599999999999994" x14ac:dyDescent="0.3">
       <c r="A422" s="11" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="B422" s="14" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C422" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="D422" s="14" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="423" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D422" s="15" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="423" spans="1:6" ht="42" x14ac:dyDescent="0.3">
       <c r="A423" s="11" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="B423" s="14" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C423" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D423" s="14" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="424" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D423" s="15" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="424" spans="1:6" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A424" s="11" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="B424" s="14" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C424" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="D424" s="14" t="s">
-        <v>71</v>
+      <c r="D424" s="15" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="425" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A425" s="11" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="B425" s="14" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C425" s="12" t="s">
         <v>25</v>
@@ -8101,10 +8170,10 @@
     </row>
     <row r="426" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A426" s="11" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="B426" s="14" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C426" s="12" t="s">
         <v>25</v>
@@ -8121,10 +8190,10 @@
     </row>
     <row r="427" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A427" s="11" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="B427" s="14" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C427" s="12" t="s">
         <v>25</v>
@@ -8141,10 +8210,10 @@
     </row>
     <row r="428" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A428" s="11" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="B428" s="14" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C428" s="12" t="s">
         <v>25</v>
@@ -8155,10 +8224,10 @@
     </row>
     <row r="429" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A429" s="11" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="B429" s="14" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C429" s="12" t="s">
         <v>29</v>
@@ -8169,10 +8238,10 @@
     </row>
     <row r="430" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A430" s="11" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="B430" s="14" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C430" s="12" t="s">
         <v>29</v>
@@ -8183,10 +8252,10 @@
     </row>
     <row r="431" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A431" s="11" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="B431" s="14" t="s">
-        <v>104</v>
+        <v>58</v>
       </c>
       <c r="C431" s="12" t="s">
         <v>5</v>
@@ -8203,10 +8272,10 @@
     </row>
     <row r="432" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A432" s="11" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="B432" s="14" t="s">
-        <v>104</v>
+        <v>58</v>
       </c>
       <c r="C432" s="12" t="s">
         <v>5</v>
@@ -8223,10 +8292,10 @@
     </row>
     <row r="433" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A433" s="11" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="B433" s="14" t="s">
-        <v>104</v>
+        <v>58</v>
       </c>
       <c r="C433" s="12" t="s">
         <v>5</v>
@@ -8243,10 +8312,10 @@
     </row>
     <row r="434" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A434" s="11" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="B434" s="14" t="s">
-        <v>104</v>
+        <v>58</v>
       </c>
       <c r="C434" s="12" t="s">
         <v>5</v>
@@ -8263,10 +8332,10 @@
     </row>
     <row r="435" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A435" s="11" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="B435" s="14" t="s">
-        <v>104</v>
+        <v>58</v>
       </c>
       <c r="C435" s="12" t="s">
         <v>5</v>
@@ -8283,10 +8352,10 @@
     </row>
     <row r="436" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A436" s="11" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="B436" s="14" t="s">
-        <v>104</v>
+        <v>58</v>
       </c>
       <c r="C436" s="12" t="s">
         <v>5</v>
@@ -8303,10 +8372,10 @@
     </row>
     <row r="437" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A437" s="11" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="B437" s="14" t="s">
-        <v>104</v>
+        <v>58</v>
       </c>
       <c r="C437" s="12" t="s">
         <v>5</v>
@@ -8323,10 +8392,10 @@
     </row>
     <row r="438" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A438" s="11" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="B438" s="14" t="s">
-        <v>104</v>
+        <v>58</v>
       </c>
       <c r="C438" s="12" t="s">
         <v>5</v>
@@ -8343,10 +8412,10 @@
     </row>
     <row r="439" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A439" s="11" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="B439" s="14" t="s">
-        <v>104</v>
+        <v>58</v>
       </c>
       <c r="C439" s="12" t="s">
         <v>16</v>
@@ -8363,10 +8432,10 @@
     </row>
     <row r="440" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A440" s="11" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="B440" s="14" t="s">
-        <v>104</v>
+        <v>58</v>
       </c>
       <c r="C440" s="12" t="s">
         <v>16</v>
@@ -8383,10 +8452,10 @@
     </row>
     <row r="441" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A441" s="11" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="B441" s="14" t="s">
-        <v>104</v>
+        <v>58</v>
       </c>
       <c r="C441" s="12" t="s">
         <v>16</v>
@@ -8403,10 +8472,10 @@
     </row>
     <row r="442" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A442" s="11" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="B442" s="14" t="s">
-        <v>104</v>
+        <v>58</v>
       </c>
       <c r="C442" s="12" t="s">
         <v>16</v>
@@ -8423,10 +8492,10 @@
     </row>
     <row r="443" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A443" s="11" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="B443" s="14" t="s">
-        <v>104</v>
+        <v>58</v>
       </c>
       <c r="C443" s="12" t="s">
         <v>16</v>
@@ -8443,10 +8512,10 @@
     </row>
     <row r="444" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A444" s="11" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="B444" s="14" t="s">
-        <v>104</v>
+        <v>58</v>
       </c>
       <c r="C444" s="12" t="s">
         <v>16</v>
@@ -8463,10 +8532,10 @@
     </row>
     <row r="445" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A445" s="11" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="B445" s="14" t="s">
-        <v>104</v>
+        <v>58</v>
       </c>
       <c r="C445" s="12" t="s">
         <v>16</v>
@@ -8475,54 +8544,54 @@
         <v>33</v>
       </c>
     </row>
-    <row r="446" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:6" ht="97.2" x14ac:dyDescent="0.3">
       <c r="A446" s="11" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="B446" s="14" t="s">
-        <v>104</v>
+        <v>58</v>
       </c>
       <c r="C446" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="D446" s="14" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="447" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D446" s="15" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="447" spans="1:6" ht="42" x14ac:dyDescent="0.3">
       <c r="A447" s="11" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="B447" s="14" t="s">
-        <v>104</v>
+        <v>58</v>
       </c>
       <c r="C447" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D447" s="14" t="s">
-        <v>106</v>
+      <c r="D447" s="15" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="448" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A448" s="11" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="B448" s="14" t="s">
-        <v>104</v>
+        <v>58</v>
       </c>
       <c r="C448" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="D448" s="14" t="s">
-        <v>75</v>
+      <c r="D448" s="15" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="449" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A449" s="11" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="B449" s="14" t="s">
-        <v>104</v>
+        <v>58</v>
       </c>
       <c r="C449" s="12" t="s">
         <v>25</v>
@@ -8539,10 +8608,10 @@
     </row>
     <row r="450" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A450" s="11" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="B450" s="14" t="s">
-        <v>104</v>
+        <v>58</v>
       </c>
       <c r="C450" s="12" t="s">
         <v>25</v>
@@ -8559,10 +8628,10 @@
     </row>
     <row r="451" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A451" s="11" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="B451" s="14" t="s">
-        <v>104</v>
+        <v>58</v>
       </c>
       <c r="C451" s="12" t="s">
         <v>25</v>
@@ -8579,10 +8648,10 @@
     </row>
     <row r="452" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A452" s="11" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="B452" s="14" t="s">
-        <v>104</v>
+        <v>58</v>
       </c>
       <c r="C452" s="12" t="s">
         <v>25</v>
@@ -8593,10 +8662,10 @@
     </row>
     <row r="453" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A453" s="11" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="B453" s="14" t="s">
-        <v>104</v>
+        <v>58</v>
       </c>
       <c r="C453" s="12" t="s">
         <v>29</v>
@@ -8607,10 +8676,10 @@
     </row>
     <row r="454" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A454" s="11" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="B454" s="14" t="s">
-        <v>104</v>
+        <v>58</v>
       </c>
       <c r="C454" s="12" t="s">
         <v>29</v>
@@ -8621,10 +8690,10 @@
     </row>
     <row r="455" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A455" s="11" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="B455" s="14" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C455" s="12" t="s">
         <v>5</v>
@@ -8641,10 +8710,10 @@
     </row>
     <row r="456" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A456" s="11" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="B456" s="14" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C456" s="12" t="s">
         <v>5</v>
@@ -8661,10 +8730,10 @@
     </row>
     <row r="457" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A457" s="11" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="B457" s="14" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C457" s="12" t="s">
         <v>5</v>
@@ -8681,10 +8750,10 @@
     </row>
     <row r="458" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A458" s="11" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="B458" s="14" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C458" s="12" t="s">
         <v>5</v>
@@ -8701,10 +8770,10 @@
     </row>
     <row r="459" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A459" s="11" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="B459" s="14" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C459" s="12" t="s">
         <v>5</v>
@@ -8721,10 +8790,10 @@
     </row>
     <row r="460" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A460" s="11" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="B460" s="14" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C460" s="12" t="s">
         <v>5</v>
@@ -8741,10 +8810,10 @@
     </row>
     <row r="461" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A461" s="11" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="B461" s="14" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C461" s="12" t="s">
         <v>5</v>
@@ -8761,10 +8830,10 @@
     </row>
     <row r="462" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A462" s="11" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="B462" s="14" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C462" s="12" t="s">
         <v>5</v>
@@ -8781,10 +8850,10 @@
     </row>
     <row r="463" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A463" s="11" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="B463" s="14" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C463" s="12" t="s">
         <v>16</v>
@@ -8801,10 +8870,10 @@
     </row>
     <row r="464" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A464" s="11" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="B464" s="14" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C464" s="12" t="s">
         <v>16</v>
@@ -8821,10 +8890,10 @@
     </row>
     <row r="465" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A465" s="11" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="B465" s="14" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C465" s="12" t="s">
         <v>16</v>
@@ -8841,10 +8910,10 @@
     </row>
     <row r="466" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A466" s="11" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="B466" s="14" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C466" s="12" t="s">
         <v>16</v>
@@ -8861,10 +8930,10 @@
     </row>
     <row r="467" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A467" s="11" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="B467" s="14" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C467" s="12" t="s">
         <v>16</v>
@@ -8881,10 +8950,10 @@
     </row>
     <row r="468" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A468" s="11" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="B468" s="14" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C468" s="12" t="s">
         <v>16</v>
@@ -8901,10 +8970,10 @@
     </row>
     <row r="469" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A469" s="11" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="B469" s="14" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C469" s="12" t="s">
         <v>16</v>
@@ -8913,54 +8982,54 @@
         <v>33</v>
       </c>
     </row>
-    <row r="470" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:6" ht="55.8" x14ac:dyDescent="0.3">
       <c r="A470" s="11" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="B470" s="14" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C470" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="D470" s="14" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="471" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D470" s="15" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="471" spans="1:6" ht="42" x14ac:dyDescent="0.3">
       <c r="A471" s="11" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="B471" s="14" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C471" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D471" s="14" t="s">
-        <v>107</v>
+      <c r="D471" s="15" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="472" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A472" s="11" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="B472" s="14" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C472" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="D472" s="14" t="s">
-        <v>108</v>
+      <c r="D472" s="15" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="473" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A473" s="11" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="B473" s="14" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C473" s="12" t="s">
         <v>25</v>
@@ -8977,10 +9046,10 @@
     </row>
     <row r="474" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A474" s="11" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="B474" s="14" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C474" s="12" t="s">
         <v>25</v>
@@ -8997,10 +9066,10 @@
     </row>
     <row r="475" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A475" s="11" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="B475" s="14" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C475" s="12" t="s">
         <v>25</v>
@@ -9017,10 +9086,10 @@
     </row>
     <row r="476" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A476" s="11" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="B476" s="14" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C476" s="12" t="s">
         <v>25</v>
@@ -9031,10 +9100,10 @@
     </row>
     <row r="477" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A477" s="11" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="B477" s="14" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C477" s="12" t="s">
         <v>29</v>
@@ -9045,10 +9114,10 @@
     </row>
     <row r="478" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A478" s="11" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="B478" s="14" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C478" s="12" t="s">
         <v>29</v>
@@ -9059,10 +9128,10 @@
     </row>
     <row r="479" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A479" s="11" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="B479" s="14" t="s">
-        <v>109</v>
+        <v>59</v>
       </c>
       <c r="C479" s="12" t="s">
         <v>5</v>
@@ -9079,10 +9148,10 @@
     </row>
     <row r="480" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A480" s="11" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="B480" s="14" t="s">
-        <v>109</v>
+        <v>59</v>
       </c>
       <c r="C480" s="12" t="s">
         <v>5</v>
@@ -9099,10 +9168,10 @@
     </row>
     <row r="481" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A481" s="11" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="B481" s="14" t="s">
-        <v>109</v>
+        <v>59</v>
       </c>
       <c r="C481" s="12" t="s">
         <v>5</v>
@@ -9119,10 +9188,10 @@
     </row>
     <row r="482" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A482" s="11" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="B482" s="14" t="s">
-        <v>109</v>
+        <v>59</v>
       </c>
       <c r="C482" s="12" t="s">
         <v>5</v>
@@ -9139,10 +9208,10 @@
     </row>
     <row r="483" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A483" s="11" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="B483" s="14" t="s">
-        <v>109</v>
+        <v>59</v>
       </c>
       <c r="C483" s="12" t="s">
         <v>5</v>
@@ -9159,10 +9228,10 @@
     </row>
     <row r="484" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A484" s="11" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="B484" s="14" t="s">
-        <v>109</v>
+        <v>59</v>
       </c>
       <c r="C484" s="12" t="s">
         <v>5</v>
@@ -9179,10 +9248,10 @@
     </row>
     <row r="485" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A485" s="11" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="B485" s="14" t="s">
-        <v>109</v>
+        <v>59</v>
       </c>
       <c r="C485" s="12" t="s">
         <v>5</v>
@@ -9199,10 +9268,10 @@
     </row>
     <row r="486" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A486" s="11" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="B486" s="14" t="s">
-        <v>109</v>
+        <v>59</v>
       </c>
       <c r="C486" s="12" t="s">
         <v>5</v>
@@ -9219,10 +9288,10 @@
     </row>
     <row r="487" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A487" s="11" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="B487" s="14" t="s">
-        <v>109</v>
+        <v>59</v>
       </c>
       <c r="C487" s="12" t="s">
         <v>16</v>
@@ -9239,10 +9308,10 @@
     </row>
     <row r="488" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A488" s="11" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="B488" s="14" t="s">
-        <v>109</v>
+        <v>59</v>
       </c>
       <c r="C488" s="12" t="s">
         <v>16</v>
@@ -9259,10 +9328,10 @@
     </row>
     <row r="489" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A489" s="11" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="B489" s="14" t="s">
-        <v>109</v>
+        <v>59</v>
       </c>
       <c r="C489" s="12" t="s">
         <v>16</v>
@@ -9279,10 +9348,10 @@
     </row>
     <row r="490" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A490" s="11" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="B490" s="14" t="s">
-        <v>109</v>
+        <v>59</v>
       </c>
       <c r="C490" s="12" t="s">
         <v>16</v>
@@ -9299,10 +9368,10 @@
     </row>
     <row r="491" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A491" s="11" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="B491" s="14" t="s">
-        <v>109</v>
+        <v>59</v>
       </c>
       <c r="C491" s="12" t="s">
         <v>16</v>
@@ -9319,10 +9388,10 @@
     </row>
     <row r="492" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A492" s="11" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="B492" s="14" t="s">
-        <v>109</v>
+        <v>59</v>
       </c>
       <c r="C492" s="12" t="s">
         <v>16</v>
@@ -9339,10 +9408,10 @@
     </row>
     <row r="493" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A493" s="11" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="B493" s="14" t="s">
-        <v>109</v>
+        <v>59</v>
       </c>
       <c r="C493" s="12" t="s">
         <v>16</v>
@@ -9351,54 +9420,54 @@
         <v>33</v>
       </c>
     </row>
-    <row r="494" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:6" ht="69.599999999999994" x14ac:dyDescent="0.3">
       <c r="A494" s="11" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="B494" s="14" t="s">
-        <v>109</v>
+        <v>59</v>
       </c>
       <c r="C494" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="D494" s="14" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="495" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D494" s="15" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="495" spans="1:6" ht="42" x14ac:dyDescent="0.3">
       <c r="A495" s="11" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="B495" s="14" t="s">
-        <v>109</v>
+        <v>59</v>
       </c>
       <c r="C495" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D495" s="14" t="s">
-        <v>102</v>
+      <c r="D495" s="15" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="496" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A496" s="11" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="B496" s="14" t="s">
-        <v>109</v>
+        <v>59</v>
       </c>
       <c r="C496" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="D496" s="14" t="s">
-        <v>91</v>
+      <c r="D496" s="15" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="497" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A497" s="11" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="B497" s="14" t="s">
-        <v>109</v>
+        <v>59</v>
       </c>
       <c r="C497" s="12" t="s">
         <v>25</v>
@@ -9415,10 +9484,10 @@
     </row>
     <row r="498" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A498" s="11" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="B498" s="14" t="s">
-        <v>109</v>
+        <v>59</v>
       </c>
       <c r="C498" s="12" t="s">
         <v>25</v>
@@ -9435,10 +9504,10 @@
     </row>
     <row r="499" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A499" s="11" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="B499" s="14" t="s">
-        <v>109</v>
+        <v>59</v>
       </c>
       <c r="C499" s="12" t="s">
         <v>25</v>
@@ -9455,10 +9524,10 @@
     </row>
     <row r="500" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A500" s="11" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="B500" s="14" t="s">
-        <v>109</v>
+        <v>59</v>
       </c>
       <c r="C500" s="12" t="s">
         <v>25</v>
@@ -9469,10 +9538,10 @@
     </row>
     <row r="501" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A501" s="11" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="B501" s="14" t="s">
-        <v>109</v>
+        <v>59</v>
       </c>
       <c r="C501" s="12" t="s">
         <v>29</v>
@@ -9483,10 +9552,10 @@
     </row>
     <row r="502" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A502" s="11" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="B502" s="14" t="s">
-        <v>109</v>
+        <v>59</v>
       </c>
       <c r="C502" s="12" t="s">
         <v>29</v>
@@ -9497,10 +9566,10 @@
     </row>
     <row r="503" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A503" s="11" t="s">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="B503" s="8" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="C503" s="12" t="s">
         <v>5</v>
@@ -9517,10 +9586,10 @@
     </row>
     <row r="504" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A504" s="11" t="s">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="B504" s="8" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="C504" s="12" t="s">
         <v>5</v>
@@ -9537,10 +9606,10 @@
     </row>
     <row r="505" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A505" s="11" t="s">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="B505" s="8" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="C505" s="12" t="s">
         <v>5</v>
@@ -9557,10 +9626,10 @@
     </row>
     <row r="506" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A506" s="11" t="s">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="B506" s="8" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="C506" s="12" t="s">
         <v>5</v>
@@ -9577,10 +9646,10 @@
     </row>
     <row r="507" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A507" s="11" t="s">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="B507" s="8" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="C507" s="12" t="s">
         <v>5</v>
@@ -9597,10 +9666,10 @@
     </row>
     <row r="508" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A508" s="11" t="s">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="B508" s="8" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="C508" s="12" t="s">
         <v>5</v>
@@ -9617,10 +9686,10 @@
     </row>
     <row r="509" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A509" s="11" t="s">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="B509" s="8" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="C509" s="12" t="s">
         <v>5</v>
@@ -9637,10 +9706,10 @@
     </row>
     <row r="510" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A510" s="11" t="s">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="B510" s="8" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="C510" s="12" t="s">
         <v>5</v>
@@ -9657,10 +9726,10 @@
     </row>
     <row r="511" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A511" s="11" t="s">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="B511" s="8" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="C511" s="12" t="s">
         <v>16</v>
@@ -9677,10 +9746,10 @@
     </row>
     <row r="512" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A512" s="11" t="s">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="B512" s="8" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="C512" s="12" t="s">
         <v>16</v>
@@ -9697,10 +9766,10 @@
     </row>
     <row r="513" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A513" s="11" t="s">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="B513" s="8" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="C513" s="12" t="s">
         <v>16</v>
@@ -9717,10 +9786,10 @@
     </row>
     <row r="514" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A514" s="11" t="s">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="B514" s="8" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="C514" s="12" t="s">
         <v>16</v>
@@ -9737,10 +9806,10 @@
     </row>
     <row r="515" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A515" s="11" t="s">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="B515" s="8" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="C515" s="12" t="s">
         <v>16</v>
@@ -9757,10 +9826,10 @@
     </row>
     <row r="516" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A516" s="11" t="s">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="B516" s="8" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="C516" s="12" t="s">
         <v>16</v>
@@ -9777,10 +9846,10 @@
     </row>
     <row r="517" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A517" s="11" t="s">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="B517" s="8" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="C517" s="12" t="s">
         <v>16</v>
@@ -9789,96 +9858,96 @@
         <v>33</v>
       </c>
     </row>
-    <row r="518" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:6" ht="97.2" x14ac:dyDescent="0.3">
       <c r="A518" s="11" t="s">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="B518" s="8" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="C518" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="D518" s="14" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="519" spans="1:6" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+      <c r="D518" s="15" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="519" spans="1:6" ht="55.8" x14ac:dyDescent="0.3">
       <c r="A519" s="11" t="s">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="B519" s="8" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="C519" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="D519" s="14" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="520" spans="1:6" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+      <c r="D519" s="15" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="520" spans="1:6" ht="55.8" x14ac:dyDescent="0.3">
       <c r="A520" s="11" t="s">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="B520" s="8" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="C520" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D520" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="521" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D520" s="15" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="521" spans="1:6" ht="42" x14ac:dyDescent="0.3">
       <c r="A521" s="11" t="s">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="B521" s="8" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="C521" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D521" s="4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="522" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D521" s="15" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="522" spans="1:6" ht="55.8" x14ac:dyDescent="0.3">
       <c r="A522" s="11" t="s">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="B522" s="8" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="C522" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D522" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="523" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D522" s="15" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="523" spans="1:6" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A523" s="11" t="s">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="B523" s="8" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="C523" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="D523" s="14" t="s">
-        <v>71</v>
+      <c r="D523" s="15" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="524" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A524" s="11" t="s">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="B524" s="8" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="C524" s="12" t="s">
         <v>25</v>
@@ -9895,10 +9964,10 @@
     </row>
     <row r="525" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A525" s="11" t="s">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="B525" s="8" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="C525" s="12" t="s">
         <v>25</v>
@@ -9915,10 +9984,10 @@
     </row>
     <row r="526" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A526" s="11" t="s">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="B526" s="8" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="C526" s="12" t="s">
         <v>25</v>
@@ -9935,10 +10004,10 @@
     </row>
     <row r="527" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A527" s="11" t="s">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="B527" s="8" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="C527" s="12" t="s">
         <v>25</v>
@@ -9949,10 +10018,10 @@
     </row>
     <row r="528" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A528" s="11" t="s">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="B528" s="8" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="C528" s="12" t="s">
         <v>29</v>
@@ -9963,10 +10032,10 @@
     </row>
     <row r="529" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A529" s="11" t="s">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="B529" s="8" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="C529" s="12" t="s">
         <v>29</v>
@@ -9977,10 +10046,10 @@
     </row>
     <row r="530" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A530" s="11" t="s">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="B530" s="8" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="C530" s="12" t="s">
         <v>5</v>
@@ -9997,10 +10066,10 @@
     </row>
     <row r="531" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A531" s="11" t="s">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="B531" s="8" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="C531" s="12" t="s">
         <v>5</v>
@@ -10017,10 +10086,10 @@
     </row>
     <row r="532" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A532" s="11" t="s">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="B532" s="8" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="C532" s="12" t="s">
         <v>5</v>
@@ -10037,10 +10106,10 @@
     </row>
     <row r="533" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A533" s="11" t="s">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="B533" s="8" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="C533" s="12" t="s">
         <v>5</v>
@@ -10057,10 +10126,10 @@
     </row>
     <row r="534" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A534" s="11" t="s">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="B534" s="8" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="C534" s="12" t="s">
         <v>5</v>
@@ -10077,10 +10146,10 @@
     </row>
     <row r="535" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A535" s="11" t="s">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="B535" s="8" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="C535" s="12" t="s">
         <v>5</v>
@@ -10097,10 +10166,10 @@
     </row>
     <row r="536" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A536" s="11" t="s">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="B536" s="8" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="C536" s="12" t="s">
         <v>5</v>
@@ -10117,10 +10186,10 @@
     </row>
     <row r="537" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A537" s="11" t="s">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="B537" s="8" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="C537" s="12" t="s">
         <v>5</v>
@@ -10137,10 +10206,10 @@
     </row>
     <row r="538" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A538" s="11" t="s">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="B538" s="8" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="C538" s="12" t="s">
         <v>16</v>
@@ -10157,10 +10226,10 @@
     </row>
     <row r="539" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A539" s="11" t="s">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="B539" s="8" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="C539" s="12" t="s">
         <v>16</v>
@@ -10177,10 +10246,10 @@
     </row>
     <row r="540" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A540" s="11" t="s">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="B540" s="8" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="C540" s="12" t="s">
         <v>16</v>
@@ -10197,10 +10266,10 @@
     </row>
     <row r="541" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A541" s="11" t="s">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="B541" s="8" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="C541" s="12" t="s">
         <v>16</v>
@@ -10217,10 +10286,10 @@
     </row>
     <row r="542" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A542" s="11" t="s">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="B542" s="8" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="C542" s="12" t="s">
         <v>16</v>
@@ -10237,10 +10306,10 @@
     </row>
     <row r="543" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A543" s="11" t="s">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="B543" s="8" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="C543" s="12" t="s">
         <v>16</v>
@@ -10257,10 +10326,10 @@
     </row>
     <row r="544" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A544" s="11" t="s">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="B544" s="8" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="C544" s="12" t="s">
         <v>16</v>
@@ -10269,96 +10338,96 @@
         <v>33</v>
       </c>
     </row>
-    <row r="545" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:6" ht="69.599999999999994" x14ac:dyDescent="0.3">
       <c r="A545" s="11" t="s">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="B545" s="8" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="C545" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="D545" s="14" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="546" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D545" s="15" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="546" spans="1:6" ht="69.599999999999994" x14ac:dyDescent="0.3">
       <c r="A546" s="11" t="s">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="B546" s="8" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="C546" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="D546" s="14" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="547" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D546" s="15" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="547" spans="1:6" ht="69.599999999999994" x14ac:dyDescent="0.3">
       <c r="A547" s="11" t="s">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="B547" s="8" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="C547" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D547" s="14" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="548" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D547" s="15" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="548" spans="1:6" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A548" s="11" t="s">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="B548" s="8" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="C548" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D548" s="14" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="549" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D548" s="15" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="549" spans="1:6" ht="55.8" x14ac:dyDescent="0.3">
       <c r="A549" s="11" t="s">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="B549" s="8" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="C549" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D549" s="14" t="s">
-        <v>90</v>
+      <c r="D549" s="15" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="550" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A550" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B550" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C550" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D550" s="15" t="s">
         <v>110</v>
-      </c>
-      <c r="B550" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="C550" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D550" s="14" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="551" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A551" s="11" t="s">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="B551" s="8" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="C551" s="12" t="s">
         <v>25</v>
@@ -10375,10 +10444,10 @@
     </row>
     <row r="552" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A552" s="11" t="s">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="B552" s="8" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="C552" s="12" t="s">
         <v>25</v>
@@ -10395,10 +10464,10 @@
     </row>
     <row r="553" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A553" s="11" t="s">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="B553" s="8" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="C553" s="12" t="s">
         <v>25</v>
@@ -10415,10 +10484,10 @@
     </row>
     <row r="554" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A554" s="11" t="s">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="B554" s="8" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="C554" s="12" t="s">
         <v>25</v>
@@ -10429,10 +10498,10 @@
     </row>
     <row r="555" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A555" s="11" t="s">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="B555" s="8" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="C555" s="12" t="s">
         <v>29</v>
@@ -10443,10 +10512,10 @@
     </row>
     <row r="556" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A556" s="11" t="s">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="B556" s="8" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="C556" s="12" t="s">
         <v>29</v>
@@ -10457,10 +10526,10 @@
     </row>
     <row r="557" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A557" s="11" t="s">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="B557" s="14" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="C557" s="12" t="s">
         <v>5</v>
@@ -10477,10 +10546,10 @@
     </row>
     <row r="558" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A558" s="11" t="s">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="B558" s="14" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="C558" s="12" t="s">
         <v>5</v>
@@ -10497,10 +10566,10 @@
     </row>
     <row r="559" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A559" s="11" t="s">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="B559" s="14" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="C559" s="12" t="s">
         <v>5</v>
@@ -10517,10 +10586,10 @@
     </row>
     <row r="560" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A560" s="11" t="s">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="B560" s="14" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="C560" s="12" t="s">
         <v>5</v>
@@ -10537,10 +10606,10 @@
     </row>
     <row r="561" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A561" s="11" t="s">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="B561" s="14" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="C561" s="12" t="s">
         <v>5</v>
@@ -10557,10 +10626,10 @@
     </row>
     <row r="562" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A562" s="11" t="s">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="B562" s="14" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="C562" s="12" t="s">
         <v>5</v>
@@ -10577,10 +10646,10 @@
     </row>
     <row r="563" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A563" s="11" t="s">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="B563" s="14" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="C563" s="12" t="s">
         <v>5</v>
@@ -10597,10 +10666,10 @@
     </row>
     <row r="564" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A564" s="11" t="s">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="B564" s="14" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="C564" s="12" t="s">
         <v>5</v>
@@ -10617,10 +10686,10 @@
     </row>
     <row r="565" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A565" s="11" t="s">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="B565" s="14" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="C565" s="12" t="s">
         <v>16</v>
@@ -10637,10 +10706,10 @@
     </row>
     <row r="566" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A566" s="11" t="s">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="B566" s="14" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="C566" s="12" t="s">
         <v>16</v>
@@ -10657,10 +10726,10 @@
     </row>
     <row r="567" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A567" s="11" t="s">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="B567" s="14" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="C567" s="12" t="s">
         <v>16</v>
@@ -10677,10 +10746,10 @@
     </row>
     <row r="568" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A568" s="11" t="s">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="B568" s="14" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="C568" s="12" t="s">
         <v>16</v>
@@ -10697,10 +10766,10 @@
     </row>
     <row r="569" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A569" s="11" t="s">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="B569" s="14" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="C569" s="12" t="s">
         <v>16</v>
@@ -10717,10 +10786,10 @@
     </row>
     <row r="570" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A570" s="11" t="s">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="B570" s="14" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="C570" s="12" t="s">
         <v>16</v>
@@ -10737,10 +10806,10 @@
     </row>
     <row r="571" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A571" s="11" t="s">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="B571" s="14" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="C571" s="12" t="s">
         <v>16</v>
@@ -10749,82 +10818,82 @@
         <v>33</v>
       </c>
     </row>
-    <row r="572" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:6" ht="97.2" x14ac:dyDescent="0.3">
       <c r="A572" s="11" t="s">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="B572" s="14" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="C572" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="D572" s="14" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="573" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D572" s="15" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="573" spans="1:6" ht="42" x14ac:dyDescent="0.3">
       <c r="A573" s="11" t="s">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="B573" s="14" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="C573" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D573" s="14" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="574" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D573" s="15" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="574" spans="1:6" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A574" s="11" t="s">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="B574" s="14" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="C574" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D574" s="14" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="575" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D574" s="15" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="575" spans="1:6" ht="42" x14ac:dyDescent="0.3">
       <c r="A575" s="11" t="s">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="B575" s="14" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="C575" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D575" s="14" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="576" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D575" s="15" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="576" spans="1:6" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A576" s="11" t="s">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="B576" s="14" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="C576" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="D576" s="14" t="s">
-        <v>40</v>
+      <c r="D576" s="15" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="577" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A577" s="11" t="s">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="B577" s="14" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="C577" s="12" t="s">
         <v>25</v>
@@ -10841,10 +10910,10 @@
     </row>
     <row r="578" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A578" s="11" t="s">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="B578" s="14" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="C578" s="12" t="s">
         <v>25</v>
@@ -10861,10 +10930,10 @@
     </row>
     <row r="579" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A579" s="11" t="s">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="B579" s="14" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="C579" s="12" t="s">
         <v>25</v>
@@ -10881,10 +10950,10 @@
     </row>
     <row r="580" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A580" s="11" t="s">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="B580" s="14" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="C580" s="12" t="s">
         <v>25</v>
@@ -10895,10 +10964,10 @@
     </row>
     <row r="581" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A581" s="11" t="s">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="B581" s="14" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="C581" s="12" t="s">
         <v>29</v>
@@ -10909,10 +10978,10 @@
     </row>
     <row r="582" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A582" s="11" t="s">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="B582" s="14" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="C582" s="12" t="s">
         <v>29</v>
@@ -10923,10 +10992,10 @@
     </row>
     <row r="583" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A583" s="11" t="s">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="B583" s="14" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C583" s="12" t="s">
         <v>5</v>
@@ -10943,10 +11012,10 @@
     </row>
     <row r="584" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A584" s="11" t="s">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="B584" s="14" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C584" s="12" t="s">
         <v>5</v>
@@ -10963,10 +11032,10 @@
     </row>
     <row r="585" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A585" s="11" t="s">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="B585" s="14" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C585" s="12" t="s">
         <v>5</v>
@@ -10983,16 +11052,16 @@
     </row>
     <row r="586" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A586" s="11" t="s">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="B586" s="14" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C586" s="12" t="s">
         <v>5</v>
       </c>
       <c r="D586" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E586" t="s">
         <v>7</v>
@@ -11003,10 +11072,10 @@
     </row>
     <row r="587" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A587" s="11" t="s">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="B587" s="14" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C587" s="12" t="s">
         <v>5</v>
@@ -11023,10 +11092,10 @@
     </row>
     <row r="588" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A588" s="11" t="s">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="B588" s="14" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C588" s="12" t="s">
         <v>5</v>
@@ -11043,10 +11112,10 @@
     </row>
     <row r="589" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A589" s="11" t="s">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="B589" s="14" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C589" s="12" t="s">
         <v>5</v>
@@ -11063,10 +11132,10 @@
     </row>
     <row r="590" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A590" s="11" t="s">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="B590" s="14" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C590" s="12" t="s">
         <v>5</v>
@@ -11083,10 +11152,10 @@
     </row>
     <row r="591" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A591" s="11" t="s">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="B591" s="14" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C591" s="12" t="s">
         <v>16</v>
@@ -11103,10 +11172,10 @@
     </row>
     <row r="592" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A592" s="11" t="s">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="B592" s="14" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C592" s="12" t="s">
         <v>16</v>
@@ -11123,10 +11192,10 @@
     </row>
     <row r="593" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A593" s="11" t="s">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="B593" s="14" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C593" s="12" t="s">
         <v>16</v>
@@ -11143,10 +11212,10 @@
     </row>
     <row r="594" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A594" s="11" t="s">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="B594" s="14" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C594" s="12" t="s">
         <v>16</v>
@@ -11163,10 +11232,10 @@
     </row>
     <row r="595" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A595" s="11" t="s">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="B595" s="14" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C595" s="12" t="s">
         <v>16</v>
@@ -11183,10 +11252,10 @@
     </row>
     <row r="596" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A596" s="11" t="s">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="B596" s="14" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C596" s="12" t="s">
         <v>16</v>
@@ -11203,10 +11272,10 @@
     </row>
     <row r="597" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A597" s="11" t="s">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="B597" s="14" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C597" s="12" t="s">
         <v>16</v>
@@ -11215,82 +11284,82 @@
         <v>33</v>
       </c>
     </row>
-    <row r="598" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:6" ht="111" x14ac:dyDescent="0.3">
       <c r="A598" s="11" t="s">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="B598" s="14" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C598" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="D598" s="14" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="599" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D598" s="15" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="599" spans="1:6" ht="42" x14ac:dyDescent="0.3">
       <c r="A599" s="11" t="s">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="B599" s="14" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C599" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D599" s="14" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="600" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D599" s="15" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="600" spans="1:6" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A600" s="11" t="s">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="B600" s="14" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C600" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D600" s="14" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="601" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D600" s="15" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="601" spans="1:6" ht="42" x14ac:dyDescent="0.3">
       <c r="A601" s="11" t="s">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="B601" s="14" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C601" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D601" s="14" t="s">
+      <c r="D601" s="15" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="602" spans="1:6" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A602" s="11" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="602" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A602" s="11" t="s">
-        <v>110</v>
-      </c>
       <c r="B602" s="14" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C602" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="D602" s="14" t="s">
-        <v>40</v>
+      <c r="D602" s="15" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="603" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A603" s="11" t="s">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="B603" s="14" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C603" s="12" t="s">
         <v>25</v>
@@ -11307,10 +11376,10 @@
     </row>
     <row r="604" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A604" s="11" t="s">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="B604" s="14" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C604" s="12" t="s">
         <v>25</v>
@@ -11327,10 +11396,10 @@
     </row>
     <row r="605" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A605" s="11" t="s">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="B605" s="14" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C605" s="12" t="s">
         <v>25</v>
@@ -11347,10 +11416,10 @@
     </row>
     <row r="606" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A606" s="11" t="s">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="B606" s="14" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C606" s="12" t="s">
         <v>25</v>
@@ -11361,10 +11430,10 @@
     </row>
     <row r="607" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A607" s="11" t="s">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="B607" s="14" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C607" s="12" t="s">
         <v>29</v>
@@ -11375,10 +11444,10 @@
     </row>
     <row r="608" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A608" s="11" t="s">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="B608" s="14" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C608" s="12" t="s">
         <v>29</v>
@@ -11389,10 +11458,10 @@
     </row>
     <row r="609" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A609" s="11" t="s">
-        <v>111</v>
+        <v>61</v>
       </c>
       <c r="B609" s="8" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="C609" s="12" t="s">
         <v>5</v>
@@ -11409,10 +11478,10 @@
     </row>
     <row r="610" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A610" s="11" t="s">
-        <v>111</v>
+        <v>61</v>
       </c>
       <c r="B610" s="8" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="C610" s="12" t="s">
         <v>5</v>
@@ -11429,10 +11498,10 @@
     </row>
     <row r="611" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A611" s="11" t="s">
-        <v>111</v>
+        <v>61</v>
       </c>
       <c r="B611" s="8" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="C611" s="12" t="s">
         <v>5</v>
@@ -11449,10 +11518,10 @@
     </row>
     <row r="612" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A612" s="11" t="s">
-        <v>111</v>
+        <v>61</v>
       </c>
       <c r="B612" s="8" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="C612" s="12" t="s">
         <v>5</v>
@@ -11469,10 +11538,10 @@
     </row>
     <row r="613" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A613" s="11" t="s">
-        <v>111</v>
+        <v>61</v>
       </c>
       <c r="B613" s="8" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="C613" s="12" t="s">
         <v>5</v>
@@ -11489,10 +11558,10 @@
     </row>
     <row r="614" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A614" s="11" t="s">
-        <v>111</v>
+        <v>61</v>
       </c>
       <c r="B614" s="8" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="C614" s="12" t="s">
         <v>5</v>
@@ -11509,10 +11578,10 @@
     </row>
     <row r="615" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A615" s="11" t="s">
-        <v>111</v>
+        <v>61</v>
       </c>
       <c r="B615" s="8" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="C615" s="12" t="s">
         <v>5</v>
@@ -11529,10 +11598,10 @@
     </row>
     <row r="616" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A616" s="11" t="s">
-        <v>111</v>
+        <v>61</v>
       </c>
       <c r="B616" s="8" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="C616" s="12" t="s">
         <v>5</v>
@@ -11549,10 +11618,10 @@
     </row>
     <row r="617" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A617" s="11" t="s">
-        <v>111</v>
+        <v>61</v>
       </c>
       <c r="B617" s="8" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="C617" s="12" t="s">
         <v>16</v>
@@ -11569,10 +11638,10 @@
     </row>
     <row r="618" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A618" s="11" t="s">
-        <v>111</v>
+        <v>61</v>
       </c>
       <c r="B618" s="8" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="C618" s="12" t="s">
         <v>16</v>
@@ -11589,10 +11658,10 @@
     </row>
     <row r="619" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A619" s="11" t="s">
-        <v>111</v>
+        <v>61</v>
       </c>
       <c r="B619" s="8" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="C619" s="12" t="s">
         <v>16</v>
@@ -11609,10 +11678,10 @@
     </row>
     <row r="620" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A620" s="11" t="s">
-        <v>111</v>
+        <v>61</v>
       </c>
       <c r="B620" s="8" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="C620" s="12" t="s">
         <v>16</v>
@@ -11629,10 +11698,10 @@
     </row>
     <row r="621" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A621" s="11" t="s">
-        <v>111</v>
+        <v>61</v>
       </c>
       <c r="B621" s="8" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="C621" s="12" t="s">
         <v>16</v>
@@ -11649,10 +11718,10 @@
     </row>
     <row r="622" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A622" s="11" t="s">
-        <v>111</v>
+        <v>61</v>
       </c>
       <c r="B622" s="8" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="C622" s="12" t="s">
         <v>16</v>
@@ -11669,10 +11738,10 @@
     </row>
     <row r="623" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A623" s="11" t="s">
-        <v>111</v>
+        <v>61</v>
       </c>
       <c r="B623" s="8" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="C623" s="12" t="s">
         <v>16</v>
@@ -11681,96 +11750,96 @@
         <v>33</v>
       </c>
     </row>
-    <row r="624" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:6" ht="97.2" x14ac:dyDescent="0.3">
       <c r="A624" s="11" t="s">
-        <v>111</v>
+        <v>61</v>
       </c>
       <c r="B624" s="8" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="C624" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="D624" s="14" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="625" spans="1:6" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+      <c r="D624" s="15" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="625" spans="1:6" ht="55.8" x14ac:dyDescent="0.3">
       <c r="A625" s="11" t="s">
-        <v>111</v>
+        <v>61</v>
       </c>
       <c r="B625" s="8" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="C625" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="D625" s="14" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="626" spans="1:6" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+      <c r="D625" s="15" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="626" spans="1:6" ht="55.8" x14ac:dyDescent="0.3">
       <c r="A626" s="11" t="s">
-        <v>111</v>
+        <v>61</v>
       </c>
       <c r="B626" s="8" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="C626" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D626" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="627" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D626" s="15" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="627" spans="1:6" ht="42" x14ac:dyDescent="0.3">
       <c r="A627" s="11" t="s">
-        <v>111</v>
+        <v>61</v>
       </c>
       <c r="B627" s="8" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="C627" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D627" s="4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="628" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D627" s="15" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="628" spans="1:6" ht="55.8" x14ac:dyDescent="0.3">
       <c r="A628" s="11" t="s">
-        <v>111</v>
+        <v>61</v>
       </c>
       <c r="B628" s="8" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="C628" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D628" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="629" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D628" s="15" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="629" spans="1:6" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A629" s="11" t="s">
-        <v>111</v>
+        <v>61</v>
       </c>
       <c r="B629" s="8" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="C629" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="D629" s="14" t="s">
-        <v>71</v>
+      <c r="D629" s="15" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="630" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A630" s="11" t="s">
-        <v>111</v>
+        <v>61</v>
       </c>
       <c r="B630" s="8" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="C630" s="12" t="s">
         <v>25</v>
@@ -11787,10 +11856,10 @@
     </row>
     <row r="631" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A631" s="11" t="s">
-        <v>111</v>
+        <v>61</v>
       </c>
       <c r="B631" s="8" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="C631" s="12" t="s">
         <v>25</v>
@@ -11807,10 +11876,10 @@
     </row>
     <row r="632" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A632" s="11" t="s">
-        <v>111</v>
+        <v>61</v>
       </c>
       <c r="B632" s="8" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="C632" s="12" t="s">
         <v>25</v>
@@ -11827,10 +11896,10 @@
     </row>
     <row r="633" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A633" s="11" t="s">
-        <v>111</v>
+        <v>61</v>
       </c>
       <c r="B633" s="8" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="C633" s="12" t="s">
         <v>25</v>
@@ -11841,10 +11910,10 @@
     </row>
     <row r="634" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A634" s="11" t="s">
-        <v>111</v>
+        <v>61</v>
       </c>
       <c r="B634" s="8" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="C634" s="12" t="s">
         <v>29</v>
@@ -11855,10 +11924,10 @@
     </row>
     <row r="635" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A635" s="11" t="s">
-        <v>111</v>
+        <v>61</v>
       </c>
       <c r="B635" s="8" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="C635" s="12" t="s">
         <v>29</v>
@@ -11869,10 +11938,10 @@
     </row>
     <row r="636" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A636" s="11" t="s">
-        <v>111</v>
+        <v>61</v>
       </c>
       <c r="B636" s="8" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="C636" s="12" t="s">
         <v>5</v>
@@ -11889,10 +11958,10 @@
     </row>
     <row r="637" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A637" s="11" t="s">
-        <v>111</v>
+        <v>61</v>
       </c>
       <c r="B637" s="8" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="C637" s="12" t="s">
         <v>5</v>
@@ -11909,10 +11978,10 @@
     </row>
     <row r="638" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A638" s="11" t="s">
-        <v>111</v>
+        <v>61</v>
       </c>
       <c r="B638" s="8" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="C638" s="12" t="s">
         <v>5</v>
@@ -11929,10 +11998,10 @@
     </row>
     <row r="639" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A639" s="11" t="s">
-        <v>111</v>
+        <v>61</v>
       </c>
       <c r="B639" s="8" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="C639" s="12" t="s">
         <v>5</v>
@@ -11949,10 +12018,10 @@
     </row>
     <row r="640" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A640" s="11" t="s">
-        <v>111</v>
+        <v>61</v>
       </c>
       <c r="B640" s="8" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="C640" s="12" t="s">
         <v>5</v>
@@ -11969,10 +12038,10 @@
     </row>
     <row r="641" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A641" s="11" t="s">
-        <v>111</v>
+        <v>61</v>
       </c>
       <c r="B641" s="8" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="C641" s="12" t="s">
         <v>5</v>
@@ -11989,10 +12058,10 @@
     </row>
     <row r="642" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A642" s="11" t="s">
-        <v>111</v>
+        <v>61</v>
       </c>
       <c r="B642" s="8" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="C642" s="12" t="s">
         <v>5</v>
@@ -12009,10 +12078,10 @@
     </row>
     <row r="643" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A643" s="11" t="s">
-        <v>111</v>
+        <v>61</v>
       </c>
       <c r="B643" s="8" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="C643" s="12" t="s">
         <v>5</v>
@@ -12029,10 +12098,10 @@
     </row>
     <row r="644" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A644" s="11" t="s">
-        <v>111</v>
+        <v>61</v>
       </c>
       <c r="B644" s="8" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="C644" s="12" t="s">
         <v>16</v>
@@ -12049,10 +12118,10 @@
     </row>
     <row r="645" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A645" s="11" t="s">
-        <v>111</v>
+        <v>61</v>
       </c>
       <c r="B645" s="8" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="C645" s="12" t="s">
         <v>16</v>
@@ -12069,10 +12138,10 @@
     </row>
     <row r="646" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A646" s="11" t="s">
-        <v>111</v>
+        <v>61</v>
       </c>
       <c r="B646" s="8" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="C646" s="12" t="s">
         <v>16</v>
@@ -12089,10 +12158,10 @@
     </row>
     <row r="647" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A647" s="11" t="s">
-        <v>111</v>
+        <v>61</v>
       </c>
       <c r="B647" s="8" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="C647" s="12" t="s">
         <v>16</v>
@@ -12109,10 +12178,10 @@
     </row>
     <row r="648" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A648" s="11" t="s">
-        <v>111</v>
+        <v>61</v>
       </c>
       <c r="B648" s="8" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="C648" s="12" t="s">
         <v>16</v>
@@ -12129,10 +12198,10 @@
     </row>
     <row r="649" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A649" s="11" t="s">
-        <v>111</v>
+        <v>61</v>
       </c>
       <c r="B649" s="8" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="C649" s="12" t="s">
         <v>16</v>
@@ -12149,10 +12218,10 @@
     </row>
     <row r="650" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A650" s="11" t="s">
-        <v>111</v>
+        <v>61</v>
       </c>
       <c r="B650" s="8" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="C650" s="12" t="s">
         <v>16</v>
@@ -12161,96 +12230,96 @@
         <v>33</v>
       </c>
     </row>
-    <row r="651" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:6" ht="69.599999999999994" x14ac:dyDescent="0.3">
       <c r="A651" s="11" t="s">
-        <v>111</v>
+        <v>61</v>
       </c>
       <c r="B651" s="8" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="C651" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="D651" s="14" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="652" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D651" s="15" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="652" spans="1:6" ht="69.599999999999994" x14ac:dyDescent="0.3">
       <c r="A652" s="11" t="s">
-        <v>111</v>
+        <v>61</v>
       </c>
       <c r="B652" s="8" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="C652" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="D652" s="14" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="653" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D652" s="15" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="653" spans="1:6" ht="69.599999999999994" x14ac:dyDescent="0.3">
       <c r="A653" s="11" t="s">
-        <v>111</v>
+        <v>61</v>
       </c>
       <c r="B653" s="8" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="C653" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D653" s="14" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="654" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D653" s="15" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="654" spans="1:6" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A654" s="11" t="s">
-        <v>111</v>
+        <v>61</v>
       </c>
       <c r="B654" s="8" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="C654" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D654" s="14" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="655" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D654" s="15" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="655" spans="1:6" ht="55.8" x14ac:dyDescent="0.3">
       <c r="A655" s="11" t="s">
-        <v>111</v>
+        <v>61</v>
       </c>
       <c r="B655" s="8" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="C655" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D655" s="14" t="s">
-        <v>90</v>
+      <c r="D655" s="15" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="656" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A656" s="11" t="s">
-        <v>111</v>
+        <v>61</v>
       </c>
       <c r="B656" s="8" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="C656" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="D656" s="14" t="s">
-        <v>91</v>
+      <c r="D656" s="15" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="657" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A657" s="11" t="s">
-        <v>111</v>
+        <v>61</v>
       </c>
       <c r="B657" s="8" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="C657" s="12" t="s">
         <v>25</v>
@@ -12267,10 +12336,10 @@
     </row>
     <row r="658" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A658" s="11" t="s">
-        <v>111</v>
+        <v>61</v>
       </c>
       <c r="B658" s="8" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="C658" s="12" t="s">
         <v>25</v>
@@ -12287,10 +12356,10 @@
     </row>
     <row r="659" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A659" s="11" t="s">
-        <v>111</v>
+        <v>61</v>
       </c>
       <c r="B659" s="8" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="C659" s="12" t="s">
         <v>25</v>
@@ -12307,10 +12376,10 @@
     </row>
     <row r="660" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A660" s="11" t="s">
-        <v>111</v>
+        <v>61</v>
       </c>
       <c r="B660" s="8" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="C660" s="12" t="s">
         <v>25</v>
@@ -12321,10 +12390,10 @@
     </row>
     <row r="661" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A661" s="11" t="s">
-        <v>111</v>
+        <v>61</v>
       </c>
       <c r="B661" s="8" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="C661" s="12" t="s">
         <v>29</v>
@@ -12335,10 +12404,10 @@
     </row>
     <row r="662" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A662" s="11" t="s">
-        <v>111</v>
+        <v>61</v>
       </c>
       <c r="B662" s="8" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="C662" s="12" t="s">
         <v>29</v>
@@ -12349,10 +12418,10 @@
     </row>
     <row r="663" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A663" s="11" t="s">
-        <v>111</v>
+        <v>61</v>
       </c>
       <c r="B663" s="8" t="s">
-        <v>92</v>
+        <v>56</v>
       </c>
       <c r="C663" s="12" t="s">
         <v>5</v>
@@ -12369,10 +12438,10 @@
     </row>
     <row r="664" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A664" s="11" t="s">
-        <v>111</v>
+        <v>61</v>
       </c>
       <c r="B664" s="8" t="s">
-        <v>92</v>
+        <v>56</v>
       </c>
       <c r="C664" s="12" t="s">
         <v>5</v>
@@ -12389,10 +12458,10 @@
     </row>
     <row r="665" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A665" s="11" t="s">
-        <v>111</v>
+        <v>61</v>
       </c>
       <c r="B665" s="8" t="s">
-        <v>92</v>
+        <v>56</v>
       </c>
       <c r="C665" s="12" t="s">
         <v>5</v>
@@ -12409,10 +12478,10 @@
     </row>
     <row r="666" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A666" s="11" t="s">
-        <v>111</v>
+        <v>61</v>
       </c>
       <c r="B666" s="8" t="s">
-        <v>92</v>
+        <v>56</v>
       </c>
       <c r="C666" s="12" t="s">
         <v>5</v>
@@ -12429,10 +12498,10 @@
     </row>
     <row r="667" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A667" s="11" t="s">
-        <v>111</v>
+        <v>61</v>
       </c>
       <c r="B667" s="8" t="s">
-        <v>92</v>
+        <v>56</v>
       </c>
       <c r="C667" s="12" t="s">
         <v>5</v>
@@ -12449,10 +12518,10 @@
     </row>
     <row r="668" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A668" s="11" t="s">
-        <v>111</v>
+        <v>61</v>
       </c>
       <c r="B668" s="8" t="s">
-        <v>92</v>
+        <v>56</v>
       </c>
       <c r="C668" s="12" t="s">
         <v>5</v>
@@ -12469,10 +12538,10 @@
     </row>
     <row r="669" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A669" s="11" t="s">
-        <v>111</v>
+        <v>61</v>
       </c>
       <c r="B669" s="8" t="s">
-        <v>92</v>
+        <v>56</v>
       </c>
       <c r="C669" s="12" t="s">
         <v>5</v>
@@ -12489,10 +12558,10 @@
     </row>
     <row r="670" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A670" s="11" t="s">
-        <v>111</v>
+        <v>61</v>
       </c>
       <c r="B670" s="8" t="s">
-        <v>92</v>
+        <v>56</v>
       </c>
       <c r="C670" s="12" t="s">
         <v>5</v>
@@ -12509,10 +12578,10 @@
     </row>
     <row r="671" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A671" s="11" t="s">
-        <v>111</v>
+        <v>61</v>
       </c>
       <c r="B671" s="8" t="s">
-        <v>92</v>
+        <v>56</v>
       </c>
       <c r="C671" s="12" t="s">
         <v>16</v>
@@ -12529,10 +12598,10 @@
     </row>
     <row r="672" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A672" s="11" t="s">
-        <v>111</v>
+        <v>61</v>
       </c>
       <c r="B672" s="8" t="s">
-        <v>92</v>
+        <v>56</v>
       </c>
       <c r="C672" s="12" t="s">
         <v>16</v>
@@ -12549,10 +12618,10 @@
     </row>
     <row r="673" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A673" s="11" t="s">
-        <v>111</v>
+        <v>61</v>
       </c>
       <c r="B673" s="8" t="s">
-        <v>92</v>
+        <v>56</v>
       </c>
       <c r="C673" s="12" t="s">
         <v>16</v>
@@ -12569,10 +12638,10 @@
     </row>
     <row r="674" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A674" s="11" t="s">
-        <v>111</v>
+        <v>61</v>
       </c>
       <c r="B674" s="8" t="s">
-        <v>92</v>
+        <v>56</v>
       </c>
       <c r="C674" s="12" t="s">
         <v>16</v>
@@ -12589,10 +12658,10 @@
     </row>
     <row r="675" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A675" s="11" t="s">
-        <v>111</v>
+        <v>61</v>
       </c>
       <c r="B675" s="8" t="s">
-        <v>92</v>
+        <v>56</v>
       </c>
       <c r="C675" s="12" t="s">
         <v>16</v>
@@ -12609,10 +12678,10 @@
     </row>
     <row r="676" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A676" s="11" t="s">
-        <v>111</v>
+        <v>61</v>
       </c>
       <c r="B676" s="8" t="s">
-        <v>92</v>
+        <v>56</v>
       </c>
       <c r="C676" s="12" t="s">
         <v>16</v>
@@ -12629,10 +12698,10 @@
     </row>
     <row r="677" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A677" s="11" t="s">
-        <v>111</v>
+        <v>61</v>
       </c>
       <c r="B677" s="8" t="s">
-        <v>92</v>
+        <v>56</v>
       </c>
       <c r="C677" s="12" t="s">
         <v>16</v>
@@ -12641,96 +12710,96 @@
         <v>33</v>
       </c>
     </row>
-    <row r="678" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:6" ht="83.4" x14ac:dyDescent="0.3">
       <c r="A678" s="11" t="s">
-        <v>111</v>
+        <v>61</v>
       </c>
       <c r="B678" s="8" t="s">
-        <v>92</v>
+        <v>56</v>
       </c>
       <c r="C678" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="D678" s="14" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="679" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D678" s="15" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="679" spans="1:6" ht="83.4" x14ac:dyDescent="0.3">
       <c r="A679" s="11" t="s">
-        <v>111</v>
+        <v>61</v>
       </c>
       <c r="B679" s="8" t="s">
-        <v>92</v>
+        <v>56</v>
       </c>
       <c r="C679" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="D679" s="14" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="680" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D679" s="15" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="680" spans="1:6" ht="55.8" x14ac:dyDescent="0.3">
       <c r="A680" s="11" t="s">
-        <v>111</v>
+        <v>61</v>
       </c>
       <c r="B680" s="8" t="s">
-        <v>92</v>
+        <v>56</v>
       </c>
       <c r="C680" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D680" s="14" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="681" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D680" s="15" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="681" spans="1:6" ht="55.8" x14ac:dyDescent="0.3">
       <c r="A681" s="11" t="s">
-        <v>111</v>
+        <v>61</v>
       </c>
       <c r="B681" s="8" t="s">
-        <v>92</v>
+        <v>56</v>
       </c>
       <c r="C681" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D681" s="14" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="682" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D681" s="15" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="682" spans="1:6" ht="55.8" x14ac:dyDescent="0.3">
       <c r="A682" s="11" t="s">
-        <v>111</v>
+        <v>61</v>
       </c>
       <c r="B682" s="8" t="s">
-        <v>92</v>
+        <v>56</v>
       </c>
       <c r="C682" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D682" s="14" t="s">
-        <v>96</v>
+      <c r="D682" s="15" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="683" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A683" s="11" t="s">
-        <v>111</v>
+        <v>61</v>
       </c>
       <c r="B683" s="8" t="s">
-        <v>92</v>
+        <v>56</v>
       </c>
       <c r="C683" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="D683" s="14" t="s">
-        <v>97</v>
+      <c r="D683" s="15" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="684" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A684" s="11" t="s">
-        <v>111</v>
+        <v>61</v>
       </c>
       <c r="B684" s="8" t="s">
-        <v>92</v>
+        <v>56</v>
       </c>
       <c r="C684" s="12" t="s">
         <v>25</v>
@@ -12747,10 +12816,10 @@
     </row>
     <row r="685" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A685" s="11" t="s">
-        <v>111</v>
+        <v>61</v>
       </c>
       <c r="B685" s="8" t="s">
-        <v>92</v>
+        <v>56</v>
       </c>
       <c r="C685" s="12" t="s">
         <v>25</v>
@@ -12767,10 +12836,10 @@
     </row>
     <row r="686" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A686" s="11" t="s">
-        <v>111</v>
+        <v>61</v>
       </c>
       <c r="B686" s="8" t="s">
-        <v>92</v>
+        <v>56</v>
       </c>
       <c r="C686" s="12" t="s">
         <v>25</v>
@@ -12787,10 +12856,10 @@
     </row>
     <row r="687" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A687" s="11" t="s">
-        <v>111</v>
+        <v>61</v>
       </c>
       <c r="B687" s="8" t="s">
-        <v>92</v>
+        <v>56</v>
       </c>
       <c r="C687" s="12" t="s">
         <v>25</v>
@@ -12801,10 +12870,10 @@
     </row>
     <row r="688" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A688" s="11" t="s">
-        <v>111</v>
+        <v>61</v>
       </c>
       <c r="B688" s="8" t="s">
-        <v>92</v>
+        <v>56</v>
       </c>
       <c r="C688" s="12" t="s">
         <v>29</v>
@@ -12815,10 +12884,10 @@
     </row>
     <row r="689" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A689" s="11" t="s">
-        <v>111</v>
+        <v>61</v>
       </c>
       <c r="B689" s="8" t="s">
-        <v>92</v>
+        <v>56</v>
       </c>
       <c r="C689" s="12" t="s">
         <v>29</v>
@@ -12829,10 +12898,10 @@
     </row>
     <row r="690" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A690" s="11" t="s">
-        <v>111</v>
+        <v>61</v>
       </c>
       <c r="B690" s="8" t="s">
-        <v>98</v>
+        <v>57</v>
       </c>
       <c r="C690" s="12" t="s">
         <v>5</v>
@@ -12849,10 +12918,10 @@
     </row>
     <row r="691" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A691" s="11" t="s">
-        <v>111</v>
+        <v>61</v>
       </c>
       <c r="B691" s="8" t="s">
-        <v>98</v>
+        <v>57</v>
       </c>
       <c r="C691" s="12" t="s">
         <v>5</v>
@@ -12869,10 +12938,10 @@
     </row>
     <row r="692" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A692" s="11" t="s">
-        <v>111</v>
+        <v>61</v>
       </c>
       <c r="B692" s="8" t="s">
-        <v>98</v>
+        <v>57</v>
       </c>
       <c r="C692" s="12" t="s">
         <v>5</v>
@@ -12889,10 +12958,10 @@
     </row>
     <row r="693" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A693" s="11" t="s">
-        <v>111</v>
+        <v>61</v>
       </c>
       <c r="B693" s="8" t="s">
-        <v>98</v>
+        <v>57</v>
       </c>
       <c r="C693" s="12" t="s">
         <v>5</v>
@@ -12909,10 +12978,10 @@
     </row>
     <row r="694" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A694" s="11" t="s">
-        <v>111</v>
+        <v>61</v>
       </c>
       <c r="B694" s="8" t="s">
-        <v>98</v>
+        <v>57</v>
       </c>
       <c r="C694" s="12" t="s">
         <v>5</v>
@@ -12929,10 +12998,10 @@
     </row>
     <row r="695" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A695" s="11" t="s">
-        <v>111</v>
+        <v>61</v>
       </c>
       <c r="B695" s="8" t="s">
-        <v>98</v>
+        <v>57</v>
       </c>
       <c r="C695" s="12" t="s">
         <v>5</v>
@@ -12949,10 +13018,10 @@
     </row>
     <row r="696" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A696" s="11" t="s">
-        <v>111</v>
+        <v>61</v>
       </c>
       <c r="B696" s="8" t="s">
-        <v>98</v>
+        <v>57</v>
       </c>
       <c r="C696" s="12" t="s">
         <v>5</v>
@@ -12969,10 +13038,10 @@
     </row>
     <row r="697" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A697" s="11" t="s">
-        <v>111</v>
+        <v>61</v>
       </c>
       <c r="B697" s="8" t="s">
-        <v>98</v>
+        <v>57</v>
       </c>
       <c r="C697" s="12" t="s">
         <v>5</v>
@@ -12989,10 +13058,10 @@
     </row>
     <row r="698" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A698" s="11" t="s">
-        <v>111</v>
+        <v>61</v>
       </c>
       <c r="B698" s="8" t="s">
-        <v>98</v>
+        <v>57</v>
       </c>
       <c r="C698" s="12" t="s">
         <v>16</v>
@@ -13009,10 +13078,10 @@
     </row>
     <row r="699" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A699" s="11" t="s">
-        <v>111</v>
+        <v>61</v>
       </c>
       <c r="B699" s="8" t="s">
-        <v>98</v>
+        <v>57</v>
       </c>
       <c r="C699" s="12" t="s">
         <v>16</v>
@@ -13029,10 +13098,10 @@
     </row>
     <row r="700" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A700" s="11" t="s">
-        <v>111</v>
+        <v>61</v>
       </c>
       <c r="B700" s="8" t="s">
-        <v>98</v>
+        <v>57</v>
       </c>
       <c r="C700" s="12" t="s">
         <v>16</v>
@@ -13049,10 +13118,10 @@
     </row>
     <row r="701" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A701" s="11" t="s">
-        <v>111</v>
+        <v>61</v>
       </c>
       <c r="B701" s="8" t="s">
-        <v>98</v>
+        <v>57</v>
       </c>
       <c r="C701" s="12" t="s">
         <v>16</v>
@@ -13069,10 +13138,10 @@
     </row>
     <row r="702" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A702" s="11" t="s">
-        <v>111</v>
+        <v>61</v>
       </c>
       <c r="B702" s="8" t="s">
-        <v>98</v>
+        <v>57</v>
       </c>
       <c r="C702" s="12" t="s">
         <v>16</v>
@@ -13089,10 +13158,10 @@
     </row>
     <row r="703" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A703" s="11" t="s">
-        <v>111</v>
+        <v>61</v>
       </c>
       <c r="B703" s="8" t="s">
-        <v>98</v>
+        <v>57</v>
       </c>
       <c r="C703" s="12" t="s">
         <v>16</v>
@@ -13109,10 +13178,10 @@
     </row>
     <row r="704" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A704" s="11" t="s">
-        <v>111</v>
+        <v>61</v>
       </c>
       <c r="B704" s="8" t="s">
-        <v>98</v>
+        <v>57</v>
       </c>
       <c r="C704" s="12" t="s">
         <v>16</v>
@@ -13121,96 +13190,96 @@
         <v>33</v>
       </c>
     </row>
-    <row r="705" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:6" ht="55.8" x14ac:dyDescent="0.3">
       <c r="A705" s="11" t="s">
-        <v>111</v>
+        <v>61</v>
       </c>
       <c r="B705" s="8" t="s">
-        <v>98</v>
+        <v>57</v>
       </c>
       <c r="C705" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="D705" s="14" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="706" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D705" s="15" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="706" spans="1:6" ht="55.8" x14ac:dyDescent="0.3">
       <c r="A706" s="11" t="s">
-        <v>111</v>
+        <v>61</v>
       </c>
       <c r="B706" s="8" t="s">
-        <v>98</v>
+        <v>57</v>
       </c>
       <c r="C706" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="D706" s="14" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="707" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D706" s="15" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="707" spans="1:6" ht="55.8" x14ac:dyDescent="0.3">
       <c r="A707" s="11" t="s">
-        <v>111</v>
+        <v>61</v>
       </c>
       <c r="B707" s="8" t="s">
-        <v>98</v>
+        <v>57</v>
       </c>
       <c r="C707" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D707" s="14" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="708" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D707" s="15" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="708" spans="1:6" ht="42" x14ac:dyDescent="0.3">
       <c r="A708" s="11" t="s">
-        <v>111</v>
+        <v>61</v>
       </c>
       <c r="B708" s="8" t="s">
-        <v>98</v>
+        <v>57</v>
       </c>
       <c r="C708" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D708" s="14" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="709" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D708" s="15" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="709" spans="1:6" ht="42" x14ac:dyDescent="0.3">
       <c r="A709" s="11" t="s">
-        <v>111</v>
+        <v>61</v>
       </c>
       <c r="B709" s="8" t="s">
-        <v>98</v>
+        <v>57</v>
       </c>
       <c r="C709" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D709" s="14" t="s">
-        <v>102</v>
+      <c r="D709" s="15" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="710" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A710" s="11" t="s">
-        <v>111</v>
+        <v>61</v>
       </c>
       <c r="B710" s="8" t="s">
-        <v>98</v>
+        <v>57</v>
       </c>
       <c r="C710" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="D710" s="14" t="s">
-        <v>73</v>
+      <c r="D710" s="15" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="711" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A711" s="11" t="s">
-        <v>111</v>
+        <v>61</v>
       </c>
       <c r="B711" s="8" t="s">
-        <v>98</v>
+        <v>57</v>
       </c>
       <c r="C711" s="12" t="s">
         <v>25</v>
@@ -13227,10 +13296,10 @@
     </row>
     <row r="712" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A712" s="11" t="s">
-        <v>111</v>
+        <v>61</v>
       </c>
       <c r="B712" s="8" t="s">
-        <v>98</v>
+        <v>57</v>
       </c>
       <c r="C712" s="12" t="s">
         <v>25</v>
@@ -13247,10 +13316,10 @@
     </row>
     <row r="713" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A713" s="11" t="s">
-        <v>111</v>
+        <v>61</v>
       </c>
       <c r="B713" s="8" t="s">
-        <v>98</v>
+        <v>57</v>
       </c>
       <c r="C713" s="12" t="s">
         <v>25</v>
@@ -13267,10 +13336,10 @@
     </row>
     <row r="714" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A714" s="11" t="s">
-        <v>111</v>
+        <v>61</v>
       </c>
       <c r="B714" s="8" t="s">
-        <v>98</v>
+        <v>57</v>
       </c>
       <c r="C714" s="12" t="s">
         <v>25</v>
@@ -13281,10 +13350,10 @@
     </row>
     <row r="715" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A715" s="11" t="s">
-        <v>111</v>
+        <v>61</v>
       </c>
       <c r="B715" s="8" t="s">
-        <v>98</v>
+        <v>57</v>
       </c>
       <c r="C715" s="12" t="s">
         <v>29</v>
@@ -13295,10 +13364,10 @@
     </row>
     <row r="716" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A716" s="11" t="s">
-        <v>111</v>
+        <v>61</v>
       </c>
       <c r="B716" s="8" t="s">
-        <v>98</v>
+        <v>57</v>
       </c>
       <c r="C716" s="12" t="s">
         <v>29</v>
